--- a/NZR Online Shop.xlsx
+++ b/NZR Online Shop.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7830" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Supllier" sheetId="3" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Item!$A$1:$C$2</definedName>
     <definedName name="Category">Stock!$U$2:$W$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="236">
   <si>
     <t>No</t>
   </si>
@@ -725,27 +725,36 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Modal Pembelian NZR Shop</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="#,##0;\-#,##0"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="#,##0;\-#,##0"/>
+    <numFmt numFmtId="168" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -805,147 +814,39 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -954,7 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.25"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,13 +867,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.25"/>
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.25"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,37 +885,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.5"/>
+        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.25"/>
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,7 +927,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.5"/>
+        <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,7 +945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.25"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,180 +957,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1237,262 +970,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1501,10 +995,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1513,22 +1004,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1537,28 +1028,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1567,19 +1052,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1588,19 +1073,19 @@
     <xf numFmtId="38" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1609,25 +1094,22 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1636,193 +1118,245 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="3" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="168" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="38" formatCode="#,##0_);[Red]\(#,##0\)"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <numFmt numFmtId="168" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <numFmt numFmtId="168" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="49" formatCode="@"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1836,76 +1370,85 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
+  <c:style val="28"/>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+            <a:pPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Setoran Modal</a:t>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Setoran Modal ke</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Mama Ahda</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.384236111111111"/>
-          <c:y val="0.00694444444444444"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
+      <c:layout/>
+      <c:overlay val="1"/>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="5B9BD5">
+              <a:alpha val="61000"/>
+            </a:srgbClr>
+          </a:solidFill>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:innerShdw blurRad="63500" dist="50800" dir="2700000">
+            <a:prstClr val="black">
+              <a:alpha val="50000"/>
+            </a:prstClr>
+          </a:innerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.139944444444444"/>
-          <c:y val="0.177083333333333"/>
-          <c:w val="0.831583333333333"/>
-          <c:h val="0.56537037037037"/>
+          <c:x val="0.13994444444444407"/>
+          <c:y val="0.17708333333333304"/>
+          <c:w val="0.83158333333333301"/>
+          <c:h val="0.56537037037037008"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1920,77 +1463,31 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:miter lim="800000"/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d>
-              <a:extrusionClr>
-                <a:srgbClr val="FFFFFF"/>
-              </a:extrusionClr>
-              <a:contourClr>
-                <a:srgbClr val="FFFFFF"/>
-              </a:contourClr>
-            </a:sp3d>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:miter lim="800000"/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d>
-                <a:extrusionClr>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:extrusionClr>
-                <a:contourClr>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Setoran!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yyyy;@</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0" c:formatCode="[$-409]d\-mmm\-yyyy;@">
+                <c:pt idx="0">
                   <c:v>44060</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="[$-409]d\-mmm\-yyyy;@">
+                <c:pt idx="1">
                   <c:v>44074</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="[$-409]d\-mmm\-yyyy;@">
+                <c:pt idx="2">
                   <c:v>44082</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="[$-409]d\-mmm\-yyyy;@">
+                <c:pt idx="3">
                   <c:v>44102</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="[$-409]d\-mmm\-yyyy;@">
+                <c:pt idx="4">
                   <c:v>44109</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="[$-409]d\-mmm\-yyyy;@">
+                <c:pt idx="5">
                   <c:v>44122</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="[$-409]d\-mmm\-yyyy;@">
+                <c:pt idx="6">
                   <c:v>44133</c:v>
                 </c:pt>
               </c:numCache>
@@ -2026,165 +1523,94 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:dLblPos val="b"/>
+          <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="991584618"/>
-        <c:axId val="725906673"/>
+        <c:axId val="82303616"/>
+        <c:axId val="82576128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="991584618"/>
+        <c:axId val="82303616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="[$-409]d\-mmm\-yyyy;@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="725906673"/>
+        <c:crossAx val="82576128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="725906673"/>
+        <c:axId val="82576128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="991584618"/>
+        <c:crossAx val="82303616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
   </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2192,17 +1618,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2225,14 +1641,17 @@
             </a:pPr>
             <a:r>
               <a:rPr b="1"/>
-              <a:t>Modal Pembelian</a:t>
+              <a:t>Modal Pembelian Mama</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr b="1" baseline="0"/>
+              <a:t> Ahda</a:t>
             </a:r>
             <a:endParaRPr b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2241,7 +1660,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2250,14 +1668,13 @@
           <c:yMode val="edge"/>
           <c:x val="0.116989340874483"/>
           <c:y val="0.238549618320611"/>
-          <c:w val="0.832597346095279"/>
-          <c:h val="0.602862595419847"/>
+          <c:w val="0.83259734609527902"/>
+          <c:h val="0.60286259541984699"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2283,9 +1700,17 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2324,27 +1749,19 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:showVal val="1"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:overlap val="0"/>
-        <c:axId val="127193713"/>
-        <c:axId val="215882169"/>
+        <c:axId val="82711296"/>
+        <c:axId val="82712832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127193713"/>
+        <c:axId val="82711296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2373,21 +1790,20 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215882169"/>
+        <c:crossAx val="82712832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215882169"/>
+        <c:axId val="82712832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2404,17 +1820,23 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -2433,9 +1855,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127193713"/>
+        <c:crossAx val="82711296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2466,7 +1889,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2493,8 +1915,112 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Modal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Pembelian NZR Shop</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stock!$R$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showVal val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stock!$Q$15:$Q$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Oktober</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stock!$R$15:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1229040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
+    </a:solidFill>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3592,7 +3118,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -3606,14 +3132,14 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>415925</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6226175" y="63500"/>
-        <a:ext cx="5934075" cy="4543425"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3627,28 +3153,63 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>568325</xdr:colOff>
+      <xdr:colOff>168275</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>262890</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>389890</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7835900" y="31750"/>
-        <a:ext cx="5838190" cy="2326640"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>275167</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>328084</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3664,13 +3225,15 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A2:G23" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="7">
-    <tableColumn id="1" name="Column1" dataDxfId="0"/>
-    <tableColumn id="2" name="Column2" dataDxfId="1"/>
-    <tableColumn id="3" name="Column6" dataDxfId="2"/>
+    <tableColumn id="1" name="Column1" dataDxfId="6">
+      <calculatedColumnFormula>A1+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Column2" dataDxfId="5"/>
+    <tableColumn id="3" name="Column6" dataDxfId="4"/>
     <tableColumn id="4" name="Column4" dataDxfId="3"/>
-    <tableColumn id="5" name="Column3" dataDxfId="4"/>
-    <tableColumn id="6" name="Column7" dataDxfId="5"/>
-    <tableColumn id="7" name="Column5" dataDxfId="6"/>
+    <tableColumn id="5" name="Column3" dataDxfId="2"/>
+    <tableColumn id="6" name="Column7" dataDxfId="1"/>
+    <tableColumn id="7" name="Column5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3679,8 +3242,8 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table2" displayName="Table2" ref="L2:M10" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="Column1" dataDxfId="7"/>
-    <tableColumn id="2" name="Column2" dataDxfId="8"/>
+    <tableColumn id="1" name="Column1" dataDxfId="26"/>
+    <tableColumn id="2" name="Column2" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3689,8 +3252,8 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="L12:M14" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="Column1" dataDxfId="9"/>
-    <tableColumn id="2" name="Column2" dataDxfId="10"/>
+    <tableColumn id="1" name="Column1" dataDxfId="24"/>
+    <tableColumn id="2" name="Column2" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3699,9 +3262,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="Q2:S9" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Satuan" dataDxfId="11"/>
-    <tableColumn id="2" name="Qty" dataDxfId="12"/>
-    <tableColumn id="3" name="Column1" dataDxfId="13"/>
+    <tableColumn id="1" name="Satuan" dataDxfId="22"/>
+    <tableColumn id="2" name="Qty" dataDxfId="21"/>
+    <tableColumn id="3" name="Column1" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3710,9 +3273,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1" displayName="Table1" ref="U2:W6" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Category" dataDxfId="14"/>
-    <tableColumn id="2" name="Sub Category" dataDxfId="15"/>
-    <tableColumn id="3" name="Index" dataDxfId="16"/>
+    <tableColumn id="1" name="Category" dataDxfId="19"/>
+    <tableColumn id="2" name="Sub Category" dataDxfId="18"/>
+    <tableColumn id="3" name="Index" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3721,10 +3284,10 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A3:D39" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="4">
-    <tableColumn id="1" name="Column1" dataDxfId="17"/>
-    <tableColumn id="2" name="Column2" dataDxfId="18"/>
-    <tableColumn id="3" name="Column4" dataDxfId="19"/>
-    <tableColumn id="4" name="Column3" dataDxfId="20"/>
+    <tableColumn id="1" name="Column1" dataDxfId="16"/>
+    <tableColumn id="2" name="Column2" dataDxfId="15"/>
+    <tableColumn id="3" name="Column4" dataDxfId="14"/>
+    <tableColumn id="4" name="Column3" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3733,8 +3296,8 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="H2:I4" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="Column1" dataDxfId="21"/>
-    <tableColumn id="2" name="Column2" dataDxfId="22"/>
+    <tableColumn id="1" name="Column1" dataDxfId="12"/>
+    <tableColumn id="2" name="Column2" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3743,8 +3306,8 @@
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table19" displayName="Table19" ref="H7:I9" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="Column1" dataDxfId="23"/>
-    <tableColumn id="2" name="Column2" dataDxfId="24"/>
+    <tableColumn id="1" name="Column1" dataDxfId="10"/>
+    <tableColumn id="2" name="Column2" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3753,8 +3316,8 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="H12:I13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="Column1" dataDxfId="25"/>
-    <tableColumn id="2" name="Column2" dataDxfId="26"/>
+    <tableColumn id="1" name="Column1" dataDxfId="8"/>
+    <tableColumn id="2" name="Column2" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4012,87 +3575,88 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="1"/>
-    <col min="2" max="2" width="24.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="29.2857142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7142857142857" style="11" customWidth="1"/>
-    <col min="7" max="7" width="19.7142857142857" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.4285714285714" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5714285714286" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5714285714286" customWidth="1"/>
-    <col min="11" max="11" width="10.2857142857143" customWidth="1"/>
-    <col min="12" max="12" width="24.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:13">
-      <c r="A2" s="61">
+    <row r="2" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A2" s="56">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="61" t="s">
         <v>14</v>
       </c>
+      <c r="G2" s="61"/>
       <c r="L2" t="s">
         <v>13</v>
       </c>
@@ -4100,23 +3664,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="61">
+    <row r="3" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A3" s="56">
         <f t="shared" ref="A3:A23" si="0">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="61" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -4132,23 +3696,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:13">
-      <c r="A4" s="61">
+    <row r="4" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A4" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="63" t="s">
         <v>26</v>
       </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
@@ -4162,23 +3728,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:13">
-      <c r="A5" s="61">
+    <row r="5" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A5" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="11" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="61" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -4194,23 +3760,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:13">
-      <c r="A6" s="61">
+    <row r="6" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A6" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="61" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -4226,22 +3792,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:13">
-      <c r="A7" s="61">
+    <row r="7" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A7" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="63" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="61"/>
+      <c r="G7" s="61" t="s">
         <v>40</v>
       </c>
       <c r="L7" t="s">
@@ -4251,22 +3818,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:13">
-      <c r="A8" s="61">
+    <row r="8" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A8" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="11" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="61" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -4282,21 +3850,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:13">
-      <c r="A9" s="61">
+    <row r="9" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A9" s="56">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="61" t="s">
         <v>45</v>
       </c>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
       <c r="L9" t="s">
         <v>17</v>
       </c>
@@ -4304,63 +3874,67 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:13">
-      <c r="A10" s="61">
+    <row r="10" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A10" s="56">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="L10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="61">
+    <row r="11" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A11" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="61" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:13">
-      <c r="A12" s="61">
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A12" s="56">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="65"/>
+      <c r="E12" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="61" t="s">
         <v>58</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -4376,22 +3950,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:13">
-      <c r="A13" s="61">
+    <row r="13" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A13" s="56">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="11" t="s">
+      <c r="C13" s="61"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="61" t="s">
         <v>61</v>
       </c>
+      <c r="G13" s="61"/>
       <c r="L13" t="s">
         <v>62</v>
       </c>
@@ -4399,22 +3974,23 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:13">
-      <c r="A14" s="61">
+    <row r="14" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A14" s="56">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="11" t="s">
+      <c r="C14" s="61"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="61" t="s">
         <v>65</v>
       </c>
+      <c r="G14" s="61"/>
       <c r="L14" t="s">
         <v>66</v>
       </c>
@@ -4422,23 +3998,23 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="61">
+    <row r="15" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A15" s="56">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="11" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="61" t="s">
         <v>70</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -4448,41 +4024,43 @@
         <v>7330789047</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="61">
+    <row r="16" spans="1:13" ht="24.95" customHeight="1">
+      <c r="A16" s="56">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="61" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="61">
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+    </row>
+    <row r="17" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A17" s="56">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="65"/>
+      <c r="E17" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="61" t="s">
         <v>76</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -4492,254 +4070,254 @@
         <v>3461918130</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="61">
+    <row r="18" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A18" s="56">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="67"/>
+      <c r="D18" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="61"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="61">
+      <c r="G18" s="67"/>
+    </row>
+    <row r="19" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A19" s="56">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="61">
+      <c r="E19" s="61"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+    </row>
+    <row r="20" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A20" s="56">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="61">
+      <c r="E20" s="61"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+    </row>
+    <row r="21" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A21" s="56">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="61">
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+    </row>
+    <row r="22" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A22" s="56">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:7">
-      <c r="A23" s="61">
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+    </row>
+    <row r="23" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A23" s="56">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:1">
-      <c r="A24" s="61"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:1">
-      <c r="A25" s="61"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:1">
-      <c r="A26" s="61"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:1">
-      <c r="A27" s="61"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:1">
-      <c r="A28" s="61"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:1">
-      <c r="A29" s="61"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:1">
-      <c r="A30" s="61"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:1">
-      <c r="A31" s="61"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:1">
-      <c r="A32" s="61"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:1">
-      <c r="A33" s="61"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:1">
-      <c r="A34" s="61"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:1">
-      <c r="A35" s="61"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:1">
-      <c r="A36" s="61"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:1">
-      <c r="A37" s="61"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:1">
-      <c r="A38" s="61"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:1">
-      <c r="A39" s="61"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:1">
-      <c r="A40" s="61"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:1">
-      <c r="A41" s="61"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:1">
-      <c r="A42" s="61"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:1">
-      <c r="A43" s="61"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:1">
-      <c r="A44" s="61"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:1">
-      <c r="A45" s="61"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:1">
-      <c r="A46" s="61"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:1">
-      <c r="A47" s="61"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:1">
-      <c r="A48" s="61"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:1">
-      <c r="A49" s="61"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:1">
-      <c r="A50" s="61"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:1">
-      <c r="A51" s="61"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:1">
-      <c r="A52" s="61"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:1">
-      <c r="A53" s="61"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:1">
-      <c r="A54" s="61"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:1">
-      <c r="A55" s="61"/>
-    </row>
-    <row r="56" customHeight="1" spans="1:1">
-      <c r="A56" s="61"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:1">
-      <c r="A57" s="61"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:1">
-      <c r="A58" s="61"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:1">
-      <c r="A59" s="61"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:1">
-      <c r="A60" s="61"/>
-    </row>
-    <row r="61" customHeight="1" spans="1:1">
-      <c r="A61" s="61"/>
-    </row>
-    <row r="62" customHeight="1" spans="1:1">
-      <c r="A62" s="61"/>
-    </row>
-    <row r="63" customHeight="1" spans="1:1">
-      <c r="A63" s="61"/>
-    </row>
-    <row r="64" customHeight="1" spans="1:1">
-      <c r="A64" s="61"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:1">
-      <c r="A65" s="61"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:1">
-      <c r="A66" s="61"/>
-    </row>
-    <row r="67" customHeight="1" spans="1:1">
-      <c r="A67" s="61"/>
-    </row>
-    <row r="68" customHeight="1" spans="1:1">
-      <c r="A68" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+    </row>
+    <row r="24" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A24" s="56"/>
+    </row>
+    <row r="25" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A25" s="56"/>
+    </row>
+    <row r="26" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A26" s="56"/>
+    </row>
+    <row r="27" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A27" s="56"/>
+    </row>
+    <row r="28" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A28" s="56"/>
+    </row>
+    <row r="29" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A29" s="56"/>
+    </row>
+    <row r="30" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A30" s="56"/>
+    </row>
+    <row r="31" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A31" s="56"/>
+    </row>
+    <row r="32" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A32" s="56"/>
+    </row>
+    <row r="33" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A33" s="56"/>
+    </row>
+    <row r="34" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A34" s="56"/>
+    </row>
+    <row r="35" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A35" s="56"/>
+    </row>
+    <row r="36" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A36" s="56"/>
+    </row>
+    <row r="37" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A37" s="56"/>
+    </row>
+    <row r="38" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A38" s="56"/>
+    </row>
+    <row r="39" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A39" s="56"/>
+    </row>
+    <row r="40" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A40" s="56"/>
+    </row>
+    <row r="41" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A41" s="56"/>
+    </row>
+    <row r="42" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A42" s="56"/>
+    </row>
+    <row r="43" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A43" s="56"/>
+    </row>
+    <row r="44" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A44" s="56"/>
+    </row>
+    <row r="45" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A45" s="56"/>
+    </row>
+    <row r="46" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A46" s="56"/>
+    </row>
+    <row r="47" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A47" s="56"/>
+    </row>
+    <row r="48" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A48" s="56"/>
+    </row>
+    <row r="49" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A49" s="56"/>
+    </row>
+    <row r="50" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A50" s="56"/>
+    </row>
+    <row r="51" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A51" s="56"/>
+    </row>
+    <row r="52" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A52" s="56"/>
+    </row>
+    <row r="53" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A53" s="56"/>
+    </row>
+    <row r="54" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A54" s="56"/>
+    </row>
+    <row r="55" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A55" s="56"/>
+    </row>
+    <row r="56" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A56" s="56"/>
+    </row>
+    <row r="57" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A57" s="56"/>
+    </row>
+    <row r="58" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A58" s="56"/>
+    </row>
+    <row r="59" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A59" s="56"/>
+    </row>
+    <row r="60" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A60" s="56"/>
+    </row>
+    <row r="61" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A61" s="56"/>
+    </row>
+    <row r="62" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A62" s="56"/>
+    </row>
+    <row r="63" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A63" s="56"/>
+    </row>
+    <row r="64" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A64" s="56"/>
+    </row>
+    <row r="65" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A65" s="56"/>
+    </row>
+    <row r="66" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A66" s="56"/>
+    </row>
+    <row r="67" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A67" s="56"/>
+    </row>
+    <row r="68" spans="1:1" ht="24.95" customHeight="1">
+      <c r="A68" s="56"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -4755,180 +4333,179 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId4" display="https://www.tokopedia.com/assundari"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://instagram.com/pusatjumbo?igshid=hxwxfvhao8y3"/>
-    <hyperlink ref="D11" r:id="rId6" display="https://www.zoya.co.id/"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.4285714285714" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="38.42578125" defaultRowHeight="33" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="25.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="22.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="6.14285714285714" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
     <col min="6" max="7" width="24" customWidth="1"/>
-    <col min="8" max="16384" width="38.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:4" ht="33" customHeight="1">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="47" t="s">
+      <c r="D1" s="58"/>
+    </row>
+    <row r="2" spans="1:4" ht="33" customHeight="1">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="43" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" s="53" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A3" s="55">
+    <row r="3" spans="1:4" s="49" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" s="50">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="24">
         <v>44060</v>
       </c>
       <c r="D3" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="15">
+    <row r="4" spans="1:4" ht="33" customHeight="1">
+      <c r="A4" s="14">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="24">
         <v>44074</v>
       </c>
       <c r="D4" s="3">
         <v>485000</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="15">
+    <row r="5" spans="1:4" ht="33" customHeight="1">
+      <c r="A5" s="14">
         <f>A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="24">
         <v>44082</v>
       </c>
       <c r="D5" s="3">
         <v>750000</v>
       </c>
     </row>
-    <row r="6" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A6" s="15">
+    <row r="6" spans="1:4" ht="33" customHeight="1">
+      <c r="A6" s="14">
         <f>A5+1</f>
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="24">
         <v>44102</v>
       </c>
       <c r="D6" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A7" s="15">
+    <row r="7" spans="1:4" ht="33" customHeight="1">
+      <c r="A7" s="14">
         <f>A5+1</f>
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="24">
         <v>44109</v>
       </c>
       <c r="D7" s="3">
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A8" s="15">
+    <row r="8" spans="1:4" ht="33" customHeight="1">
+      <c r="A8" s="14">
         <f>A7+1</f>
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="24">
         <v>44122</v>
       </c>
       <c r="D8" s="3">
         <v>1150000</v>
       </c>
     </row>
-    <row r="9" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A9" s="15">
+    <row r="9" spans="1:4" ht="33" customHeight="1">
+      <c r="A9" s="14">
         <f>A8+1</f>
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="24">
         <v>44133</v>
       </c>
       <c r="D9" s="3">
         <v>1050000</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="3:4">
-      <c r="C10" s="56" t="s">
+    <row r="10" spans="1:4" ht="33" customHeight="1">
+      <c r="C10" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="47">
         <f>SUM(D3:D9)</f>
         <v>5545000</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="3:4">
-      <c r="C11" s="57" t="s">
+    <row r="11" spans="1:4" ht="33" customHeight="1">
+      <c r="C11" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="53">
         <f>D10-Item!F6-Stock!K10-Stock!K14-Stock!K18-Stock!K23-Stock!K28-Stock!K32-Stock!K37-Stock!K41-Stock!K51-Stock!K55</f>
         <v>-470900</v>
       </c>
@@ -4945,50 +4522,48 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="31" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="32.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="28.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" customWidth="1"/>
-    <col min="5" max="5" width="16.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="17.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:6" s="69" customFormat="1" ht="30.95" customHeight="1">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="46"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="15">
+      <c r="F1" s="70"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.95" customHeight="1">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -4997,15 +4572,15 @@
       <c r="C2" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="43" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="15">
+    <row r="3" spans="1:6" ht="30.95" customHeight="1">
+      <c r="A3" s="14">
         <f t="shared" ref="A3:A17" si="0">A2+1</f>
         <v>2</v>
       </c>
@@ -5015,16 +4590,16 @@
       <c r="C3" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="45">
         <f>Stock!G3*Stock!I3+Stock!G4*Stock!I4+Stock!G5*Stock!I5+Stock!G34*Stock!I34+Stock!G47*Stock!I47</f>
         <v>2026000</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="15">
+    <row r="4" spans="1:6" ht="30.95" customHeight="1">
+      <c r="A4" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -5042,8 +4617,8 @@
         <v>2778400</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="15">
+    <row r="5" spans="1:6" ht="30.95" customHeight="1">
+      <c r="A5" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5061,8 +4636,8 @@
         <v>922500</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="15">
+    <row r="6" spans="1:6" ht="30.95" customHeight="1">
+      <c r="A6" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -5072,16 +4647,16 @@
       <c r="C6" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="47">
         <f>SUM(F3:F5)</f>
         <v>5726900</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="15">
+    <row r="7" spans="1:6" ht="30.95" customHeight="1">
+      <c r="A7" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -5092,8 +4667,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="15">
+    <row r="8" spans="1:6" ht="30.95" customHeight="1">
+      <c r="A8" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -5104,8 +4679,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A9" s="15">
+    <row r="9" spans="1:6" ht="30.95" customHeight="1">
+      <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -5116,8 +4691,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="15">
+    <row r="10" spans="1:6" ht="30.95" customHeight="1">
+      <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -5128,8 +4703,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A11" s="15">
+    <row r="11" spans="1:6" ht="30.95" customHeight="1">
+      <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -5140,8 +4715,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A12" s="15">
+    <row r="12" spans="1:6" ht="30.95" customHeight="1">
+      <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -5152,8 +4727,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A13" s="15">
+    <row r="13" spans="1:6" ht="30.95" customHeight="1">
+      <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -5164,8 +4739,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A14" s="15">
+    <row r="14" spans="1:6" ht="30.95" customHeight="1">
+      <c r="A14" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -5176,8 +4751,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A15" s="15">
+    <row r="15" spans="1:6" ht="30.95" customHeight="1">
+      <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -5188,8 +4763,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A16" s="15">
+    <row r="16" spans="1:6" ht="30.95" customHeight="1">
+      <c r="A16" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -5200,8 +4775,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A17" s="15">
+    <row r="17" spans="1:3" ht="30.95" customHeight="1">
+      <c r="A17" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -5212,197 +4787,197 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="3:3">
-      <c r="C18" s="52"/>
-    </row>
-    <row r="19" customHeight="1" spans="3:3">
-      <c r="C19" s="52"/>
-    </row>
-    <row r="20" customHeight="1" spans="3:3">
-      <c r="C20" s="52"/>
-    </row>
-    <row r="21" customHeight="1" spans="3:3">
-      <c r="C21" s="52"/>
-    </row>
-    <row r="22" customHeight="1" spans="3:3">
-      <c r="C22" s="52"/>
-    </row>
-    <row r="23" customHeight="1" spans="3:3">
-      <c r="C23" s="52"/>
-    </row>
-    <row r="24" customHeight="1" spans="3:3">
-      <c r="C24" s="52"/>
-    </row>
-    <row r="25" customHeight="1" spans="3:3">
-      <c r="C25" s="52"/>
-    </row>
-    <row r="26" customHeight="1" spans="3:3">
-      <c r="C26" s="52"/>
-    </row>
-    <row r="27" customHeight="1" spans="3:3">
-      <c r="C27" s="52"/>
-    </row>
-    <row r="28" customHeight="1" spans="3:3">
-      <c r="C28" s="52"/>
-    </row>
-    <row r="29" customHeight="1" spans="3:3">
-      <c r="C29" s="52"/>
-    </row>
-    <row r="30" customHeight="1" spans="3:3">
-      <c r="C30" s="52"/>
-    </row>
-    <row r="31" customHeight="1" spans="3:3">
-      <c r="C31" s="52"/>
-    </row>
-    <row r="32" customHeight="1" spans="3:3">
-      <c r="C32" s="52"/>
-    </row>
-    <row r="33" customHeight="1" spans="3:3">
-      <c r="C33" s="52"/>
-    </row>
-    <row r="34" customHeight="1" spans="3:3">
-      <c r="C34" s="52"/>
-    </row>
-    <row r="35" customHeight="1" spans="3:3">
-      <c r="C35" s="52"/>
-    </row>
-    <row r="36" customHeight="1" spans="3:3">
-      <c r="C36" s="52"/>
-    </row>
-    <row r="37" customHeight="1" spans="3:3">
-      <c r="C37" s="52"/>
-    </row>
-    <row r="38" customHeight="1" spans="3:3">
-      <c r="C38" s="52"/>
-    </row>
-    <row r="39" customHeight="1" spans="3:3">
-      <c r="C39" s="52"/>
-    </row>
-    <row r="40" customHeight="1" spans="3:3">
-      <c r="C40" s="52"/>
-    </row>
-    <row r="41" customHeight="1" spans="3:3">
-      <c r="C41" s="52"/>
-    </row>
-    <row r="42" customHeight="1" spans="3:3">
-      <c r="C42" s="52"/>
-    </row>
-    <row r="43" customHeight="1" spans="3:3">
-      <c r="C43" s="52"/>
-    </row>
-    <row r="44" customHeight="1" spans="3:3">
-      <c r="C44" s="52"/>
-    </row>
-    <row r="45" customHeight="1" spans="3:3">
-      <c r="C45" s="52"/>
-    </row>
-    <row r="46" customHeight="1" spans="3:3">
-      <c r="C46" s="52"/>
-    </row>
-    <row r="47" customHeight="1" spans="3:3">
-      <c r="C47" s="52"/>
-    </row>
-    <row r="48" customHeight="1" spans="3:3">
-      <c r="C48" s="52"/>
-    </row>
-    <row r="49" customHeight="1" spans="3:3">
-      <c r="C49" s="52"/>
-    </row>
-    <row r="50" customHeight="1" spans="3:3">
-      <c r="C50" s="52"/>
-    </row>
-    <row r="51" customHeight="1" spans="3:3">
-      <c r="C51" s="52"/>
-    </row>
-    <row r="52" customHeight="1" spans="3:3">
-      <c r="C52" s="52"/>
-    </row>
-    <row r="53" customHeight="1" spans="3:3">
-      <c r="C53" s="52"/>
-    </row>
-    <row r="54" customHeight="1" spans="3:3">
-      <c r="C54" s="52"/>
-    </row>
-    <row r="55" customHeight="1" spans="3:3">
-      <c r="C55" s="52"/>
-    </row>
-    <row r="56" customHeight="1" spans="3:3">
-      <c r="C56" s="52"/>
-    </row>
-    <row r="57" customHeight="1" spans="3:3">
-      <c r="C57" s="52"/>
-    </row>
-    <row r="58" customHeight="1" spans="3:3">
-      <c r="C58" s="52"/>
-    </row>
-    <row r="59" customHeight="1" spans="3:3">
-      <c r="C59" s="52"/>
-    </row>
-    <row r="60" customHeight="1" spans="3:3">
-      <c r="C60" s="52"/>
-    </row>
-    <row r="61" customHeight="1" spans="3:3">
-      <c r="C61" s="52"/>
-    </row>
-    <row r="62" customHeight="1" spans="3:3">
-      <c r="C62" s="52"/>
-    </row>
-    <row r="63" customHeight="1" spans="3:3">
-      <c r="C63" s="52"/>
-    </row>
-    <row r="64" customHeight="1" spans="3:3">
-      <c r="C64" s="52"/>
-    </row>
-    <row r="65" customHeight="1" spans="3:3">
-      <c r="C65" s="52"/>
-    </row>
-    <row r="66" customHeight="1" spans="3:3">
-      <c r="C66" s="52"/>
-    </row>
-    <row r="67" customHeight="1" spans="3:3">
-      <c r="C67" s="52"/>
-    </row>
-    <row r="68" customHeight="1" spans="3:3">
-      <c r="C68" s="52"/>
-    </row>
-    <row r="69" customHeight="1" spans="3:3">
-      <c r="C69" s="52"/>
-    </row>
-    <row r="70" customHeight="1" spans="3:3">
-      <c r="C70" s="52"/>
-    </row>
-    <row r="71" customHeight="1" spans="3:3">
-      <c r="C71" s="52"/>
-    </row>
-    <row r="72" customHeight="1" spans="3:3">
-      <c r="C72" s="52"/>
-    </row>
-    <row r="73" customHeight="1" spans="3:3">
-      <c r="C73" s="52"/>
-    </row>
-    <row r="74" customHeight="1" spans="3:3">
-      <c r="C74" s="52"/>
-    </row>
-    <row r="75" customHeight="1" spans="3:3">
-      <c r="C75" s="52"/>
-    </row>
-    <row r="76" customHeight="1" spans="3:3">
-      <c r="C76" s="52"/>
-    </row>
-    <row r="77" customHeight="1" spans="3:3">
-      <c r="C77" s="52"/>
-    </row>
-    <row r="78" customHeight="1" spans="3:3">
-      <c r="C78" s="52"/>
-    </row>
-    <row r="79" customHeight="1" spans="3:3">
-      <c r="C79" s="52"/>
-    </row>
-    <row r="80" customHeight="1" spans="3:3">
-      <c r="C80" s="52"/>
-    </row>
-    <row r="81" customHeight="1" spans="3:3">
-      <c r="C81" s="52"/>
+    <row r="18" spans="1:3" ht="30.95" customHeight="1">
+      <c r="C18" s="48"/>
+    </row>
+    <row r="19" spans="1:3" ht="30.95" customHeight="1">
+      <c r="C19" s="48"/>
+    </row>
+    <row r="20" spans="1:3" ht="30.95" customHeight="1">
+      <c r="C20" s="48"/>
+    </row>
+    <row r="21" spans="1:3" ht="30.95" customHeight="1">
+      <c r="C21" s="48"/>
+    </row>
+    <row r="22" spans="1:3" ht="30.95" customHeight="1">
+      <c r="C22" s="48"/>
+    </row>
+    <row r="23" spans="1:3" ht="30.95" customHeight="1">
+      <c r="C23" s="48"/>
+    </row>
+    <row r="24" spans="1:3" ht="30.95" customHeight="1">
+      <c r="C24" s="48"/>
+    </row>
+    <row r="25" spans="1:3" ht="30.95" customHeight="1">
+      <c r="C25" s="48"/>
+    </row>
+    <row r="26" spans="1:3" ht="30.95" customHeight="1">
+      <c r="C26" s="48"/>
+    </row>
+    <row r="27" spans="1:3" ht="30.95" customHeight="1">
+      <c r="C27" s="48"/>
+    </row>
+    <row r="28" spans="1:3" ht="30.95" customHeight="1">
+      <c r="C28" s="48"/>
+    </row>
+    <row r="29" spans="1:3" ht="30.95" customHeight="1">
+      <c r="C29" s="48"/>
+    </row>
+    <row r="30" spans="1:3" ht="30.95" customHeight="1">
+      <c r="C30" s="48"/>
+    </row>
+    <row r="31" spans="1:3" ht="30.95" customHeight="1">
+      <c r="C31" s="48"/>
+    </row>
+    <row r="32" spans="1:3" ht="30.95" customHeight="1">
+      <c r="C32" s="48"/>
+    </row>
+    <row r="33" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C33" s="48"/>
+    </row>
+    <row r="34" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C34" s="48"/>
+    </row>
+    <row r="35" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C35" s="48"/>
+    </row>
+    <row r="36" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C36" s="48"/>
+    </row>
+    <row r="37" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C37" s="48"/>
+    </row>
+    <row r="38" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C38" s="48"/>
+    </row>
+    <row r="39" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C39" s="48"/>
+    </row>
+    <row r="40" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C40" s="48"/>
+    </row>
+    <row r="41" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C41" s="48"/>
+    </row>
+    <row r="42" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C42" s="48"/>
+    </row>
+    <row r="43" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C43" s="48"/>
+    </row>
+    <row r="44" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C44" s="48"/>
+    </row>
+    <row r="45" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C45" s="48"/>
+    </row>
+    <row r="46" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C46" s="48"/>
+    </row>
+    <row r="47" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C47" s="48"/>
+    </row>
+    <row r="48" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C48" s="48"/>
+    </row>
+    <row r="49" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C49" s="48"/>
+    </row>
+    <row r="50" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C50" s="48"/>
+    </row>
+    <row r="51" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C51" s="48"/>
+    </row>
+    <row r="52" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C52" s="48"/>
+    </row>
+    <row r="53" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C53" s="48"/>
+    </row>
+    <row r="54" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C54" s="48"/>
+    </row>
+    <row r="55" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C55" s="48"/>
+    </row>
+    <row r="56" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C56" s="48"/>
+    </row>
+    <row r="57" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C57" s="48"/>
+    </row>
+    <row r="58" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C58" s="48"/>
+    </row>
+    <row r="59" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C59" s="48"/>
+    </row>
+    <row r="60" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C60" s="48"/>
+    </row>
+    <row r="61" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C61" s="48"/>
+    </row>
+    <row r="62" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C62" s="48"/>
+    </row>
+    <row r="63" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C63" s="48"/>
+    </row>
+    <row r="64" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C64" s="48"/>
+    </row>
+    <row r="65" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C65" s="48"/>
+    </row>
+    <row r="66" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C66" s="48"/>
+    </row>
+    <row r="67" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C67" s="48"/>
+    </row>
+    <row r="68" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C68" s="48"/>
+    </row>
+    <row r="69" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C69" s="48"/>
+    </row>
+    <row r="70" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C70" s="48"/>
+    </row>
+    <row r="71" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C71" s="48"/>
+    </row>
+    <row r="72" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C72" s="48"/>
+    </row>
+    <row r="73" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C73" s="48"/>
+    </row>
+    <row r="74" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C74" s="48"/>
+    </row>
+    <row r="75" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C75" s="48"/>
+    </row>
+    <row r="76" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C76" s="48"/>
+    </row>
+    <row r="77" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C77" s="48"/>
+    </row>
+    <row r="78" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C78" s="48"/>
+    </row>
+    <row r="79" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C79" s="48"/>
+    </row>
+    <row r="80" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C80" s="48"/>
+    </row>
+    <row r="81" spans="3:3" ht="30.95" customHeight="1">
+      <c r="C81" s="48"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C2">
@@ -5417,741 +4992,756 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X80"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="29" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="29.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.71428571428571" style="15" customWidth="1"/>
-    <col min="2" max="2" width="24.8571428571429" customWidth="1"/>
-    <col min="3" max="4" width="23.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="23.4285714285714" style="16" customWidth="1"/>
-    <col min="6" max="6" width="17.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="9.14285714285714" customWidth="1"/>
-    <col min="10" max="10" width="16.8571428571429" customWidth="1"/>
-    <col min="11" max="12" width="12.4285714285714" customWidth="1"/>
-    <col min="13" max="13" width="14.1428571428571" customWidth="1"/>
-    <col min="14" max="14" width="11.8571428571429" customWidth="1"/>
-    <col min="15" max="15" width="13.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
     <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="18" max="18" width="16.1428571428571" customWidth="1"/>
-    <col min="19" max="19" width="13.1428571428571" customWidth="1"/>
-    <col min="21" max="21" width="13.1428571428571" customWidth="1"/>
-    <col min="22" max="22" width="23.5714285714286" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="22" max="22" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" customHeight="1" spans="1:24">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:24" s="11" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17" t="s">
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="41" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="T1" s="30"/>
-      <c r="U1" s="42" t="s">
+      <c r="T1" s="27"/>
+      <c r="U1" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="W1" s="42"/>
-      <c r="X1" s="30"/>
-    </row>
-    <row r="2" s="13" customFormat="1" customHeight="1" spans="1:24">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19" t="s">
+      <c r="W1" s="39"/>
+      <c r="X1" s="27"/>
+    </row>
+    <row r="2" spans="1:24" s="12" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="43" t="s">
+      <c r="N2" s="59"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="13">
         <v>20</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="43" t="s">
+      <c r="T2" s="28"/>
+      <c r="U2" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="V2" s="14"/>
-      <c r="W2" s="44" t="s">
+      <c r="V2" s="13"/>
+      <c r="W2" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="X2" s="31"/>
-    </row>
-    <row r="3" s="14" customFormat="1" ht="36" customHeight="1" spans="1:23">
-      <c r="A3" s="20">
+      <c r="X2" s="28"/>
+    </row>
+    <row r="3" spans="1:24" s="13" customFormat="1" ht="36" customHeight="1">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="19">
         <v>44050</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="20">
         <v>23000</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="20">
         <v>14</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="29">
         <v>500</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="20">
         <f t="shared" ref="K3:K8" si="0">J3*I3</f>
         <v>7000</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="30">
         <f t="shared" ref="L3:L8" si="1">N3-G3-J3</f>
         <v>500</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="20">
         <f t="shared" ref="M3:M8" si="2">L3*I3</f>
         <v>7000</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="20">
         <v>24000</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="13">
         <v>144</v>
       </c>
-      <c r="S3" s="43" t="s">
+      <c r="S3" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="U3" s="43" t="s">
+      <c r="U3" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="V3" s="43" t="s">
+      <c r="V3" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="W3" s="44" t="s">
+      <c r="W3" s="41" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" s="14" customFormat="1" ht="36" customHeight="1" spans="1:23">
-      <c r="A4" s="20">
+    <row r="4" spans="1:24" s="13" customFormat="1" ht="36" customHeight="1">
+      <c r="A4" s="17">
         <f t="shared" ref="A4:A8" si="3">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="19">
         <v>44052</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="20">
         <v>23500</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="20">
         <v>30</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="29">
         <v>1500</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="20">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="30">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="20">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="20">
         <v>26000</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="13">
         <v>15</v>
       </c>
-      <c r="S4" s="43" t="s">
+      <c r="S4" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="U4" s="43" t="s">
+      <c r="U4" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="V4" s="43" t="s">
+      <c r="V4" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="W4" s="44" t="s">
+      <c r="W4" s="41" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" s="14" customFormat="1" ht="36" customHeight="1" spans="1:23">
-      <c r="A5" s="20">
+    <row r="5" spans="1:24" s="13" customFormat="1" ht="36" customHeight="1">
+      <c r="A5" s="17">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="19">
         <v>44063</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="20">
         <v>23500</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="20">
         <v>30</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="29">
         <v>500</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="20">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="30">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="20">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="20">
         <v>25000</v>
       </c>
-      <c r="Q5" s="43" t="s">
+      <c r="Q5" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="13">
         <v>500</v>
       </c>
-      <c r="S5" s="43" t="s">
+      <c r="S5" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="U5" s="44" t="s">
+      <c r="U5" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="V5" s="44" t="s">
+      <c r="V5" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="W5" s="44" t="s">
+      <c r="W5" s="41" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" s="14" customFormat="1" ht="36" customHeight="1" spans="1:23">
-      <c r="A6" s="20">
+    <row r="6" spans="1:24" s="13" customFormat="1" ht="36" customHeight="1">
+      <c r="A6" s="17">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="19">
         <v>44082</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="20">
         <v>22500</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="20">
         <v>30</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="29">
         <v>500</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="20">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="30">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="20">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="20">
         <v>24000</v>
       </c>
-      <c r="Q6" s="43" t="s">
+      <c r="Q6" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="R6" s="14"/>
-      <c r="S6" s="43"/>
-      <c r="U6" s="44" t="s">
+      <c r="S6" s="40"/>
+      <c r="U6" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44" t="s">
+      <c r="V6" s="41"/>
+      <c r="W6" s="41" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" s="14" customFormat="1" ht="36" customHeight="1" spans="1:19">
-      <c r="A7" s="20">
+    <row r="7" spans="1:24" s="13" customFormat="1" ht="36" customHeight="1">
+      <c r="A7" s="17">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="19">
         <v>44106</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="20">
         <v>18500</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="20">
         <v>15</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="29">
         <v>2000</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="20">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="30">
         <f t="shared" si="1"/>
         <v>3500</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="20">
         <f t="shared" si="2"/>
         <v>52500</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="20">
         <v>24000</v>
       </c>
-      <c r="Q7" s="44" t="s">
+      <c r="Q7" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="R7" s="45"/>
-      <c r="S7" s="44"/>
-    </row>
-    <row r="8" s="14" customFormat="1" ht="36" customHeight="1" spans="1:19">
-      <c r="A8" s="20">
+      <c r="R7" s="42"/>
+      <c r="S7" s="41"/>
+    </row>
+    <row r="8" spans="1:24" s="13" customFormat="1" ht="36" customHeight="1">
+      <c r="A8" s="17">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="19">
         <v>44128</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="20">
         <v>21500</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="20">
         <v>30</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="29">
         <v>1000</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="20">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="30">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="20">
         <f t="shared" si="2"/>
         <v>45000</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="20">
         <v>24000</v>
       </c>
-      <c r="Q8" s="44" t="s">
+      <c r="Q8" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="R8" s="45"/>
-      <c r="S8" s="44"/>
-    </row>
-    <row r="9" s="14" customFormat="1" customHeight="1" spans="1:19">
-      <c r="A9" s="20"/>
-      <c r="E9" s="24"/>
-      <c r="J9" s="34"/>
-      <c r="L9" s="35"/>
-      <c r="Q9" s="44" t="s">
+      <c r="R8" s="42"/>
+      <c r="S8" s="41"/>
+    </row>
+    <row r="9" spans="1:24" s="13" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="E9" s="21"/>
+      <c r="J9" s="31"/>
+      <c r="L9" s="32"/>
+      <c r="Q9" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="R9" s="45" t="s">
+      <c r="R9" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="S9" s="44" t="s">
+      <c r="S9" s="41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" s="14" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A10" s="20"/>
-      <c r="E10" s="24"/>
-      <c r="J10" s="36" t="s">
+    <row r="10" spans="1:24" s="13" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A10" s="17"/>
+      <c r="E10" s="21"/>
+      <c r="J10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="34">
         <f>SUM(K3:K9)</f>
         <v>142000</v>
       </c>
-      <c r="L10" s="36" t="s">
+      <c r="L10" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="34">
         <f>SUM(M3:M9)</f>
         <v>194500</v>
       </c>
     </row>
-    <row r="11" ht="6" customHeight="1" spans="5:5">
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" s="14" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A12" s="20">
+    <row r="11" spans="1:24" ht="6" customHeight="1">
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:24" s="13" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A12" s="17">
         <v>1</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="19">
         <v>44082</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="20">
         <v>22900</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="20">
         <v>24</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="29">
         <v>1000</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="20">
         <f>J12*I12</f>
         <v>24000</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="30">
         <f>N12-G12-J12</f>
         <v>1100</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="20">
         <f>L12*I12</f>
         <v>26400</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="20">
         <v>25000</v>
       </c>
     </row>
-    <row r="13" s="14" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A13" s="20"/>
-      <c r="E13" s="24"/>
-      <c r="J13" s="38"/>
-      <c r="L13" s="35"/>
-    </row>
-    <row r="14" s="14" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A14" s="20"/>
-      <c r="E14" s="24"/>
-      <c r="J14" s="36" t="s">
+    <row r="13" spans="1:24" s="13" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="E13" s="21"/>
+      <c r="J13" s="35"/>
+      <c r="L13" s="32"/>
+      <c r="Q13" s="72" t="s">
+        <v>234</v>
+      </c>
+      <c r="R13" s="73"/>
+    </row>
+    <row r="14" spans="1:24" s="13" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A14" s="17"/>
+      <c r="E14" s="21"/>
+      <c r="J14" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="34">
         <f>SUM(K12:K13)</f>
         <v>24000</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="34">
         <f>SUM(M12:M13)</f>
         <v>26400</v>
       </c>
-    </row>
-    <row r="15" ht="7" customHeight="1" spans="1:5">
-      <c r="A15" s="26"/>
-      <c r="E15" s="25"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:14">
-      <c r="A16" s="26">
+      <c r="Q14" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14" s="74" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="6.95" customHeight="1">
+      <c r="A15" s="23"/>
+      <c r="E15" s="22"/>
+      <c r="Q15" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="R15" s="76">
+        <f>G21*I21+G26*I26+G43*I43+G49*I49+G57*I57+G61*I61+G65*I65+G69*I69+G73*I73</f>
+        <v>1229040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="29.1" customHeight="1">
+      <c r="A16" s="23">
         <v>1</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>104</v>
       </c>
       <c r="C16" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="24">
         <v>44082</v>
       </c>
       <c r="G16" s="3">
         <v>11600</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="25" t="s">
         <v>149</v>
       </c>
       <c r="I16">
         <v>12</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="36">
         <v>1000</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="20">
         <f t="shared" ref="K16:K21" si="4">J16*I16</f>
         <v>12000</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="30">
         <f>N16-G16-J16</f>
         <v>1400</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="20">
         <f>L16*I16</f>
         <v>16800</v>
       </c>
       <c r="N16" s="3">
         <v>14000</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:13">
-      <c r="A17" s="26"/>
-      <c r="E17" s="25"/>
-      <c r="H17" s="28"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="14"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:13">
-      <c r="A18" s="26"/>
-      <c r="E18" s="25"/>
-      <c r="H18" s="28"/>
-      <c r="J18" s="36" t="s">
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+    </row>
+    <row r="17" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A17" s="23"/>
+      <c r="E17" s="22"/>
+      <c r="H17" s="25"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A18" s="23"/>
+      <c r="E18" s="22"/>
+      <c r="H18" s="25"/>
+      <c r="J18" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="34">
         <f>SUM(K16:K17)</f>
         <v>12000</v>
       </c>
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="34">
         <f>SUM(M16:M17)</f>
         <v>16800</v>
       </c>
     </row>
-    <row r="19" ht="8" customHeight="1" spans="1:5">
-      <c r="A19" s="26"/>
-      <c r="E19" s="25"/>
-    </row>
-    <row r="20" ht="44" customHeight="1" spans="1:14">
-      <c r="A20" s="26">
+    <row r="19" spans="1:14" ht="8.1" customHeight="1">
+      <c r="A19" s="23"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:14" ht="44.1" customHeight="1">
+      <c r="A20" s="23">
         <v>1</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="26" t="s">
         <v>106</v>
       </c>
       <c r="C20" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="24">
         <v>44082</v>
       </c>
       <c r="G20" s="3">
         <v>9000</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="25" t="s">
         <v>149</v>
       </c>
       <c r="I20">
         <v>12</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="36">
         <v>1000</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="20">
         <f t="shared" si="4"/>
         <v>12000</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L20" s="30">
         <f>N20-G20-J20</f>
         <v>1000</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="20">
         <f>L20*I20</f>
         <v>12000</v>
       </c>
@@ -6159,47 +5749,47 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="21" ht="44" customHeight="1" spans="1:14">
-      <c r="A21" s="26">
+    <row r="21" spans="1:14" ht="44.1" customHeight="1">
+      <c r="A21" s="23">
         <f>A20+1</f>
         <v>2</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="26" t="s">
         <v>106</v>
       </c>
       <c r="C21" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="24">
         <v>44130</v>
       </c>
       <c r="G21" s="3">
         <v>9170</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="25" t="s">
         <v>149</v>
       </c>
       <c r="I21">
         <v>12</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="36">
         <v>0</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="30">
         <f>N21-G21-J21</f>
         <v>1830</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="20">
         <f>L21*I21</f>
         <v>21960</v>
       </c>
@@ -6207,82 +5797,82 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="22" ht="28" customHeight="1" spans="1:14">
-      <c r="A22" s="26"/>
-      <c r="B22" s="29"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="27"/>
+    <row r="22" spans="1:14" ht="27.95" customHeight="1">
+      <c r="A22" s="23"/>
+      <c r="B22" s="26"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="28"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="23"/>
+      <c r="H22" s="25"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" customHeight="1" spans="1:13">
-      <c r="A23" s="26"/>
-      <c r="E23" s="25"/>
-      <c r="J23" s="36" t="s">
+    <row r="23" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A23" s="23"/>
+      <c r="E23" s="22"/>
+      <c r="J23" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="34">
         <f>SUM(K20:K22)</f>
         <v>12000</v>
       </c>
-      <c r="L23" s="36" t="s">
+      <c r="L23" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="34">
         <f>SUM(M20:M22)</f>
         <v>33960</v>
       </c>
     </row>
-    <row r="24" ht="6" customHeight="1" spans="1:5">
-      <c r="A24" s="26"/>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" ht="43" customHeight="1" spans="1:14">
-      <c r="A25" s="26">
+    <row r="24" spans="1:14" ht="6" customHeight="1">
+      <c r="A24" s="23"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A25" s="23">
         <v>1</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="26" t="s">
         <v>100</v>
       </c>
       <c r="C25" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="24">
         <v>44082</v>
       </c>
       <c r="G25" s="3">
         <v>19800</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="25" t="s">
         <v>149</v>
       </c>
       <c r="I25">
         <v>12</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="36">
         <v>1000</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="20">
         <f>J25*I25</f>
         <v>12000</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="30">
         <f>N25-G25-J25</f>
         <v>1200</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="20">
         <f>L25*I25</f>
         <v>14400</v>
       </c>
@@ -6290,46 +5880,46 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="26" ht="43" customHeight="1" spans="1:14">
-      <c r="A26" s="26">
+    <row r="26" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A26" s="23">
         <f>A25+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="26" t="s">
         <v>100</v>
       </c>
       <c r="C26" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="24">
         <v>44130</v>
       </c>
       <c r="G26" s="3">
         <v>19500</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="25" t="s">
         <v>149</v>
       </c>
       <c r="I26">
         <v>12</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="36">
         <v>0</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="20">
         <v>0</v>
       </c>
-      <c r="L26" s="33">
+      <c r="L26" s="30">
         <f>N26-G26-J26</f>
         <v>2500</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="20">
         <f>L26*I26</f>
         <v>30000</v>
       </c>
@@ -6337,76 +5927,76 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:13">
-      <c r="A27" s="26"/>
-      <c r="E27" s="25"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="23"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:13">
-      <c r="A28" s="26"/>
-      <c r="E28" s="25"/>
-      <c r="J28" s="36" t="s">
+    <row r="27" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A27" s="23"/>
+      <c r="E27" s="22"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="20"/>
+    </row>
+    <row r="28" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A28" s="23"/>
+      <c r="E28" s="22"/>
+      <c r="J28" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="34">
         <f>SUM(K25:K27)</f>
         <v>12000</v>
       </c>
-      <c r="L28" s="36" t="s">
+      <c r="L28" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="34">
         <f>SUM(M25:M27)</f>
         <v>44400</v>
       </c>
     </row>
-    <row r="29" ht="6" customHeight="1" spans="1:5">
-      <c r="A29" s="26"/>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30" ht="43" customHeight="1" spans="1:14">
-      <c r="A30" s="26">
+    <row r="29" spans="1:14" ht="6" customHeight="1">
+      <c r="A29" s="23"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A30" s="23">
         <v>1</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="26" t="s">
         <v>108</v>
       </c>
       <c r="C30" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="24">
         <v>44082</v>
       </c>
       <c r="G30" s="3">
         <v>8700</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="25" t="s">
         <v>149</v>
       </c>
       <c r="I30">
         <v>30</v>
       </c>
-      <c r="J30" s="39">
+      <c r="J30" s="36">
         <v>300</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="20">
         <f t="shared" ref="K30:K35" si="5">J30*I30</f>
         <v>9000</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L30" s="30">
         <f t="shared" ref="L30:L35" si="6">N30-G30-J30</f>
         <v>500</v>
       </c>
-      <c r="M30" s="23">
+      <c r="M30" s="20">
         <f t="shared" ref="M30:M35" si="7">L30*I30</f>
         <v>15000</v>
       </c>
@@ -6414,76 +6004,76 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:13">
-      <c r="A31" s="26"/>
-      <c r="E31" s="25"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="23"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:13">
-      <c r="A32" s="26"/>
-      <c r="E32" s="25"/>
-      <c r="J32" s="36" t="s">
+    <row r="31" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A31" s="23"/>
+      <c r="E31" s="22"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="20"/>
+    </row>
+    <row r="32" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A32" s="23"/>
+      <c r="E32" s="22"/>
+      <c r="J32" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K32" s="37">
+      <c r="K32" s="34">
         <f>SUM(K29:K31)</f>
         <v>9000</v>
       </c>
-      <c r="L32" s="36" t="s">
+      <c r="L32" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="34">
         <f>SUM(M29:M31)</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="33" ht="6" customHeight="1" spans="1:5">
-      <c r="A33" s="26"/>
-      <c r="E33" s="25"/>
-    </row>
-    <row r="34" ht="43" customHeight="1" spans="1:14">
-      <c r="A34" s="26">
+    <row r="33" spans="1:14" ht="6" customHeight="1">
+      <c r="A33" s="23"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A34" s="23">
         <v>1</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="26" t="s">
         <v>109</v>
       </c>
       <c r="C34" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="24">
         <v>44063</v>
       </c>
       <c r="G34" s="3">
         <v>19500</v>
       </c>
-      <c r="H34" s="28" t="s">
+      <c r="H34" s="25" t="s">
         <v>136</v>
       </c>
       <c r="I34">
         <v>10</v>
       </c>
-      <c r="J34" s="39">
+      <c r="J34" s="36">
         <v>1500</v>
       </c>
-      <c r="K34" s="23">
+      <c r="K34" s="20">
         <f t="shared" si="5"/>
         <v>15000</v>
       </c>
-      <c r="L34" s="33">
+      <c r="L34" s="30">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="M34" s="23">
+      <c r="M34" s="20">
         <f t="shared" si="7"/>
         <v>20000</v>
       </c>
@@ -6491,47 +6081,47 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="35" ht="43" customHeight="1" spans="1:14">
-      <c r="A35" s="26">
+    <row r="35" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A35" s="23">
         <f>A34+1</f>
         <v>2</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="26" t="s">
         <v>109</v>
       </c>
       <c r="C35" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F35" s="24">
         <v>44082</v>
       </c>
       <c r="G35" s="3">
         <v>19500</v>
       </c>
-      <c r="H35" s="28" t="s">
+      <c r="H35" s="25" t="s">
         <v>136</v>
       </c>
       <c r="I35">
         <v>20</v>
       </c>
-      <c r="J35" s="39">
+      <c r="J35" s="36">
         <v>1500</v>
       </c>
-      <c r="K35" s="23">
+      <c r="K35" s="20">
         <f t="shared" si="5"/>
         <v>30000</v>
       </c>
-      <c r="L35" s="33">
+      <c r="L35" s="30">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="M35" s="23">
+      <c r="M35" s="20">
         <f t="shared" si="7"/>
         <v>40000</v>
       </c>
@@ -6539,76 +6129,76 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:13">
-      <c r="A36" s="26"/>
-      <c r="E36" s="25"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="23"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:13">
-      <c r="A37" s="26"/>
-      <c r="E37" s="25"/>
-      <c r="J37" s="36" t="s">
+    <row r="36" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A36" s="23"/>
+      <c r="E36" s="22"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="20"/>
+    </row>
+    <row r="37" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A37" s="23"/>
+      <c r="E37" s="22"/>
+      <c r="J37" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K37" s="37">
+      <c r="K37" s="34">
         <f>SUM(K34:K36)</f>
         <v>45000</v>
       </c>
-      <c r="L37" s="36" t="s">
+      <c r="L37" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="M37" s="37">
+      <c r="M37" s="34">
         <f>SUM(M34:M36)</f>
         <v>60000</v>
       </c>
     </row>
-    <row r="38" ht="8" customHeight="1" spans="1:5">
-      <c r="A38" s="26"/>
-      <c r="E38" s="25"/>
-    </row>
-    <row r="39" ht="43" customHeight="1" spans="1:14">
-      <c r="A39" s="26">
+    <row r="38" spans="1:14" ht="8.1" customHeight="1">
+      <c r="A38" s="23"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A39" s="23">
         <v>1</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="26" t="s">
         <v>110</v>
       </c>
       <c r="C39" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F39" s="24">
         <v>44082</v>
       </c>
       <c r="G39" s="3">
         <v>16000</v>
       </c>
-      <c r="H39" s="28" t="s">
+      <c r="H39" s="25" t="s">
         <v>136</v>
       </c>
       <c r="I39">
         <v>10</v>
       </c>
-      <c r="J39" s="39">
+      <c r="J39" s="36">
         <v>1000</v>
       </c>
-      <c r="K39" s="23">
+      <c r="K39" s="20">
         <f>J39*I39</f>
         <v>10000</v>
       </c>
-      <c r="L39" s="33">
+      <c r="L39" s="30">
         <f>N39-G39-J39</f>
         <v>2000</v>
       </c>
-      <c r="M39" s="23">
+      <c r="M39" s="20">
         <f>L39*I39</f>
         <v>20000</v>
       </c>
@@ -6616,98 +6206,98 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:14">
-      <c r="A40" s="26"/>
-      <c r="B40" s="29"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="27"/>
+    <row r="40" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A40" s="23"/>
+      <c r="B40" s="26"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="24"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="28"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="23"/>
+      <c r="H40" s="25"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="20"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" ht="37" customHeight="1" spans="1:14">
-      <c r="A41" s="26"/>
-      <c r="B41" s="29"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="27"/>
+    <row r="41" spans="1:14" ht="36.950000000000003" customHeight="1">
+      <c r="A41" s="23"/>
+      <c r="B41" s="26"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="24"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="28"/>
-      <c r="J41" s="36" t="s">
+      <c r="H41" s="25"/>
+      <c r="J41" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K41" s="37">
+      <c r="K41" s="34">
         <f>SUM(K38:K40)</f>
         <v>10000</v>
       </c>
-      <c r="L41" s="36" t="s">
+      <c r="L41" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="M41" s="37">
+      <c r="M41" s="34">
         <f>SUM(M38:M40)</f>
         <v>20000</v>
       </c>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" ht="6" customHeight="1" spans="1:14">
-      <c r="A42" s="26"/>
-      <c r="B42" s="29"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="27"/>
+    <row r="42" spans="1:14" ht="6" customHeight="1">
+      <c r="A42" s="23"/>
+      <c r="B42" s="26"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="28"/>
+      <c r="H42" s="25"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="23"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="20"/>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" ht="43" customHeight="1" spans="1:14">
-      <c r="A43" s="26">
+    <row r="43" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A43" s="23">
         <v>1</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="26" t="s">
         <v>113</v>
       </c>
       <c r="C43" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F43" s="27">
+      <c r="F43" s="24">
         <v>44125</v>
       </c>
       <c r="G43" s="3">
         <v>12200</v>
       </c>
-      <c r="H43" s="28" t="s">
+      <c r="H43" s="25" t="s">
         <v>136</v>
       </c>
       <c r="I43">
         <v>10</v>
       </c>
-      <c r="J43" s="39">
+      <c r="J43" s="36">
         <v>0</v>
       </c>
-      <c r="K43" s="23">
+      <c r="K43" s="20">
         <f>J43*I43</f>
         <v>0</v>
       </c>
-      <c r="L43" s="33">
+      <c r="L43" s="30">
         <f>N43-G43-J43</f>
         <v>2800</v>
       </c>
-      <c r="M43" s="23">
+      <c r="M43" s="20">
         <f>L43*I43</f>
         <v>28000</v>
       </c>
@@ -6715,76 +6305,76 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:13">
-      <c r="A44" s="26"/>
-      <c r="E44" s="25"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="23"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:13">
-      <c r="A45" s="26"/>
-      <c r="E45" s="25"/>
-      <c r="J45" s="36" t="s">
+    <row r="44" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A44" s="23"/>
+      <c r="E44" s="22"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="20"/>
+    </row>
+    <row r="45" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A45" s="23"/>
+      <c r="E45" s="22"/>
+      <c r="J45" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K45" s="37">
+      <c r="K45" s="34">
         <f>SUM(K42:K44)</f>
         <v>0</v>
       </c>
-      <c r="L45" s="36" t="s">
+      <c r="L45" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="M45" s="37">
+      <c r="M45" s="34">
         <f>SUM(M42:M44)</f>
         <v>28000</v>
       </c>
     </row>
-    <row r="46" ht="6" customHeight="1" spans="1:5">
-      <c r="A46" s="26"/>
-      <c r="E46" s="25"/>
-    </row>
-    <row r="47" ht="43" customHeight="1" spans="1:14">
-      <c r="A47" s="26">
+    <row r="46" spans="1:14" ht="6" customHeight="1">
+      <c r="A46" s="23"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A47" s="23">
         <v>1</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="26" t="s">
         <v>111</v>
       </c>
       <c r="C47" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F47" s="24">
         <v>44063</v>
       </c>
       <c r="G47" s="3">
         <v>2750</v>
       </c>
-      <c r="H47" s="28" t="s">
+      <c r="H47" s="25" t="s">
         <v>149</v>
       </c>
       <c r="I47">
         <v>36</v>
       </c>
-      <c r="J47" s="39">
+      <c r="J47" s="36">
         <v>250</v>
       </c>
-      <c r="K47" s="23">
+      <c r="K47" s="20">
         <f>J47*I47</f>
         <v>9000</v>
       </c>
-      <c r="L47" s="33">
+      <c r="L47" s="30">
         <f>N47-G47-J47</f>
         <v>500</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M47" s="20">
         <f>L47*I47</f>
         <v>18000</v>
       </c>
@@ -6792,47 +6382,47 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="48" ht="43" customHeight="1" spans="1:14">
-      <c r="A48" s="26">
+    <row r="48" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A48" s="23">
         <f>A47+1</f>
         <v>2</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="26" t="s">
         <v>111</v>
       </c>
       <c r="C48" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F48" s="24">
         <v>44082</v>
       </c>
       <c r="G48" s="3">
         <v>2750</v>
       </c>
-      <c r="H48" s="28" t="s">
+      <c r="H48" s="25" t="s">
         <v>149</v>
       </c>
       <c r="I48">
         <v>72</v>
       </c>
-      <c r="J48" s="39">
+      <c r="J48" s="36">
         <v>250</v>
       </c>
-      <c r="K48" s="23">
+      <c r="K48" s="20">
         <f>J48*I48</f>
         <v>18000</v>
       </c>
-      <c r="L48" s="33">
+      <c r="L48" s="30">
         <f>N48-G48-J48</f>
         <v>500</v>
       </c>
-      <c r="M48" s="23">
+      <c r="M48" s="20">
         <f>L48*I48</f>
         <v>36000</v>
       </c>
@@ -6840,47 +6430,47 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="49" ht="43" customHeight="1" spans="1:14">
-      <c r="A49" s="26">
+    <row r="49" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A49" s="23">
         <f>A48+1</f>
         <v>3</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="26" t="s">
         <v>111</v>
       </c>
       <c r="C49" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E49" s="21" t="s">
+      <c r="E49" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F49" s="27">
+      <c r="F49" s="24">
         <v>44125</v>
       </c>
       <c r="G49" s="3">
         <v>2750</v>
       </c>
-      <c r="H49" s="28" t="s">
+      <c r="H49" s="25" t="s">
         <v>149</v>
       </c>
       <c r="I49">
         <v>72</v>
       </c>
-      <c r="J49" s="39">
+      <c r="J49" s="36">
         <v>0</v>
       </c>
-      <c r="K49" s="23">
+      <c r="K49" s="20">
         <f>J49*I49</f>
         <v>0</v>
       </c>
-      <c r="L49" s="33">
+      <c r="L49" s="30">
         <f>N49-G49-J49</f>
         <v>750</v>
       </c>
-      <c r="M49" s="23">
+      <c r="M49" s="20">
         <f>L49*I49</f>
         <v>54000</v>
       </c>
@@ -6888,76 +6478,76 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:13">
-      <c r="A50" s="26"/>
-      <c r="E50" s="25"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="23"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:13">
-      <c r="A51" s="26"/>
-      <c r="E51" s="25"/>
-      <c r="J51" s="36" t="s">
+    <row r="50" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A50" s="23"/>
+      <c r="E50" s="22"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="20"/>
+    </row>
+    <row r="51" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A51" s="23"/>
+      <c r="E51" s="22"/>
+      <c r="J51" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K51" s="37">
+      <c r="K51" s="34">
         <f>SUM(K48:K50)</f>
         <v>18000</v>
       </c>
-      <c r="L51" s="36" t="s">
+      <c r="L51" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="M51" s="37">
+      <c r="M51" s="34">
         <f>SUM(M48:M50)</f>
         <v>90000</v>
       </c>
     </row>
-    <row r="52" ht="6" customHeight="1" spans="1:5">
-      <c r="A52" s="26"/>
-      <c r="E52" s="25"/>
-    </row>
-    <row r="53" ht="43" customHeight="1" spans="1:14">
-      <c r="A53" s="26">
+    <row r="52" spans="1:14" ht="6" customHeight="1">
+      <c r="A52" s="23"/>
+      <c r="E52" s="22"/>
+    </row>
+    <row r="53" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A53" s="23">
         <v>1</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="26" t="s">
         <v>112</v>
       </c>
       <c r="C53" t="s">
         <v>133</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E53" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F53" s="27">
+      <c r="F53" s="24">
         <v>44082</v>
       </c>
       <c r="G53" s="3">
         <v>12000</v>
       </c>
-      <c r="H53" s="28" t="s">
+      <c r="H53" s="25" t="s">
         <v>136</v>
       </c>
       <c r="I53">
         <v>5</v>
       </c>
-      <c r="J53" s="39">
+      <c r="J53" s="36">
         <v>1000</v>
       </c>
-      <c r="K53" s="23">
+      <c r="K53" s="20">
         <f>J53*I53</f>
         <v>5000</v>
       </c>
-      <c r="L53" s="33">
+      <c r="L53" s="30">
         <f>N53-G53-J53</f>
         <v>1000</v>
       </c>
-      <c r="M53" s="23">
+      <c r="M53" s="20">
         <f>L53*I53</f>
         <v>5000</v>
       </c>
@@ -6965,74 +6555,74 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:13">
-      <c r="A54" s="26"/>
-      <c r="E54" s="25"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="23"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:13">
-      <c r="A55" s="26"/>
-      <c r="E55" s="25"/>
-      <c r="J55" s="36" t="s">
+    <row r="54" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A54" s="23"/>
+      <c r="E54" s="22"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="20"/>
+    </row>
+    <row r="55" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A55" s="23"/>
+      <c r="E55" s="22"/>
+      <c r="J55" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K55" s="37">
+      <c r="K55" s="34">
         <f>SUM(K52:K54)</f>
         <v>5000</v>
       </c>
-      <c r="L55" s="36" t="s">
+      <c r="L55" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="M55" s="37">
+      <c r="M55" s="34">
         <f>SUM(M52:M54)</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="56" ht="6" customHeight="1" spans="1:5">
-      <c r="A56" s="26"/>
-      <c r="E56" s="25"/>
-    </row>
-    <row r="57" ht="43" customHeight="1" spans="1:14">
-      <c r="A57" s="26">
+    <row r="56" spans="1:14" ht="6" customHeight="1">
+      <c r="A56" s="23"/>
+      <c r="E56" s="22"/>
+    </row>
+    <row r="57" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A57" s="23">
         <v>1</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="26" t="s">
         <v>114</v>
       </c>
       <c r="C57" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="21" t="s">
+      <c r="D57" s="13"/>
+      <c r="E57" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="27">
+      <c r="F57" s="24">
         <v>44130</v>
       </c>
       <c r="G57" s="3">
         <v>12500</v>
       </c>
-      <c r="H57" s="28" t="s">
+      <c r="H57" s="25" t="s">
         <v>149</v>
       </c>
       <c r="I57">
         <v>12</v>
       </c>
-      <c r="J57" s="39">
+      <c r="J57" s="36">
         <v>0</v>
       </c>
-      <c r="K57" s="23">
+      <c r="K57" s="20">
         <f>J57*I57</f>
         <v>0</v>
       </c>
-      <c r="L57" s="33">
+      <c r="L57" s="30">
         <f>N57-G57-J57</f>
         <v>2000</v>
       </c>
-      <c r="M57" s="23">
+      <c r="M57" s="20">
         <f>L57*I57</f>
         <v>24000</v>
       </c>
@@ -7040,76 +6630,76 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:13">
-      <c r="A58" s="26"/>
-      <c r="E58" s="25"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="23"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:13">
-      <c r="A59" s="26"/>
-      <c r="E59" s="25"/>
-      <c r="J59" s="36" t="s">
+    <row r="58" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A58" s="23"/>
+      <c r="E58" s="22"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="20"/>
+    </row>
+    <row r="59" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A59" s="23"/>
+      <c r="E59" s="22"/>
+      <c r="J59" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K59" s="37">
+      <c r="K59" s="34">
         <f>SUM(K56:K58)</f>
         <v>0</v>
       </c>
-      <c r="L59" s="36" t="s">
+      <c r="L59" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="M59" s="37">
+      <c r="M59" s="34">
         <f>SUM(M56:M58)</f>
         <v>24000</v>
       </c>
     </row>
-    <row r="60" ht="5" customHeight="1" spans="1:5">
-      <c r="A60" s="26"/>
-      <c r="E60" s="25"/>
-    </row>
-    <row r="61" ht="43" customHeight="1" spans="1:14">
-      <c r="A61" s="26">
+    <row r="60" spans="1:14" ht="5.0999999999999996" customHeight="1">
+      <c r="A60" s="23"/>
+      <c r="E60" s="22"/>
+    </row>
+    <row r="61" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A61" s="23">
         <v>1</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="26" t="s">
         <v>115</v>
       </c>
       <c r="C61" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="E61" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F61" s="27">
+      <c r="F61" s="24">
         <v>44130</v>
       </c>
       <c r="G61" s="3">
         <v>2200</v>
       </c>
-      <c r="H61" s="28" t="s">
+      <c r="H61" s="25" t="s">
         <v>149</v>
       </c>
       <c r="I61">
         <v>40</v>
       </c>
-      <c r="J61" s="39">
+      <c r="J61" s="36">
         <v>0</v>
       </c>
-      <c r="K61" s="23">
+      <c r="K61" s="20">
         <f>J61*I61</f>
         <v>0</v>
       </c>
-      <c r="L61" s="33">
+      <c r="L61" s="30">
         <f>N61-G61-J61</f>
         <v>800</v>
       </c>
-      <c r="M61" s="23">
+      <c r="M61" s="20">
         <f>L61*I61</f>
         <v>32000</v>
       </c>
@@ -7117,76 +6707,76 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:13">
-      <c r="A62" s="26"/>
-      <c r="E62" s="25"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="23"/>
-    </row>
-    <row r="63" customHeight="1" spans="1:13">
-      <c r="A63" s="26"/>
-      <c r="E63" s="25"/>
-      <c r="J63" s="36" t="s">
+    <row r="62" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A62" s="23"/>
+      <c r="E62" s="22"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="20"/>
+    </row>
+    <row r="63" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A63" s="23"/>
+      <c r="E63" s="22"/>
+      <c r="J63" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K63" s="37">
+      <c r="K63" s="34">
         <f>SUM(K60:K62)</f>
         <v>0</v>
       </c>
-      <c r="L63" s="36" t="s">
+      <c r="L63" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="M63" s="37">
+      <c r="M63" s="34">
         <f>SUM(M60:M62)</f>
         <v>32000</v>
       </c>
     </row>
-    <row r="64" ht="6" customHeight="1" spans="1:5">
-      <c r="A64" s="26"/>
-      <c r="E64" s="25"/>
-    </row>
-    <row r="65" ht="43" customHeight="1" spans="1:14">
-      <c r="A65" s="26">
+    <row r="64" spans="1:14" ht="6" customHeight="1">
+      <c r="A64" s="23"/>
+      <c r="E64" s="22"/>
+    </row>
+    <row r="65" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A65" s="23">
         <v>1</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="26" t="s">
         <v>116</v>
       </c>
       <c r="C65" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="E65" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F65" s="27">
+      <c r="F65" s="24">
         <v>44130</v>
       </c>
       <c r="G65" s="3">
         <v>2325</v>
       </c>
-      <c r="H65" s="28" t="s">
+      <c r="H65" s="25" t="s">
         <v>149</v>
       </c>
       <c r="I65">
         <v>40</v>
       </c>
-      <c r="J65" s="39">
+      <c r="J65" s="36">
         <v>0</v>
       </c>
-      <c r="K65" s="23">
+      <c r="K65" s="20">
         <f>J65*I65</f>
         <v>0</v>
       </c>
-      <c r="L65" s="33">
+      <c r="L65" s="30">
         <f>N65-G65-J65</f>
         <v>975</v>
       </c>
-      <c r="M65" s="23">
+      <c r="M65" s="20">
         <f>L65*I65</f>
         <v>39000</v>
       </c>
@@ -7194,74 +6784,74 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:13">
-      <c r="A66" s="26"/>
-      <c r="E66" s="25"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="23"/>
-    </row>
-    <row r="67" customHeight="1" spans="1:13">
-      <c r="A67" s="26"/>
-      <c r="E67" s="25"/>
-      <c r="J67" s="36" t="s">
+    <row r="66" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A66" s="23"/>
+      <c r="E66" s="22"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="20"/>
+    </row>
+    <row r="67" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A67" s="23"/>
+      <c r="E67" s="22"/>
+      <c r="J67" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K67" s="37">
+      <c r="K67" s="34">
         <f>SUM(K64:K66)</f>
         <v>0</v>
       </c>
-      <c r="L67" s="36" t="s">
+      <c r="L67" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="M67" s="37">
+      <c r="M67" s="34">
         <f>SUM(M64:M66)</f>
         <v>39000</v>
       </c>
     </row>
-    <row r="68" ht="9" customHeight="1" spans="1:5">
-      <c r="A68" s="26"/>
-      <c r="E68" s="25"/>
-    </row>
-    <row r="69" ht="43" customHeight="1" spans="1:14">
-      <c r="A69" s="26">
+    <row r="68" spans="1:14" ht="9" customHeight="1">
+      <c r="A68" s="23"/>
+      <c r="E68" s="22"/>
+    </row>
+    <row r="69" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A69" s="23">
         <v>1</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="26" t="s">
         <v>117</v>
       </c>
       <c r="C69" t="s">
         <v>152</v>
       </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="21" t="s">
+      <c r="D69" s="13"/>
+      <c r="E69" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F69" s="27">
+      <c r="F69" s="24">
         <v>44131</v>
       </c>
       <c r="G69" s="3">
         <v>4500</v>
       </c>
-      <c r="H69" s="28" t="s">
+      <c r="H69" s="25" t="s">
         <v>149</v>
       </c>
       <c r="I69">
         <v>16</v>
       </c>
-      <c r="J69" s="39">
+      <c r="J69" s="36">
         <v>0</v>
       </c>
-      <c r="K69" s="23">
+      <c r="K69" s="20">
         <f>J69*I69</f>
         <v>0</v>
       </c>
-      <c r="L69" s="33">
+      <c r="L69" s="30">
         <f>N69-G69-J69</f>
         <v>4000</v>
       </c>
-      <c r="M69" s="23">
+      <c r="M69" s="20">
         <f>L69*I69</f>
         <v>64000</v>
       </c>
@@ -7269,76 +6859,76 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:13">
-      <c r="A70" s="26"/>
-      <c r="E70" s="25"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="23"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:13">
-      <c r="A71" s="26"/>
-      <c r="E71" s="25"/>
-      <c r="J71" s="36" t="s">
+    <row r="70" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A70" s="23"/>
+      <c r="E70" s="22"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="20"/>
+    </row>
+    <row r="71" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A71" s="23"/>
+      <c r="E71" s="22"/>
+      <c r="J71" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K71" s="37">
+      <c r="K71" s="34">
         <f>SUM(K68:K70)</f>
         <v>0</v>
       </c>
-      <c r="L71" s="36" t="s">
+      <c r="L71" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="M71" s="37">
+      <c r="M71" s="34">
         <f>SUM(M68:M70)</f>
         <v>64000</v>
       </c>
     </row>
-    <row r="72" ht="9" customHeight="1" spans="1:5">
-      <c r="A72" s="26"/>
-      <c r="E72" s="25"/>
-    </row>
-    <row r="73" ht="43" customHeight="1" spans="1:14">
-      <c r="A73" s="26">
+    <row r="72" spans="1:14" ht="9" customHeight="1">
+      <c r="A72" s="23"/>
+      <c r="E72" s="22"/>
+    </row>
+    <row r="73" spans="1:14" ht="42.95" customHeight="1">
+      <c r="A73" s="23">
         <v>1</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="26" t="s">
         <v>118</v>
       </c>
       <c r="C73" t="s">
         <v>133</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="E73" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="27">
+      <c r="F73" s="24">
         <v>44131</v>
       </c>
       <c r="G73" s="3">
         <v>675</v>
       </c>
-      <c r="H73" s="28" t="s">
+      <c r="H73" s="25" t="s">
         <v>149</v>
       </c>
       <c r="I73">
         <v>240</v>
       </c>
-      <c r="J73" s="39">
+      <c r="J73" s="36">
         <v>0</v>
       </c>
-      <c r="K73" s="23">
+      <c r="K73" s="20">
         <f>J73*I73</f>
         <v>0</v>
       </c>
-      <c r="L73" s="33">
+      <c r="L73" s="30">
         <f>N73-G73-J73</f>
         <v>575</v>
       </c>
-      <c r="M73" s="23">
+      <c r="M73" s="20">
         <f>L73*I73</f>
         <v>138000</v>
       </c>
@@ -7346,51 +6936,55 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:13">
-      <c r="A74" s="26"/>
-      <c r="E74" s="25"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="23"/>
-    </row>
-    <row r="75" customHeight="1" spans="1:13">
-      <c r="A75" s="26"/>
-      <c r="E75" s="25"/>
-      <c r="J75" s="36" t="s">
+    <row r="74" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A74" s="23"/>
+      <c r="E74" s="22"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="20"/>
+    </row>
+    <row r="75" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A75" s="23"/>
+      <c r="E75" s="22"/>
+      <c r="J75" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="K75" s="37">
+      <c r="K75" s="34">
         <f>SUM(K72:K74)</f>
         <v>0</v>
       </c>
-      <c r="L75" s="36" t="s">
+      <c r="L75" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="M75" s="37">
+      <c r="M75" s="34">
         <f>SUM(M72:M74)</f>
         <v>138000</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:5">
-      <c r="A76" s="26"/>
-      <c r="E76" s="25"/>
-    </row>
-    <row r="77" customHeight="1" spans="1:5">
-      <c r="A77" s="26"/>
-      <c r="E77" s="25"/>
-    </row>
-    <row r="78" customHeight="1" spans="1:1">
-      <c r="A78" s="26"/>
-    </row>
-    <row r="79" customHeight="1" spans="1:1">
-      <c r="A79" s="26"/>
-    </row>
-    <row r="80" customHeight="1" spans="1:1">
-      <c r="A80" s="26"/>
+    <row r="76" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A76" s="23"/>
+      <c r="E76" s="22"/>
+    </row>
+    <row r="77" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A77" s="23"/>
+      <c r="E77" s="22"/>
+    </row>
+    <row r="78" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A78" s="23"/>
+    </row>
+    <row r="79" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A79" s="23"/>
+    </row>
+    <row r="80" spans="1:14" ht="29.1" customHeight="1">
+      <c r="A80" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="A1:A2"/>
@@ -7398,32 +6992,31 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <dataValidations count="17">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C5 C6 C7 C8 C12 C16 C20 C21 C22 C25 C26 C30 C34 C35 C39 C40 C41 C42 C43 C47 C48 C49 C53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C53 C3:C8 C12 C16 C20:C22 C25:C26 C30 C34:C35 C39:C43 C47:C49">
       <formula1>"Food"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B4 B5 B6 B7 B8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8">
       <formula1>Item!$B$2</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
       <formula1>Item!$B$2:$B$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D12 D16 D20 D21 D22 D25 D26 D30 D34 D35 D39 D40 D41 D42 D43 D47 D48 D49 D53 D57 D61 D65 D69 D73 D4:D8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D8 D12 D16 D20:D22 D25:D26 D30 D34:D35 D39:D43 D47:D49 D53 D57 D61 D65 D69 D73">
       <formula1>$V$2:$V$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H4 H5 H6 H7 H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H8">
       <formula1>$Q$2:$Q$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E12 E16 E20 E21 E22 E25 E26 E30 E34 E35 E39 E40 E41 E42 E43 E47 E48 E49 E53 E57 E61 E65 E69 E73 E4:E8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E8 E12 E16 E20:E22 E25:E26 E30 E34:E35 E39:E43 E47:E49 E53 E57 E61 E65 E69 E73">
       <formula1>Supllier!$C$19:$C$23</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 G3 I3 J3 K3 L3 M3 N3 F4 G4 I4 J4 N4 F5 G5 I5 J5 N5 F6 G6 I6 J6 N6 F7 G7 I7 J7 N7 F8 G8 I8 J8 N8 F12 G12 I12 J12 K12 L12 M12 N12 K16 L16 M16 K20 L20 M20 K21 L21 M21 K22 L22 M22 K25 L25 M25 K26 L26 M26 K27 L27 M27 K30 L30 M30 K31 L31 M31 K34 L34 M34 K35 L35 M35 K36 L36 M36 K39 L39 M39 K40 L40 M40 K42 L42 M42 K43 L43 M43 K44 L44 M44 K47 L47 M47 K48 L48 M48 K49 L49 M49 K50 L50 M50 K53 L53 M53 K54 L54 M54 K57 L57 M57 K58 L58 M58 K61 L61 M61 K62 L62 M62 K65 L65 M65 K66 L66 M66 K69 L69 M69 K70 L70 M70 K73 L73 M73 K74 L74 M74 K4:K8 L4:L8 M4:M8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K73:M74 F3:G8 I3:N8 F12:G12 I12:N12 K16:M16 K20:M22 K25:M27 K30:M31 K34:M36 K39:M40 K42:M44 K47:M50 K53:M54 K57:M58 K61:M62 K65:M66 K69:M70"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57 C61 C65 C69 C73">
       <formula1>"Food,House Hold"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B16 B20 B21 B22 B25 B26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B16 B20:B22 B25:B26">
       <formula1>Item!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12">
@@ -7432,16 +7025,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
       <formula1>Item!$B$2:$B$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34 B35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34:B35">
       <formula1>Item!$B$2:$B$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H34 H35 H39 H40 H41 H42 H43 H47 H48 H49 H53 H57 H61 H65 H69 H73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H73 H34:H35 H39:H43 H47:H49 H53 H57 H61 H65 H69">
       <formula1>$Q$2:$Q$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39 B40 B41 B42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:B42">
       <formula1>Item!$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47 B48 B49 B53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53 B47:B49">
       <formula1>Item!$B$2:$B$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57">
@@ -7452,64 +7045,63 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="W3:W5" numberStoredAsText="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="13.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="20.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="18.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="9.71428571428571" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="3" customHeight="1" spans="1:9">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+    <row r="2" spans="1:9" ht="3" customHeight="1">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="H2" t="s">
         <v>155</v>
       </c>
@@ -7517,8 +7109,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="7">
+    <row r="3" spans="1:9" ht="30" customHeight="1">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -7537,17 +7129,17 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="7">
+    <row r="4" spans="1:9" ht="30" customHeight="1">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>162</v>
       </c>
       <c r="H4" t="s">
@@ -7557,51 +7149,51 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="7">
+    <row r="5" spans="1:9" ht="30" customHeight="1">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="7">
+    <row r="6" spans="1:9" ht="30" customHeight="1">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="7">
+    <row r="7" spans="1:9" ht="30" customHeight="1">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>169</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>170</v>
       </c>
       <c r="H7" t="s">
@@ -7611,17 +7203,17 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="7">
+    <row r="8" spans="1:9" ht="30" customHeight="1">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>173</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>174</v>
       </c>
       <c r="H8" t="s">
@@ -7631,17 +7223,17 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="7">
+    <row r="9" spans="1:9" ht="30" customHeight="1">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>177</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>178</v>
       </c>
       <c r="H9" t="s">
@@ -7651,51 +7243,51 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="7">
+    <row r="10" spans="1:9" ht="30" customHeight="1">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>181</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="7">
+    <row r="11" spans="1:9" ht="30" customHeight="1">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>183</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="7">
+    <row r="12" spans="1:9" ht="30" customHeight="1">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>186</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>187</v>
       </c>
       <c r="H12" t="s">
@@ -7705,17 +7297,17 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="7">
+    <row r="13" spans="1:9" ht="30" customHeight="1">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>190</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>191</v>
       </c>
       <c r="H13" t="s">
@@ -7725,519 +7317,519 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="7">
+    <row r="14" spans="1:9" ht="30" customHeight="1">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>193</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="7">
+    <row r="15" spans="1:9" ht="30" customHeight="1">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>195</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="7">
+    <row r="16" spans="1:9" ht="30" customHeight="1">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>196</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="7">
+    <row r="17" spans="1:4" ht="30" customHeight="1">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>198</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="7">
+    <row r="18" spans="1:4" ht="30" customHeight="1">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>199</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="7">
+    <row r="19" spans="1:4" ht="30" customHeight="1">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>201</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="7">
+    <row r="20" spans="1:4" ht="30" customHeight="1">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>203</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="7">
+    <row r="21" spans="1:4" ht="30" customHeight="1">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>205</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="7">
+    <row r="22" spans="1:4" ht="30" customHeight="1">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>206</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="7">
+    <row r="23" spans="1:4" ht="30" customHeight="1">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>208</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="7">
+    <row r="24" spans="1:4" ht="30" customHeight="1">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>210</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="7">
+    <row r="25" spans="1:4" ht="30" customHeight="1">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>212</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="7">
+    <row r="26" spans="1:4" ht="30" customHeight="1">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>213</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="7">
+    <row r="27" spans="1:4" ht="30" customHeight="1">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>215</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="7">
+    <row r="28" spans="1:4" ht="30" customHeight="1">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>216</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="7">
+    <row r="29" spans="1:4" ht="30" customHeight="1">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>218</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="7">
+    <row r="30" spans="1:4" ht="30" customHeight="1">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>219</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="7">
+    <row r="31" spans="1:4" ht="30" customHeight="1">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>220</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="7">
+    <row r="32" spans="1:4" ht="30" customHeight="1">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="7">
+    <row r="33" spans="1:4" ht="30" customHeight="1">
+      <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="7">
+    <row r="34" spans="1:4" ht="30" customHeight="1">
+      <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="7">
+    <row r="35" spans="1:4" ht="30" customHeight="1">
+      <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="7">
+    <row r="36" spans="1:4" ht="30" customHeight="1">
+      <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="7">
+    <row r="37" spans="1:4" ht="30" customHeight="1">
+      <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="7">
+    <row r="38" spans="1:4" ht="30" customHeight="1">
+      <c r="A38" s="6">
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="7">
+    <row r="39" spans="1:4" ht="30" customHeight="1">
+      <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:1">
-      <c r="A40" s="7"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:1">
-      <c r="A41" s="7"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:1">
-      <c r="A42" s="7"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:1">
-      <c r="A43" s="7"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:1">
-      <c r="A44" s="7"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:1">
-      <c r="A45" s="7"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:1">
-      <c r="A46" s="7"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:1">
-      <c r="A47" s="7"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:1">
-      <c r="A48" s="7"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:1">
-      <c r="A49" s="7"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:1">
-      <c r="A50" s="7"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:1">
-      <c r="A51" s="7"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:1">
-      <c r="A52" s="7"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:1">
-      <c r="A53" s="7"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:1">
-      <c r="A54" s="7"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:1">
-      <c r="A55" s="7"/>
-    </row>
-    <row r="56" customHeight="1" spans="1:1">
-      <c r="A56" s="7"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:1">
-      <c r="A57" s="7"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:1">
-      <c r="A58" s="7"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:1">
-      <c r="A59" s="7"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:1">
-      <c r="A60" s="7"/>
-    </row>
-    <row r="61" customHeight="1" spans="1:1">
-      <c r="A61" s="7"/>
-    </row>
-    <row r="62" customHeight="1" spans="1:1">
-      <c r="A62" s="7"/>
-    </row>
-    <row r="63" customHeight="1" spans="1:1">
-      <c r="A63" s="7"/>
-    </row>
-    <row r="64" customHeight="1" spans="1:1">
-      <c r="A64" s="7"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:1">
-      <c r="A65" s="7"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:1">
-      <c r="A66" s="7"/>
-    </row>
-    <row r="67" customHeight="1" spans="1:1">
-      <c r="A67" s="7"/>
-    </row>
-    <row r="68" customHeight="1" spans="1:1">
-      <c r="A68" s="7"/>
-    </row>
-    <row r="69" customHeight="1" spans="1:1">
-      <c r="A69" s="7"/>
-    </row>
-    <row r="70" customHeight="1" spans="1:1">
-      <c r="A70" s="7"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:1">
-      <c r="A71" s="7"/>
-    </row>
-    <row r="72" customHeight="1" spans="1:1">
-      <c r="A72" s="7"/>
-    </row>
-    <row r="73" customHeight="1" spans="1:1">
-      <c r="A73" s="7"/>
-    </row>
-    <row r="74" customHeight="1" spans="1:1">
-      <c r="A74" s="7"/>
-    </row>
-    <row r="75" customHeight="1" spans="1:1">
-      <c r="A75" s="7"/>
-    </row>
-    <row r="76" customHeight="1" spans="1:1">
-      <c r="A76" s="7"/>
-    </row>
-    <row r="77" customHeight="1" spans="1:1">
-      <c r="A77" s="7"/>
-    </row>
-    <row r="78" customHeight="1" spans="1:1">
-      <c r="A78" s="7"/>
-    </row>
-    <row r="79" customHeight="1" spans="1:1">
-      <c r="A79" s="7"/>
-    </row>
-    <row r="80" customHeight="1" spans="1:1">
-      <c r="A80" s="7"/>
-    </row>
-    <row r="81" customHeight="1" spans="1:1">
-      <c r="A81" s="7"/>
-    </row>
-    <row r="82" customHeight="1" spans="1:1">
-      <c r="A82" s="7"/>
-    </row>
-    <row r="83" customHeight="1" spans="1:1">
-      <c r="A83" s="7"/>
-    </row>
-    <row r="84" customHeight="1" spans="1:1">
-      <c r="A84" s="7"/>
-    </row>
-    <row r="85" customHeight="1" spans="1:1">
-      <c r="A85" s="7"/>
-    </row>
-    <row r="86" customHeight="1" spans="1:1">
-      <c r="A86" s="7"/>
-    </row>
-    <row r="87" customHeight="1" spans="1:1">
-      <c r="A87" s="7"/>
-    </row>
-    <row r="88" customHeight="1" spans="1:1">
-      <c r="A88" s="7"/>
-    </row>
-    <row r="89" customHeight="1" spans="1:1">
-      <c r="A89" s="7"/>
+    <row r="40" spans="1:4" ht="30" customHeight="1">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" customHeight="1">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" ht="30" customHeight="1">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" ht="30" customHeight="1">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" ht="30" customHeight="1">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" ht="30" customHeight="1">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" ht="30" customHeight="1">
+      <c r="A46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" ht="30" customHeight="1">
+      <c r="A47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" ht="30" customHeight="1">
+      <c r="A48" s="6"/>
+    </row>
+    <row r="49" spans="1:1" ht="30" customHeight="1">
+      <c r="A49" s="6"/>
+    </row>
+    <row r="50" spans="1:1" ht="30" customHeight="1">
+      <c r="A50" s="6"/>
+    </row>
+    <row r="51" spans="1:1" ht="30" customHeight="1">
+      <c r="A51" s="6"/>
+    </row>
+    <row r="52" spans="1:1" ht="30" customHeight="1">
+      <c r="A52" s="6"/>
+    </row>
+    <row r="53" spans="1:1" ht="30" customHeight="1">
+      <c r="A53" s="6"/>
+    </row>
+    <row r="54" spans="1:1" ht="30" customHeight="1">
+      <c r="A54" s="6"/>
+    </row>
+    <row r="55" spans="1:1" ht="30" customHeight="1">
+      <c r="A55" s="6"/>
+    </row>
+    <row r="56" spans="1:1" ht="30" customHeight="1">
+      <c r="A56" s="6"/>
+    </row>
+    <row r="57" spans="1:1" ht="30" customHeight="1">
+      <c r="A57" s="6"/>
+    </row>
+    <row r="58" spans="1:1" ht="30" customHeight="1">
+      <c r="A58" s="6"/>
+    </row>
+    <row r="59" spans="1:1" ht="30" customHeight="1">
+      <c r="A59" s="6"/>
+    </row>
+    <row r="60" spans="1:1" ht="30" customHeight="1">
+      <c r="A60" s="6"/>
+    </row>
+    <row r="61" spans="1:1" ht="30" customHeight="1">
+      <c r="A61" s="6"/>
+    </row>
+    <row r="62" spans="1:1" ht="30" customHeight="1">
+      <c r="A62" s="6"/>
+    </row>
+    <row r="63" spans="1:1" ht="30" customHeight="1">
+      <c r="A63" s="6"/>
+    </row>
+    <row r="64" spans="1:1" ht="30" customHeight="1">
+      <c r="A64" s="6"/>
+    </row>
+    <row r="65" spans="1:1" ht="30" customHeight="1">
+      <c r="A65" s="6"/>
+    </row>
+    <row r="66" spans="1:1" ht="30" customHeight="1">
+      <c r="A66" s="6"/>
+    </row>
+    <row r="67" spans="1:1" ht="30" customHeight="1">
+      <c r="A67" s="6"/>
+    </row>
+    <row r="68" spans="1:1" ht="30" customHeight="1">
+      <c r="A68" s="6"/>
+    </row>
+    <row r="69" spans="1:1" ht="30" customHeight="1">
+      <c r="A69" s="6"/>
+    </row>
+    <row r="70" spans="1:1" ht="30" customHeight="1">
+      <c r="A70" s="6"/>
+    </row>
+    <row r="71" spans="1:1" ht="30" customHeight="1">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" spans="1:1" ht="30" customHeight="1">
+      <c r="A72" s="6"/>
+    </row>
+    <row r="73" spans="1:1" ht="30" customHeight="1">
+      <c r="A73" s="6"/>
+    </row>
+    <row r="74" spans="1:1" ht="30" customHeight="1">
+      <c r="A74" s="6"/>
+    </row>
+    <row r="75" spans="1:1" ht="30" customHeight="1">
+      <c r="A75" s="6"/>
+    </row>
+    <row r="76" spans="1:1" ht="30" customHeight="1">
+      <c r="A76" s="6"/>
+    </row>
+    <row r="77" spans="1:1" ht="30" customHeight="1">
+      <c r="A77" s="6"/>
+    </row>
+    <row r="78" spans="1:1" ht="30" customHeight="1">
+      <c r="A78" s="6"/>
+    </row>
+    <row r="79" spans="1:1" ht="30" customHeight="1">
+      <c r="A79" s="6"/>
+    </row>
+    <row r="80" spans="1:1" ht="30" customHeight="1">
+      <c r="A80" s="6"/>
+    </row>
+    <row r="81" spans="1:1" ht="30" customHeight="1">
+      <c r="A81" s="6"/>
+    </row>
+    <row r="82" spans="1:1" ht="30" customHeight="1">
+      <c r="A82" s="6"/>
+    </row>
+    <row r="83" spans="1:1" ht="30" customHeight="1">
+      <c r="A83" s="6"/>
+    </row>
+    <row r="84" spans="1:1" ht="30" customHeight="1">
+      <c r="A84" s="6"/>
+    </row>
+    <row r="85" spans="1:1" ht="30" customHeight="1">
+      <c r="A85" s="6"/>
+    </row>
+    <row r="86" spans="1:1" ht="30" customHeight="1">
+      <c r="A86" s="6"/>
+    </row>
+    <row r="87" spans="1:1" ht="30" customHeight="1">
+      <c r="A87" s="6"/>
+    </row>
+    <row r="88" spans="1:1" ht="30" customHeight="1">
+      <c r="A88" s="6"/>
+    </row>
+    <row r="89" spans="1:1" ht="30" customHeight="1">
+      <c r="A89" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8252,7 +7844,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -8263,25 +7854,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="36.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="31.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="11.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="15.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.8571428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8301,233 +7891,232 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="4:6">
+    <row r="2" spans="1:6" ht="24" customHeight="1">
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" customHeight="1" spans="4:6">
+    <row r="3" spans="1:6" ht="24" customHeight="1">
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" customHeight="1" spans="4:6">
+    <row r="4" spans="1:6" ht="24" customHeight="1">
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" customHeight="1" spans="4:6">
+    <row r="5" spans="1:6" ht="24" customHeight="1">
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" customHeight="1" spans="4:6">
+    <row r="6" spans="1:6" ht="24" customHeight="1">
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" customHeight="1" spans="4:6">
+    <row r="7" spans="1:6" ht="24" customHeight="1">
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" customHeight="1" spans="4:6">
+    <row r="8" spans="1:6" ht="24" customHeight="1">
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" customHeight="1" spans="4:6">
+    <row r="9" spans="1:6" ht="24" customHeight="1">
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" customHeight="1" spans="4:6">
+    <row r="10" spans="1:6" ht="24" customHeight="1">
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" customHeight="1" spans="4:6">
+    <row r="11" spans="1:6" ht="24" customHeight="1">
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" customHeight="1" spans="4:6">
+    <row r="12" spans="1:6" ht="24" customHeight="1">
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" customHeight="1" spans="4:6">
+    <row r="13" spans="1:6" ht="24" customHeight="1">
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" customHeight="1" spans="4:6">
+    <row r="14" spans="1:6" ht="24" customHeight="1">
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" customHeight="1" spans="4:6">
+    <row r="15" spans="1:6" ht="24" customHeight="1">
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" customHeight="1" spans="4:6">
+    <row r="16" spans="1:6" ht="24" customHeight="1">
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" customHeight="1" spans="4:6">
+    <row r="17" spans="4:6" ht="24" customHeight="1">
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" customHeight="1" spans="4:6">
+    <row r="18" spans="4:6" ht="24" customHeight="1">
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" customHeight="1" spans="4:6">
+    <row r="19" spans="4:6" ht="24" customHeight="1">
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" customHeight="1" spans="4:6">
+    <row r="20" spans="4:6" ht="24" customHeight="1">
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" customHeight="1" spans="4:6">
+    <row r="21" spans="4:6" ht="24" customHeight="1">
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" customHeight="1" spans="4:6">
+    <row r="22" spans="4:6" ht="24" customHeight="1">
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" customHeight="1" spans="4:6">
+    <row r="23" spans="4:6" ht="24" customHeight="1">
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" customHeight="1" spans="4:6">
+    <row r="24" spans="4:6" ht="24" customHeight="1">
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" customHeight="1" spans="4:6">
+    <row r="25" spans="4:6" ht="24" customHeight="1">
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" customHeight="1" spans="4:6">
+    <row r="26" spans="4:6" ht="24" customHeight="1">
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" customHeight="1" spans="4:6">
+    <row r="27" spans="4:6" ht="24" customHeight="1">
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" customHeight="1" spans="4:6">
+    <row r="28" spans="4:6" ht="24" customHeight="1">
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" customHeight="1" spans="4:6">
+    <row r="29" spans="4:6" ht="24" customHeight="1">
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" customHeight="1" spans="4:6">
+    <row r="30" spans="4:6" ht="24" customHeight="1">
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" customHeight="1" spans="4:6">
+    <row r="31" spans="4:6" ht="24" customHeight="1">
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" customHeight="1" spans="4:6">
+    <row r="32" spans="4:6" ht="24" customHeight="1">
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" customHeight="1" spans="4:6">
+    <row r="33" spans="4:6" ht="24" customHeight="1">
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" customHeight="1" spans="4:6">
+    <row r="34" spans="4:6" ht="24" customHeight="1">
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" customHeight="1" spans="4:6">
+    <row r="35" spans="4:6" ht="24" customHeight="1">
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" customHeight="1" spans="4:6">
+    <row r="36" spans="4:6" ht="24" customHeight="1">
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" customHeight="1" spans="4:6">
+    <row r="37" spans="4:6" ht="24" customHeight="1">
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" customHeight="1" spans="4:6">
+    <row r="38" spans="4:6" ht="24" customHeight="1">
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" customHeight="1" spans="4:6">
+    <row r="39" spans="4:6" ht="24" customHeight="1">
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" customHeight="1" spans="4:6">
+    <row r="40" spans="4:6" ht="24" customHeight="1">
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" customHeight="1" spans="4:6">
+    <row r="41" spans="4:6" ht="24" customHeight="1">
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" customHeight="1" spans="4:6">
+    <row r="42" spans="4:6" ht="24" customHeight="1">
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" customHeight="1" spans="4:6">
+    <row r="43" spans="4:6" ht="24" customHeight="1">
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" customHeight="1" spans="4:6">
+    <row r="44" spans="4:6" ht="24" customHeight="1">
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" customHeight="1" spans="4:6">
+    <row r="45" spans="4:6" ht="24" customHeight="1">
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" customHeight="1" spans="4:6">
+    <row r="46" spans="4:6" ht="24" customHeight="1">
       <c r="D46" s="3"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/NZR Online Shop.xlsx
+++ b/NZR Online Shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9810" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Supllier" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Wishlist" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Item!$A$1:$C$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Item!$A$8:$C$26</definedName>
     <definedName name="Category">Stock!$F$2:$H$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="255">
   <si>
     <t>No</t>
   </si>
@@ -295,6 +295,12 @@
     <t>Batujajar, Bandung Barat</t>
   </si>
   <si>
+    <t>Agen Gula Pasir</t>
+  </si>
+  <si>
+    <t>Unpad, Bandung</t>
+  </si>
+  <si>
     <t>Pak Ulung</t>
   </si>
   <si>
@@ -319,45 +325,45 @@
     <t>Selisih Setoran Modal</t>
   </si>
   <si>
+    <t>Modal Pembelian Mama Ahda</t>
+  </si>
+  <si>
+    <t>Bulan</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Oktober</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
     <t>Item</t>
   </si>
   <si>
     <t>Supplier</t>
   </si>
   <si>
-    <t>Modal Pembelian Mama Ahda</t>
-  </si>
-  <si>
     <t>Telor</t>
   </si>
   <si>
-    <t>Bulan</t>
-  </si>
-  <si>
     <t>Kecap Manis Cap Bangau 550 ml</t>
   </si>
   <si>
-    <t>August</t>
-  </si>
-  <si>
     <t>Minyak Goreng Filma 2 ltr</t>
   </si>
   <si>
-    <t>September</t>
-  </si>
-  <si>
     <t>Minyak Goreng Sovia 1 ltr</t>
   </si>
   <si>
-    <t>Oktober</t>
-  </si>
-  <si>
     <t>Tepung  Terigu Segitiga Biru 1 kg</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Susu Sapi Bear Brand 1 can</t>
   </si>
   <si>
@@ -392,6 +398,9 @@
   </si>
   <si>
     <t>Tissue Passeo 2 ply 50 sheet</t>
+  </si>
+  <si>
+    <t>Gula Pasir Rosebrand 1kg</t>
   </si>
   <si>
     <t>Satuan</t>
@@ -786,15 +795,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="#,##0;\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="180" formatCode="#,##0;\-#,##0"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,29 +859,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -880,12 +866,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -913,21 +893,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -944,10 +909,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -961,60 +926,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1028,6 +956,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1035,15 +994,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1160,49 +1140,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,7 +1182,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,25 +1278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,85 +1290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,50 +1306,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1436,6 +1345,47 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1456,15 +1406,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1474,143 +1424,140 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1629,9 +1576,6 @@
     <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1683,7 +1627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1698,7 +1642,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1740,16 +1684,16 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1773,13 +1717,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1788,7 +1732,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="180" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1797,28 +1741,28 @@
     <xf numFmtId="49" fontId="1" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1878,7 +1822,7 @@
   </cellStyles>
   <dxfs count="27">
     <dxf>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -1898,7 +1842,7 @@
         <sz val="11"/>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -1928,7 +1872,7 @@
         <sz val="11"/>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -1938,7 +1882,7 @@
         <sz val="11"/>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="49" formatCode="@"/>
@@ -1947,10 +1891,10 @@
       <numFmt numFmtId="49" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="49" formatCode="@"/>
@@ -2427,7 +2371,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Item!$F$2</c:f>
+              <c:f>Item!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2496,7 +2440,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Item!$E$3:$E$5</c:f>
+              <c:f>Item!$B$3:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2513,7 +2457,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Item!$F$3:$F$5</c:f>
+              <c:f>Item!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2524,7 +2468,7 @@
                   <c:v>2778400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>922500</c:v>
+                  <c:v>1552500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2956,16 +2900,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2973,7 +2917,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6902450" y="31750"/>
+        <a:off x="4473575" y="635"/>
         <a:ext cx="5546725" cy="2355215"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3009,7 +2953,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9434830" y="9525"/>
-        <a:ext cx="4935220" cy="3302000"/>
+        <a:ext cx="4935220" cy="2265045"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3023,7 +2967,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A2:G24" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A2:G25" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="7">
     <tableColumn id="1" name="Column1" dataDxfId="0"/>
     <tableColumn id="2" name="Column2" dataDxfId="1"/>
@@ -3379,12 +3323,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="24.95" customHeight="1"/>
@@ -3394,8 +3338,8 @@
     <col min="3" max="3" width="29.2857142857143" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="19.7142857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7142857142857" style="16" customWidth="1"/>
-    <col min="7" max="7" width="19.7142857142857" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.7142857142857" style="14" customWidth="1"/>
+    <col min="7" max="7" width="19.7142857142857" style="14" customWidth="1"/>
     <col min="8" max="8" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.5714285714286" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.5714285714286" customWidth="1"/>
@@ -3404,58 +3348,58 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:13">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="71" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:13">
-      <c r="A2" s="65">
+      <c r="A2" s="63">
         <v>1</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="67"/>
       <c r="L2" t="s">
         <v>13</v>
       </c>
@@ -3464,22 +3408,22 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="65">
-        <f t="shared" ref="A3:A24" si="0">A2+1</f>
+      <c r="A3" s="63">
+        <f t="shared" ref="A3:A25" si="0">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="69" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="67" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -3496,24 +3440,24 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:13">
-      <c r="A4" s="65">
+      <c r="A4" s="63">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
       <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
@@ -3528,22 +3472,22 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:13">
-      <c r="A5" s="65">
+      <c r="A5" s="63">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="69" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="67" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -3560,22 +3504,22 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:13">
-      <c r="A6" s="65">
+      <c r="A6" s="63">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="69" t="s">
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="67" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -3592,22 +3536,22 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:13">
-      <c r="A7" s="65">
+      <c r="A7" s="63">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="71" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69" t="s">
+      <c r="F7" s="67"/>
+      <c r="G7" s="67" t="s">
         <v>40</v>
       </c>
       <c r="L7" t="s">
@@ -3618,22 +3562,22 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
-      <c r="A8" s="65">
+      <c r="A8" s="63">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="69" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="67" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -3650,22 +3594,22 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:13">
-      <c r="A9" s="65">
+      <c r="A9" s="63">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
       <c r="L9" t="s">
         <v>17</v>
       </c>
@@ -3674,66 +3618,66 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:13">
-      <c r="A10" s="65">
+      <c r="A10" s="63">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="L10" s="13" t="s">
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="L10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="65">
+      <c r="A11" s="63">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="71" t="s">
+      <c r="C11" s="67"/>
+      <c r="D11" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
     </row>
     <row r="12" customHeight="1" spans="1:13">
-      <c r="A12" s="65">
+      <c r="A12" s="63">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="69" t="s">
+      <c r="D12" s="68"/>
+      <c r="E12" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="67" t="s">
         <v>58</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -3750,22 +3694,22 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:13">
-      <c r="A13" s="65">
+      <c r="A13" s="63">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="69" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="69"/>
+      <c r="G13" s="67"/>
       <c r="L13" t="s">
         <v>62</v>
       </c>
@@ -3774,22 +3718,22 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:13">
-      <c r="A14" s="65">
+      <c r="A14" s="63">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="69" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="69"/>
+      <c r="G14" s="67"/>
       <c r="L14" t="s">
         <v>66</v>
       </c>
@@ -3798,22 +3742,22 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="65">
+      <c r="A15" s="63">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="69" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="67" t="s">
         <v>70</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -3824,42 +3768,42 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="65">
+      <c r="A16" s="63">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70" t="s">
+      <c r="C16" s="67"/>
+      <c r="D16" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="65">
+      <c r="A17" s="63">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="69" t="s">
+      <c r="D17" s="68"/>
+      <c r="E17" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="69" t="s">
+      <c r="G17" s="67" t="s">
         <v>76</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -3870,271 +3814,289 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="65">
+      <c r="A18" s="63">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="70" t="s">
+      <c r="C18" s="70"/>
+      <c r="D18" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="72" t="s">
+      <c r="F18" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="72"/>
+      <c r="G18" s="70"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="65">
+      <c r="A19" s="63">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="65">
+      <c r="A20" s="63">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="65">
+      <c r="A21" s="63">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
     </row>
     <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="65">
+      <c r="A22" s="63">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="70" t="s">
+      <c r="D22" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="69" t="s">
+      <c r="E22" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
     </row>
     <row r="23" customHeight="1" spans="1:7">
-      <c r="A23" s="65">
+      <c r="A23" s="63">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="69"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
     </row>
     <row r="24" customHeight="1" spans="1:7">
-      <c r="A24" s="65">
+      <c r="A24" s="63">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="67"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
+      <c r="A25" s="63">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:1">
-      <c r="A25" s="65"/>
+      <c r="C25" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="67"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
     </row>
     <row r="26" customHeight="1" spans="1:1">
-      <c r="A26" s="65"/>
+      <c r="A26" s="63"/>
     </row>
     <row r="27" customHeight="1" spans="1:1">
-      <c r="A27" s="65"/>
+      <c r="A27" s="63"/>
     </row>
     <row r="28" customHeight="1" spans="1:1">
-      <c r="A28" s="65"/>
+      <c r="A28" s="63"/>
     </row>
     <row r="29" customHeight="1" spans="1:1">
-      <c r="A29" s="65"/>
+      <c r="A29" s="63"/>
     </row>
     <row r="30" customHeight="1" spans="1:1">
-      <c r="A30" s="65"/>
+      <c r="A30" s="63"/>
     </row>
     <row r="31" customHeight="1" spans="1:1">
-      <c r="A31" s="65"/>
+      <c r="A31" s="63"/>
     </row>
     <row r="32" customHeight="1" spans="1:1">
-      <c r="A32" s="65"/>
+      <c r="A32" s="63"/>
     </row>
     <row r="33" customHeight="1" spans="1:1">
-      <c r="A33" s="65"/>
+      <c r="A33" s="63"/>
     </row>
     <row r="34" customHeight="1" spans="1:1">
-      <c r="A34" s="65"/>
+      <c r="A34" s="63"/>
     </row>
     <row r="35" customHeight="1" spans="1:1">
-      <c r="A35" s="65"/>
+      <c r="A35" s="63"/>
     </row>
     <row r="36" customHeight="1" spans="1:1">
-      <c r="A36" s="65"/>
+      <c r="A36" s="63"/>
     </row>
     <row r="37" customHeight="1" spans="1:1">
-      <c r="A37" s="65"/>
+      <c r="A37" s="63"/>
     </row>
     <row r="38" customHeight="1" spans="1:1">
-      <c r="A38" s="65"/>
+      <c r="A38" s="63"/>
     </row>
     <row r="39" customHeight="1" spans="1:1">
-      <c r="A39" s="65"/>
+      <c r="A39" s="63"/>
     </row>
     <row r="40" customHeight="1" spans="1:1">
-      <c r="A40" s="65"/>
+      <c r="A40" s="63"/>
     </row>
     <row r="41" customHeight="1" spans="1:1">
-      <c r="A41" s="65"/>
+      <c r="A41" s="63"/>
     </row>
     <row r="42" customHeight="1" spans="1:1">
-      <c r="A42" s="65"/>
+      <c r="A42" s="63"/>
     </row>
     <row r="43" customHeight="1" spans="1:1">
-      <c r="A43" s="65"/>
+      <c r="A43" s="63"/>
     </row>
     <row r="44" customHeight="1" spans="1:1">
-      <c r="A44" s="65"/>
+      <c r="A44" s="63"/>
     </row>
     <row r="45" customHeight="1" spans="1:1">
-      <c r="A45" s="65"/>
+      <c r="A45" s="63"/>
     </row>
     <row r="46" customHeight="1" spans="1:1">
-      <c r="A46" s="65"/>
+      <c r="A46" s="63"/>
     </row>
     <row r="47" customHeight="1" spans="1:1">
-      <c r="A47" s="65"/>
+      <c r="A47" s="63"/>
     </row>
     <row r="48" customHeight="1" spans="1:1">
-      <c r="A48" s="65"/>
+      <c r="A48" s="63"/>
     </row>
     <row r="49" customHeight="1" spans="1:1">
-      <c r="A49" s="65"/>
+      <c r="A49" s="63"/>
     </row>
     <row r="50" customHeight="1" spans="1:1">
-      <c r="A50" s="65"/>
+      <c r="A50" s="63"/>
     </row>
     <row r="51" customHeight="1" spans="1:1">
-      <c r="A51" s="65"/>
+      <c r="A51" s="63"/>
     </row>
     <row r="52" customHeight="1" spans="1:1">
-      <c r="A52" s="65"/>
+      <c r="A52" s="63"/>
     </row>
     <row r="53" customHeight="1" spans="1:1">
-      <c r="A53" s="65"/>
+      <c r="A53" s="63"/>
     </row>
     <row r="54" customHeight="1" spans="1:1">
-      <c r="A54" s="65"/>
+      <c r="A54" s="63"/>
     </row>
     <row r="55" customHeight="1" spans="1:1">
-      <c r="A55" s="65"/>
+      <c r="A55" s="63"/>
     </row>
     <row r="56" customHeight="1" spans="1:1">
-      <c r="A56" s="65"/>
+      <c r="A56" s="63"/>
     </row>
     <row r="57" customHeight="1" spans="1:1">
-      <c r="A57" s="65"/>
+      <c r="A57" s="63"/>
     </row>
     <row r="58" customHeight="1" spans="1:1">
-      <c r="A58" s="65"/>
+      <c r="A58" s="63"/>
     </row>
     <row r="59" customHeight="1" spans="1:1">
-      <c r="A59" s="65"/>
+      <c r="A59" s="63"/>
     </row>
     <row r="60" customHeight="1" spans="1:1">
-      <c r="A60" s="65"/>
+      <c r="A60" s="63"/>
     </row>
     <row r="61" customHeight="1" spans="1:1">
-      <c r="A61" s="65"/>
+      <c r="A61" s="63"/>
     </row>
     <row r="62" customHeight="1" spans="1:1">
-      <c r="A62" s="65"/>
+      <c r="A62" s="63"/>
     </row>
     <row r="63" customHeight="1" spans="1:1">
-      <c r="A63" s="65"/>
+      <c r="A63" s="63"/>
     </row>
     <row r="64" customHeight="1" spans="1:1">
-      <c r="A64" s="65"/>
+      <c r="A64" s="63"/>
     </row>
     <row r="65" customHeight="1" spans="1:1">
-      <c r="A65" s="65"/>
+      <c r="A65" s="63"/>
     </row>
     <row r="66" customHeight="1" spans="1:1">
-      <c r="A66" s="65"/>
+      <c r="A66" s="63"/>
     </row>
     <row r="67" customHeight="1" spans="1:1">
-      <c r="A67" s="65"/>
+      <c r="A67" s="63"/>
     </row>
     <row r="68" customHeight="1" spans="1:1">
-      <c r="A68" s="65"/>
+      <c r="A68" s="63"/>
     </row>
     <row r="69" customHeight="1" spans="1:1">
-      <c r="A69" s="65"/>
+      <c r="A69" s="63"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:1">
+      <c r="A70" s="63"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -4144,7 +4106,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10">
       <formula1>$L$2:$L$9</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 G2 I2 F17 G17 F18 G18 F19 G19 F20 G20 F21 G21 F22 G22 F23 G23 F24 G24 F3:F11 F12:F16 G3:G11 G12:G16 I3:I11 I12:I16"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 G2 I2 F17 G17 F18 G18 F19 G19 F20 G20 F21 G21 F22 G22 F23 G23 F24 G24 F25 G25 F3:F11 F12:F16 G3:G11 G12:G16 I3:I11 I12:I16"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11 E14 E15 E16 E17 E12:E13">
       <formula1>$L$2:$L$10</formula1>
     </dataValidation>
@@ -4171,7 +4133,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.4285714285714" defaultRowHeight="33" customHeight="1" outlineLevelCol="3"/>
@@ -4186,38 +4148,38 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="58"/>
+      <c r="B1" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" s="57" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A3" s="59">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" s="55" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A3" s="57">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="30">
         <v>44060</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="31">
         <v>110000</v>
       </c>
     </row>
@@ -4229,10 +4191,10 @@
       <c r="B4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="30">
         <v>44074</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="31">
         <v>485000</v>
       </c>
     </row>
@@ -4244,10 +4206,10 @@
       <c r="B5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="30">
         <v>44082</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="31">
         <v>750000</v>
       </c>
     </row>
@@ -4259,10 +4221,10 @@
       <c r="B6" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="30">
         <v>44102</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="31">
         <v>1000000</v>
       </c>
     </row>
@@ -4274,10 +4236,10 @@
       <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="30">
         <v>44109</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="31">
         <v>1000000</v>
       </c>
     </row>
@@ -4289,10 +4251,10 @@
       <c r="B8" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="30">
         <v>44122</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="31">
         <v>1150000</v>
       </c>
     </row>
@@ -4304,29 +4266,29 @@
       <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="30">
         <v>44133</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="31">
         <v>1050000</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:4">
-      <c r="C10" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="55">
+      <c r="C10" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="53">
         <f>SUM(D3:D9)</f>
         <v>5545000</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:4">
-      <c r="C11" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="62">
-        <f>D10-Item!F6-Stock!K20-Stock!K24-Stock!K28-Stock!K33-Stock!K38-Stock!K42-Stock!K48-Stock!K52-Stock!K62-Stock!K66</f>
-        <v>-470900</v>
+      <c r="C11" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="60">
+        <f>D10-Item!C6-Stock!K21-Stock!K25-Stock!K29-Stock!K34-Stock!K39-Stock!K43-Stock!K49-Stock!K53-Stock!K63-Stock!K67</f>
+        <v>-1130900</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +4299,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B4:B9">
-      <formula1>Supllier!$C$19:$C$24</formula1>
+      <formula1>Supllier!$C$19:$C$25</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4349,15 +4311,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30.95" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30.95" customHeight="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
     <col min="2" max="2" width="32.1428571428571" customWidth="1"/>
@@ -4369,466 +4331,487 @@
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="50" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A1" s="51" t="s">
+    <row r="1" customHeight="1" spans="2:3">
+      <c r="B1" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:3">
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="2:3">
+      <c r="B3" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="51">
+        <f>Stock!G13*Stock!I13+Stock!G14*Stock!I14+Stock!G15*Stock!I15+Stock!G45*Stock!I45+Stock!G59*Stock!I59</f>
+        <v>2026000</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:3">
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="31">
+        <f>Stock!G16*Stock!I16+Stock!G23*Stock!I23+Stock!G27*Stock!I27+Stock!G31*Stock!I31+Stock!G36*Stock!I36+Stock!G41*Stock!I41+Stock!G46*Stock!I46+Stock!G51*Stock!I51+Stock!G60*Stock!I60+Stock!G65*Stock!I65</f>
+        <v>2778400</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:3">
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="31">
+        <f>Stock!G17*Stock!I17+Stock!G18*Stock!I18+Stock!G19*Stock!I19</f>
+        <v>1552500</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:3">
+      <c r="B6" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM(C3:C5)</f>
+        <v>6356900</v>
+      </c>
+    </row>
+    <row r="7" ht="10" customHeight="1"/>
+    <row r="8" s="48" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A8" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="51"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="1">
-        <f t="shared" ref="A3:A19" si="0">A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="53">
-        <f>Stock!G13*Stock!I13+Stock!G14*Stock!I14+Stock!G15*Stock!I15+Stock!G44*Stock!I44+Stock!G58*Stock!I58</f>
-        <v>2026000</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B8" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="33">
-        <f>Stock!G16*Stock!I16+Stock!G22*Stock!I22+Stock!G26*Stock!I26+Stock!G30*Stock!I30+Stock!G35*Stock!I35+Stock!G40*Stock!I40+Stock!G45*Stock!I45+Stock!G50*Stock!I50+Stock!G59*Stock!I59+Stock!G64*Stock!I64</f>
-        <v>2778400</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C8" s="49" t="s">
         <v>107</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="33">
-        <f>Stock!G17*Stock!I17+Stock!G18*Stock!I18</f>
-        <v>922500</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="55">
-        <f>SUM(F3:F5)</f>
-        <v>5726900</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" ref="A10:A26" si="0">A9+1</f>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" customHeight="1" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" customHeight="1" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:3">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:3">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:3">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="3:3">
-      <c r="C20" s="56"/>
-    </row>
-    <row r="21" customHeight="1" spans="3:3">
-      <c r="C21" s="56"/>
-    </row>
-    <row r="22" customHeight="1" spans="3:3">
-      <c r="C22" s="56"/>
-    </row>
-    <row r="23" customHeight="1" spans="3:3">
-      <c r="C23" s="56"/>
-    </row>
-    <row r="24" customHeight="1" spans="3:3">
-      <c r="C24" s="56"/>
-    </row>
-    <row r="25" customHeight="1" spans="3:3">
-      <c r="C25" s="56"/>
-    </row>
-    <row r="26" customHeight="1" spans="3:3">
-      <c r="C26" s="56"/>
-    </row>
-    <row r="27" customHeight="1" spans="3:3">
-      <c r="C27" s="56"/>
+    <row r="27" customHeight="1" spans="1:3">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28" customHeight="1" spans="3:3">
-      <c r="C28" s="56"/>
+      <c r="C28" s="54"/>
     </row>
     <row r="29" customHeight="1" spans="3:3">
-      <c r="C29" s="56"/>
+      <c r="C29" s="54"/>
     </row>
     <row r="30" customHeight="1" spans="3:3">
-      <c r="C30" s="56"/>
+      <c r="C30" s="54"/>
     </row>
     <row r="31" customHeight="1" spans="3:3">
-      <c r="C31" s="56"/>
+      <c r="C31" s="54"/>
     </row>
     <row r="32" customHeight="1" spans="3:3">
-      <c r="C32" s="56"/>
+      <c r="C32" s="54"/>
     </row>
     <row r="33" customHeight="1" spans="3:3">
-      <c r="C33" s="56"/>
+      <c r="C33" s="54"/>
     </row>
     <row r="34" customHeight="1" spans="3:3">
-      <c r="C34" s="56"/>
+      <c r="C34" s="54"/>
     </row>
     <row r="35" customHeight="1" spans="3:3">
-      <c r="C35" s="56"/>
+      <c r="C35" s="54"/>
     </row>
     <row r="36" customHeight="1" spans="3:3">
-      <c r="C36" s="56"/>
+      <c r="C36" s="54"/>
     </row>
     <row r="37" customHeight="1" spans="3:3">
-      <c r="C37" s="56"/>
+      <c r="C37" s="54"/>
     </row>
     <row r="38" customHeight="1" spans="3:3">
-      <c r="C38" s="56"/>
+      <c r="C38" s="54"/>
     </row>
     <row r="39" customHeight="1" spans="3:3">
-      <c r="C39" s="56"/>
+      <c r="C39" s="54"/>
     </row>
     <row r="40" customHeight="1" spans="3:3">
-      <c r="C40" s="56"/>
+      <c r="C40" s="54"/>
     </row>
     <row r="41" customHeight="1" spans="3:3">
-      <c r="C41" s="56"/>
+      <c r="C41" s="54"/>
     </row>
     <row r="42" customHeight="1" spans="3:3">
-      <c r="C42" s="56"/>
+      <c r="C42" s="54"/>
     </row>
     <row r="43" customHeight="1" spans="3:3">
-      <c r="C43" s="56"/>
+      <c r="C43" s="54"/>
     </row>
     <row r="44" customHeight="1" spans="3:3">
-      <c r="C44" s="56"/>
+      <c r="C44" s="54"/>
     </row>
     <row r="45" customHeight="1" spans="3:3">
-      <c r="C45" s="56"/>
+      <c r="C45" s="54"/>
     </row>
     <row r="46" customHeight="1" spans="3:3">
-      <c r="C46" s="56"/>
+      <c r="C46" s="54"/>
     </row>
     <row r="47" customHeight="1" spans="3:3">
-      <c r="C47" s="56"/>
+      <c r="C47" s="54"/>
     </row>
     <row r="48" customHeight="1" spans="3:3">
-      <c r="C48" s="56"/>
+      <c r="C48" s="54"/>
     </row>
     <row r="49" customHeight="1" spans="3:3">
-      <c r="C49" s="56"/>
+      <c r="C49" s="54"/>
     </row>
     <row r="50" customHeight="1" spans="3:3">
-      <c r="C50" s="56"/>
+      <c r="C50" s="54"/>
     </row>
     <row r="51" customHeight="1" spans="3:3">
-      <c r="C51" s="56"/>
+      <c r="C51" s="54"/>
     </row>
     <row r="52" customHeight="1" spans="3:3">
-      <c r="C52" s="56"/>
+      <c r="C52" s="54"/>
     </row>
     <row r="53" customHeight="1" spans="3:3">
-      <c r="C53" s="56"/>
+      <c r="C53" s="54"/>
     </row>
     <row r="54" customHeight="1" spans="3:3">
-      <c r="C54" s="56"/>
+      <c r="C54" s="54"/>
     </row>
     <row r="55" customHeight="1" spans="3:3">
-      <c r="C55" s="56"/>
+      <c r="C55" s="54"/>
     </row>
     <row r="56" customHeight="1" spans="3:3">
-      <c r="C56" s="56"/>
+      <c r="C56" s="54"/>
     </row>
     <row r="57" customHeight="1" spans="3:3">
-      <c r="C57" s="56"/>
+      <c r="C57" s="54"/>
     </row>
     <row r="58" customHeight="1" spans="3:3">
-      <c r="C58" s="56"/>
+      <c r="C58" s="54"/>
     </row>
     <row r="59" customHeight="1" spans="3:3">
-      <c r="C59" s="56"/>
+      <c r="C59" s="54"/>
     </row>
     <row r="60" customHeight="1" spans="3:3">
-      <c r="C60" s="56"/>
+      <c r="C60" s="54"/>
     </row>
     <row r="61" customHeight="1" spans="3:3">
-      <c r="C61" s="56"/>
+      <c r="C61" s="54"/>
     </row>
     <row r="62" customHeight="1" spans="3:3">
-      <c r="C62" s="56"/>
+      <c r="C62" s="54"/>
     </row>
     <row r="63" customHeight="1" spans="3:3">
-      <c r="C63" s="56"/>
+      <c r="C63" s="54"/>
     </row>
     <row r="64" customHeight="1" spans="3:3">
-      <c r="C64" s="56"/>
+      <c r="C64" s="54"/>
     </row>
     <row r="65" customHeight="1" spans="3:3">
-      <c r="C65" s="56"/>
+      <c r="C65" s="54"/>
     </row>
     <row r="66" customHeight="1" spans="3:3">
-      <c r="C66" s="56"/>
+      <c r="C66" s="54"/>
     </row>
     <row r="67" customHeight="1" spans="3:3">
-      <c r="C67" s="56"/>
+      <c r="C67" s="54"/>
     </row>
     <row r="68" customHeight="1" spans="3:3">
-      <c r="C68" s="56"/>
+      <c r="C68" s="54"/>
     </row>
     <row r="69" customHeight="1" spans="3:3">
-      <c r="C69" s="56"/>
+      <c r="C69" s="54"/>
     </row>
     <row r="70" customHeight="1" spans="3:3">
-      <c r="C70" s="56"/>
+      <c r="C70" s="54"/>
     </row>
     <row r="71" customHeight="1" spans="3:3">
-      <c r="C71" s="56"/>
+      <c r="C71" s="54"/>
     </row>
     <row r="72" customHeight="1" spans="3:3">
-      <c r="C72" s="56"/>
+      <c r="C72" s="54"/>
     </row>
     <row r="73" customHeight="1" spans="3:3">
-      <c r="C73" s="56"/>
+      <c r="C73" s="54"/>
     </row>
     <row r="74" customHeight="1" spans="3:3">
-      <c r="C74" s="56"/>
+      <c r="C74" s="54"/>
     </row>
     <row r="75" customHeight="1" spans="3:3">
-      <c r="C75" s="56"/>
+      <c r="C75" s="54"/>
     </row>
     <row r="76" customHeight="1" spans="3:3">
-      <c r="C76" s="56"/>
+      <c r="C76" s="54"/>
     </row>
     <row r="77" customHeight="1" spans="3:3">
-      <c r="C77" s="56"/>
+      <c r="C77" s="54"/>
     </row>
     <row r="78" customHeight="1" spans="3:3">
-      <c r="C78" s="56"/>
+      <c r="C78" s="54"/>
     </row>
     <row r="79" customHeight="1" spans="3:3">
-      <c r="C79" s="56"/>
+      <c r="C79" s="54"/>
     </row>
     <row r="80" customHeight="1" spans="3:3">
-      <c r="C80" s="56"/>
+      <c r="C80" s="54"/>
     </row>
     <row r="81" customHeight="1" spans="3:3">
-      <c r="C81" s="56"/>
+      <c r="C81" s="54"/>
+    </row>
+    <row r="82" customHeight="1" spans="3:3">
+      <c r="C82" s="54"/>
+    </row>
+    <row r="83" customHeight="1" spans="3:3">
+      <c r="C83" s="54"/>
+    </row>
+    <row r="84" customHeight="1" spans="3:3">
+      <c r="C84" s="54"/>
+    </row>
+    <row r="85" customHeight="1" spans="3:3">
+      <c r="C85" s="54"/>
+    </row>
+    <row r="86" customHeight="1" spans="3:3">
+      <c r="C86" s="54"/>
+    </row>
+    <row r="87" customHeight="1" spans="3:3">
+      <c r="C87" s="54"/>
+    </row>
+    <row r="88" customHeight="1" spans="3:3">
+      <c r="C88" s="54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C17">
+  <autoFilter ref="A8:C26">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C3:C8">
-      <formula1>Supllier!$C$19:$C$24</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C10:C15">
+      <formula1>Supllier!$C$19:$C$25</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4840,12 +4823,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA92"/>
+  <dimension ref="A1:AA96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="29.1" customHeight="1"/>
@@ -4871,193 +4854,193 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="2:18">
-      <c r="B1" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="Q1" s="46" t="s">
+      <c r="D1" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="R1" s="47"/>
-    </row>
-    <row r="2" customHeight="1" spans="2:18">
-      <c r="B2" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="19">
+      <c r="G1" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="Q1" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" s="45"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="2:18">
+      <c r="B2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="17">
         <v>20</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q2" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" s="46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="2:18">
+      <c r="B3" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="17">
+        <v>144</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="R3" s="5">
+        <f>G32*I32+G37*I37+G55*I55+G61*I61+G69*I69+G73*I73+G77*I77+G81*I81+G86*I86+G47*I47+G82*I82+G90*I90</f>
+        <v>2197040</v>
+      </c>
+    </row>
+    <row r="4" ht="19" customHeight="1" spans="2:18">
+      <c r="B4" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="17">
+        <v>15</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" ht="17" customHeight="1" spans="2:8">
+      <c r="B5" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="17">
+        <v>500</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" ht="19" customHeight="1" spans="2:8">
+      <c r="B6" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" ht="17" customHeight="1" spans="2:4">
+      <c r="B7" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" ht="19" customHeight="1" spans="2:4">
+      <c r="B8" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" ht="19" customHeight="1" spans="2:4">
+      <c r="B9" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" ht="7" customHeight="1"/>
+    <row r="11" s="15" customFormat="1" customHeight="1" spans="1:27">
+      <c r="A11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q2" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="R2" s="48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="2:18">
-      <c r="B3" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="19">
-        <v>144</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q3" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="R3" s="6">
-        <f>G31*I31+G36*I36+G54*I54+G60*I60+G68*I68+G72*I72+G76*I76+G80*I80+G85*I85+G46*I46+G81*I81+G89*I89</f>
-        <v>2197040</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="2:18">
-      <c r="B4" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="19">
-        <v>15</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" customHeight="1" spans="2:8">
-      <c r="B5" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="19">
-        <v>500</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:8">
-      <c r="B6" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="F6" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:4">
-      <c r="B7" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" customHeight="1" spans="2:4">
-      <c r="B8" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" customHeight="1" spans="2:4">
-      <c r="B9" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" ht="7" customHeight="1"/>
-    <row r="11" s="17" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A11" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23" t="s">
+      <c r="E11" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
+      <c r="F11" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
@@ -5070,39 +5053,39 @@
       <c r="Z11"/>
       <c r="AA11"/>
     </row>
-    <row r="12" s="18" customFormat="1" customHeight="1" spans="1:27">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
+    <row r="12" s="16" customFormat="1" customHeight="1" spans="1:27">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" s="21"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
@@ -5115,1918 +5098,2025 @@
       <c r="Z12"/>
       <c r="AA12"/>
     </row>
-    <row r="13" s="19" customFormat="1" ht="36" customHeight="1" spans="1:14">
-      <c r="A13" s="25">
+    <row r="13" s="17" customFormat="1" ht="36" customHeight="1" spans="1:14">
+      <c r="A13" s="23">
         <v>1</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E13" s="26" t="s">
+      <c r="B13" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="25">
         <v>44050</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="26">
         <v>23000</v>
       </c>
-      <c r="H13" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="28">
+      <c r="H13" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="26">
         <v>14</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="36">
         <v>500</v>
       </c>
-      <c r="K13" s="28">
-        <f t="shared" ref="K13:K18" si="0">J13*I13</f>
+      <c r="K13" s="26">
+        <f t="shared" ref="K13:K19" si="0">J13*I13</f>
         <v>7000</v>
       </c>
-      <c r="L13" s="39">
-        <f t="shared" ref="L13:L18" si="1">N13-G13-J13</f>
+      <c r="L13" s="37">
+        <f t="shared" ref="L13:L19" si="1">N13-G13-J13</f>
         <v>500</v>
       </c>
-      <c r="M13" s="28">
-        <f t="shared" ref="M13:M18" si="2">L13*I13</f>
+      <c r="M13" s="26">
+        <f t="shared" ref="M13:M19" si="2">L13*I13</f>
         <v>7000</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="26">
         <v>24000</v>
       </c>
     </row>
-    <row r="14" s="19" customFormat="1" ht="36" customHeight="1" spans="1:14">
-      <c r="A14" s="25">
-        <f t="shared" ref="A14:A18" si="3">A13+1</f>
+    <row r="14" s="17" customFormat="1" ht="36" customHeight="1" spans="1:14">
+      <c r="A14" s="23">
+        <f t="shared" ref="A14:A19" si="3">A13+1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="26" t="s">
+      <c r="B14" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="25">
         <v>44052</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="26">
         <v>23500</v>
       </c>
-      <c r="H14" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I14" s="28">
+      <c r="H14" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="26">
         <v>30</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="36">
         <v>1500</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="26">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="37">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="26">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="26">
         <v>26000</v>
       </c>
     </row>
-    <row r="15" s="19" customFormat="1" ht="36" customHeight="1" spans="1:14">
-      <c r="A15" s="25">
+    <row r="15" s="17" customFormat="1" ht="36" customHeight="1" spans="1:14">
+      <c r="A15" s="23">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="26" t="s">
+      <c r="B15" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="25">
         <v>44063</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="26">
         <v>23500</v>
       </c>
-      <c r="H15" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" s="28">
+      <c r="H15" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="26">
         <v>30</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="36">
         <v>500</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="26">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="37">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="26">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="26">
         <v>25000</v>
       </c>
     </row>
-    <row r="16" s="19" customFormat="1" ht="36" customHeight="1" spans="1:14">
-      <c r="A16" s="25">
+    <row r="16" s="17" customFormat="1" ht="36" customHeight="1" spans="1:14">
+      <c r="A16" s="23">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="26" t="s">
+      <c r="B16" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="25">
         <v>44082</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="26">
         <v>22500</v>
       </c>
-      <c r="H16" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I16" s="28">
+      <c r="H16" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="26">
         <v>30</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="36">
         <v>500</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="26">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="37">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="26">
         <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="26">
         <v>24000</v>
       </c>
     </row>
-    <row r="17" s="19" customFormat="1" ht="36" customHeight="1" spans="1:14">
-      <c r="A17" s="25">
+    <row r="17" s="17" customFormat="1" ht="36" customHeight="1" spans="1:14">
+      <c r="A17" s="23">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="26" t="s">
+      <c r="B17" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="25">
         <v>44106</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="26">
         <v>18500</v>
       </c>
-      <c r="H17" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="28">
+      <c r="H17" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="26">
         <v>15</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="36">
         <v>2000</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="26">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="37">
         <f t="shared" si="1"/>
         <v>3500</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="26">
         <f t="shared" si="2"/>
         <v>52500</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="26">
         <v>24000</v>
       </c>
     </row>
-    <row r="18" s="19" customFormat="1" ht="36" customHeight="1" spans="1:14">
-      <c r="A18" s="25">
+    <row r="18" s="17" customFormat="1" ht="36" customHeight="1" spans="1:14">
+      <c r="A18" s="23">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="26" t="s">
+      <c r="B18" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="25">
         <v>44128</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="26">
         <v>21500</v>
       </c>
-      <c r="H18" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" s="28">
+      <c r="H18" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="26">
         <v>30</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="36">
         <v>1000</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="26">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="L18" s="39">
+      <c r="L18" s="37">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="26">
         <f t="shared" si="2"/>
         <v>45000</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="26">
         <v>24000</v>
       </c>
     </row>
-    <row r="19" s="19" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A19" s="25"/>
-      <c r="E19" s="29"/>
-      <c r="J19" s="40"/>
-      <c r="L19" s="41"/>
-    </row>
-    <row r="20" s="19" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A20" s="25"/>
-      <c r="E20" s="29"/>
-      <c r="J20" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" s="43">
-        <f>SUM(K13:K19)</f>
-        <v>142000</v>
-      </c>
-      <c r="L20" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" s="43">
-        <f>SUM(M13:M19)</f>
-        <v>194500</v>
-      </c>
-    </row>
-    <row r="21" ht="6" customHeight="1" spans="5:5">
-      <c r="E21" s="30"/>
-    </row>
-    <row r="22" s="19" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A22" s="25">
+    <row r="19" s="17" customFormat="1" ht="36" customHeight="1" spans="1:14">
+      <c r="A19" s="23">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="25">
+        <v>44134</v>
+      </c>
+      <c r="G19" s="26">
+        <v>21000</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="26">
+        <v>30</v>
+      </c>
+      <c r="J19" s="36">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="26">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="L19" s="37">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="M19" s="26">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+      <c r="N19" s="26">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="20" s="17" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A20" s="23"/>
+      <c r="E20" s="27"/>
+      <c r="J20" s="38"/>
+      <c r="L20" s="39"/>
+    </row>
+    <row r="21" s="17" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A21" s="23"/>
+      <c r="E21" s="27"/>
+      <c r="J21" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="41">
+        <f>SUM(K13:K20)</f>
+        <v>172000</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M21" s="41">
+        <f>SUM(M13:M20)</f>
+        <v>254500</v>
+      </c>
+    </row>
+    <row r="22" ht="6" customHeight="1" spans="5:5">
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" s="17" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A23" s="23">
         <v>1</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="26" t="s">
+      <c r="B23" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F23" s="25">
         <v>44082</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G23" s="26">
         <v>22900</v>
       </c>
-      <c r="H22" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="I22" s="28">
+      <c r="H23" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" s="26">
         <v>24</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J23" s="36">
         <v>1000</v>
       </c>
-      <c r="K22" s="28">
-        <f>J22*I22</f>
+      <c r="K23" s="26">
+        <f>J23*I23</f>
         <v>24000</v>
       </c>
-      <c r="L22" s="39">
-        <f>N22-G22-J22</f>
+      <c r="L23" s="37">
+        <f>N23-G23-J23</f>
         <v>1100</v>
       </c>
-      <c r="M22" s="28">
-        <f>L22*I22</f>
+      <c r="M23" s="26">
+        <f>L23*I23</f>
         <v>26400</v>
       </c>
-      <c r="N22" s="28">
+      <c r="N23" s="26">
         <v>25000</v>
       </c>
     </row>
-    <row r="23" s="19" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A23" s="25"/>
-      <c r="E23" s="29"/>
-      <c r="J23" s="40"/>
-      <c r="L23" s="41"/>
-    </row>
-    <row r="24" s="19" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A24" s="25"/>
-      <c r="E24" s="29"/>
-      <c r="J24" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K24" s="43">
-        <f>SUM(K22:K23)</f>
+    <row r="24" s="17" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A24" s="23"/>
+      <c r="E24" s="27"/>
+      <c r="J24" s="38"/>
+      <c r="L24" s="39"/>
+    </row>
+    <row r="25" s="17" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A25" s="23"/>
+      <c r="E25" s="27"/>
+      <c r="J25" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="41">
+        <f>SUM(K23:K24)</f>
         <v>24000</v>
       </c>
-      <c r="L24" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M24" s="43">
-        <f>SUM(M22:M23)</f>
+      <c r="L25" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M25" s="41">
+        <f>SUM(M23:M24)</f>
         <v>26400</v>
       </c>
     </row>
-    <row r="25" ht="6.95" customHeight="1" spans="1:5">
-      <c r="A25" s="31"/>
-      <c r="E25" s="30"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:14">
-      <c r="A26" s="31">
+    <row r="26" ht="6.95" customHeight="1" spans="1:5">
+      <c r="A26" s="29"/>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:14">
+      <c r="A27" s="29">
         <v>1</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="26" t="s">
+      <c r="B27" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F27" s="30">
         <v>44082</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G27" s="31">
         <v>11600</v>
       </c>
-      <c r="H26" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I26">
+      <c r="H27" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="I27">
         <v>12</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J27" s="42">
         <v>1000</v>
       </c>
-      <c r="K26" s="28">
-        <f t="shared" ref="K26:K31" si="4">J26*I26</f>
+      <c r="K27" s="26">
+        <f t="shared" ref="K27:K32" si="4">J27*I27</f>
         <v>12000</v>
       </c>
-      <c r="L26" s="39">
-        <f>N26-G26-J26</f>
+      <c r="L27" s="37">
+        <f>N27-G27-J27</f>
         <v>1400</v>
       </c>
-      <c r="M26" s="28">
-        <f>L26*I26</f>
+      <c r="M27" s="26">
+        <f>L27*I27</f>
         <v>16800</v>
       </c>
-      <c r="N26" s="33">
+      <c r="N27" s="31">
         <v>14000</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:13">
-      <c r="A27" s="31"/>
-      <c r="E27" s="30"/>
-      <c r="H27" s="34"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="19"/>
-    </row>
     <row r="28" customHeight="1" spans="1:13">
-      <c r="A28" s="31"/>
-      <c r="E28" s="30"/>
-      <c r="H28" s="34"/>
-      <c r="J28" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K28" s="43">
-        <f>SUM(K26:K27)</f>
+      <c r="A28" s="29"/>
+      <c r="E28" s="28"/>
+      <c r="H28" s="32"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="17"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:13">
+      <c r="A29" s="29"/>
+      <c r="E29" s="28"/>
+      <c r="H29" s="32"/>
+      <c r="J29" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="41">
+        <f>SUM(K27:K28)</f>
         <v>12000</v>
       </c>
-      <c r="L28" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M28" s="43">
-        <f>SUM(M26:M27)</f>
+      <c r="L29" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M29" s="41">
+        <f>SUM(M27:M28)</f>
         <v>16800</v>
       </c>
     </row>
-    <row r="29" ht="8.1" customHeight="1" spans="1:5">
-      <c r="A29" s="31"/>
-      <c r="E29" s="30"/>
-    </row>
-    <row r="30" ht="44.1" customHeight="1" spans="1:14">
-      <c r="A30" s="31">
+    <row r="30" ht="8.1" customHeight="1" spans="1:5">
+      <c r="A30" s="29"/>
+      <c r="E30" s="28"/>
+    </row>
+    <row r="31" ht="44.1" customHeight="1" spans="1:14">
+      <c r="A31" s="29">
         <v>1</v>
       </c>
-      <c r="B30" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="26" t="s">
+      <c r="B31" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F31" s="30">
         <v>44082</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G31" s="31">
         <v>9000</v>
       </c>
-      <c r="H30" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I30">
+      <c r="H31" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31">
         <v>12</v>
       </c>
-      <c r="J30" s="44">
+      <c r="J31" s="42">
         <v>1000</v>
       </c>
-      <c r="K30" s="28">
+      <c r="K31" s="26">
         <f t="shared" si="4"/>
         <v>12000</v>
       </c>
-      <c r="L30" s="39">
-        <f>N30-G30-J30</f>
+      <c r="L31" s="37">
+        <f>N31-G31-J31</f>
         <v>1000</v>
       </c>
-      <c r="M30" s="28">
-        <f>L30*I30</f>
+      <c r="M31" s="26">
+        <f>L31*I31</f>
         <v>12000</v>
       </c>
-      <c r="N30" s="33">
+      <c r="N31" s="31">
         <v>11000</v>
       </c>
     </row>
-    <row r="31" ht="44.1" customHeight="1" spans="1:14">
-      <c r="A31" s="31">
-        <f>A30+1</f>
+    <row r="32" ht="44.1" customHeight="1" spans="1:14">
+      <c r="A32" s="29">
+        <f>A31+1</f>
         <v>2</v>
       </c>
-      <c r="B31" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="26" t="s">
+      <c r="B32" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F32" s="30">
         <v>44130</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G32" s="31">
         <v>9170</v>
       </c>
-      <c r="H31" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I31">
+      <c r="H32" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="I32">
         <v>12</v>
       </c>
-      <c r="J31" s="44">
+      <c r="J32" s="42">
         <v>0</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K32" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L31" s="39">
-        <f>N31-G31-J31</f>
+      <c r="L32" s="37">
+        <f>N32-G32-J32</f>
         <v>1830</v>
       </c>
-      <c r="M31" s="28">
-        <f>L31*I31</f>
+      <c r="M32" s="26">
+        <f>L32*I32</f>
         <v>21960</v>
       </c>
-      <c r="N31" s="33">
+      <c r="N32" s="31">
         <v>11000</v>
       </c>
     </row>
-    <row r="32" ht="27.95" customHeight="1" spans="1:14">
-      <c r="A32" s="31"/>
-      <c r="B32" s="35"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="33"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:13">
-      <c r="A33" s="31"/>
-      <c r="E33" s="30"/>
-      <c r="J33" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K33" s="43">
-        <f>SUM(K30:K32)</f>
+    <row r="33" ht="27.95" customHeight="1" spans="1:14">
+      <c r="A33" s="29"/>
+      <c r="B33" s="33"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="32"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="31"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:13">
+      <c r="A34" s="29"/>
+      <c r="E34" s="28"/>
+      <c r="J34" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" s="41">
+        <f>SUM(K31:K33)</f>
         <v>12000</v>
       </c>
-      <c r="L33" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M33" s="43">
-        <f>SUM(M30:M32)</f>
+      <c r="L34" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M34" s="41">
+        <f>SUM(M31:M33)</f>
         <v>33960</v>
       </c>
     </row>
-    <row r="34" ht="6" customHeight="1" spans="1:5">
-      <c r="A34" s="31"/>
-      <c r="E34" s="30"/>
-    </row>
-    <row r="35" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A35" s="31">
+    <row r="35" ht="6" customHeight="1" spans="1:5">
+      <c r="A35" s="29"/>
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A36" s="29">
         <v>1</v>
       </c>
-      <c r="B35" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" s="26" t="s">
+      <c r="B36" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F36" s="30">
         <v>44082</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G36" s="31">
         <v>19800</v>
       </c>
-      <c r="H35" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I35">
-        <v>12</v>
-      </c>
-      <c r="J35" s="44">
-        <v>1000</v>
-      </c>
-      <c r="K35" s="28">
-        <f>J35*I35</f>
-        <v>12000</v>
-      </c>
-      <c r="L35" s="39">
-        <f>N35-G35-J35</f>
-        <v>1200</v>
-      </c>
-      <c r="M35" s="28">
-        <f>L35*I35</f>
-        <v>14400</v>
-      </c>
-      <c r="N35" s="33">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="36" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A36" s="31">
-        <f>A35+1</f>
-        <v>2</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" s="32">
-        <v>44130</v>
-      </c>
-      <c r="G36" s="33">
-        <v>19500</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>148</v>
+      <c r="H36" s="32" t="s">
+        <v>151</v>
       </c>
       <c r="I36">
         <v>12</v>
       </c>
-      <c r="J36" s="44">
+      <c r="J36" s="42">
+        <v>1000</v>
+      </c>
+      <c r="K36" s="26">
+        <f>J36*I36</f>
+        <v>12000</v>
+      </c>
+      <c r="L36" s="37">
+        <f>N36-G36-J36</f>
+        <v>1200</v>
+      </c>
+      <c r="M36" s="26">
+        <f>L36*I36</f>
+        <v>14400</v>
+      </c>
+      <c r="N36" s="31">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="37" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A37" s="29">
+        <f>A36+1</f>
+        <v>2</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="30">
+        <v>44130</v>
+      </c>
+      <c r="G37" s="31">
+        <v>19500</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="I37">
+        <v>12</v>
+      </c>
+      <c r="J37" s="42">
         <v>0</v>
       </c>
-      <c r="K36" s="28">
+      <c r="K37" s="26">
         <v>0</v>
       </c>
-      <c r="L36" s="39">
-        <f>N36-G36-J36</f>
+      <c r="L37" s="37">
+        <f>N37-G37-J37</f>
         <v>2500</v>
       </c>
-      <c r="M36" s="28">
-        <f>L36*I36</f>
+      <c r="M37" s="26">
+        <f>L37*I37</f>
         <v>30000</v>
       </c>
-      <c r="N36" s="33">
+      <c r="N37" s="31">
         <v>22000</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:13">
-      <c r="A37" s="31"/>
-      <c r="E37" s="30"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="28"/>
-    </row>
     <row r="38" customHeight="1" spans="1:13">
-      <c r="A38" s="31"/>
-      <c r="E38" s="30"/>
-      <c r="J38" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K38" s="43">
-        <f>SUM(K35:K37)</f>
+      <c r="A38" s="29"/>
+      <c r="E38" s="28"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="26"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:13">
+      <c r="A39" s="29"/>
+      <c r="E39" s="28"/>
+      <c r="J39" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="41">
+        <f>SUM(K36:K38)</f>
         <v>12000</v>
       </c>
-      <c r="L38" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M38" s="43">
-        <f>SUM(M35:M37)</f>
+      <c r="L39" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M39" s="41">
+        <f>SUM(M36:M38)</f>
         <v>44400</v>
       </c>
     </row>
-    <row r="39" ht="6" customHeight="1" spans="1:5">
-      <c r="A39" s="31"/>
-      <c r="E39" s="30"/>
-    </row>
-    <row r="40" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A40" s="31">
+    <row r="40" ht="6" customHeight="1" spans="1:5">
+      <c r="A40" s="29"/>
+      <c r="E40" s="28"/>
+    </row>
+    <row r="41" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A41" s="29">
         <v>1</v>
       </c>
-      <c r="B40" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="26" t="s">
+      <c r="B41" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F40" s="32">
+      <c r="F41" s="30">
         <v>44082</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G41" s="31">
         <v>8700</v>
       </c>
-      <c r="H40" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I40">
+      <c r="H41" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="I41">
         <v>30</v>
       </c>
-      <c r="J40" s="44">
+      <c r="J41" s="42">
         <v>300</v>
       </c>
-      <c r="K40" s="28">
-        <f t="shared" ref="K40:K46" si="5">J40*I40</f>
+      <c r="K41" s="26">
+        <f t="shared" ref="K41:K47" si="5">J41*I41</f>
         <v>9000</v>
       </c>
-      <c r="L40" s="39">
-        <f t="shared" ref="L40:L46" si="6">N40-G40-J40</f>
+      <c r="L41" s="37">
+        <f t="shared" ref="L41:L47" si="6">N41-G41-J41</f>
         <v>500</v>
       </c>
-      <c r="M40" s="28">
-        <f t="shared" ref="M40:M46" si="7">L40*I40</f>
+      <c r="M41" s="26">
+        <f t="shared" ref="M41:M47" si="7">L41*I41</f>
         <v>15000</v>
       </c>
-      <c r="N40" s="33">
+      <c r="N41" s="31">
         <v>9500</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:13">
-      <c r="A41" s="31"/>
-      <c r="E41" s="30"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="28"/>
-    </row>
     <row r="42" customHeight="1" spans="1:13">
-      <c r="A42" s="31"/>
-      <c r="E42" s="30"/>
-      <c r="J42" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K42" s="43">
-        <f>SUM(K39:K41)</f>
+      <c r="A42" s="29"/>
+      <c r="E42" s="28"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="26"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:13">
+      <c r="A43" s="29"/>
+      <c r="E43" s="28"/>
+      <c r="J43" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K43" s="41">
+        <f>SUM(K40:K42)</f>
         <v>9000</v>
       </c>
-      <c r="L42" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M42" s="43">
-        <f>SUM(M39:M41)</f>
+      <c r="L43" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M43" s="41">
+        <f>SUM(M40:M42)</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="43" ht="6" customHeight="1" spans="1:5">
-      <c r="A43" s="31"/>
-      <c r="E43" s="30"/>
-    </row>
-    <row r="44" ht="30" customHeight="1" spans="1:14">
-      <c r="A44" s="31">
+    <row r="44" ht="6" customHeight="1" spans="1:5">
+      <c r="A44" s="29"/>
+      <c r="E44" s="28"/>
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="1:14">
+      <c r="A45" s="29">
         <v>1</v>
       </c>
-      <c r="B44" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="32">
+      <c r="B45" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" s="30">
         <v>44063</v>
       </c>
-      <c r="G44" s="33">
+      <c r="G45" s="31">
         <v>19500</v>
       </c>
-      <c r="H44" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="I44">
+      <c r="H45" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I45">
         <v>10</v>
       </c>
-      <c r="J44" s="44">
+      <c r="J45" s="42">
         <v>1500</v>
       </c>
-      <c r="K44" s="28">
+      <c r="K45" s="26">
         <f t="shared" si="5"/>
         <v>15000</v>
       </c>
-      <c r="L44" s="39">
+      <c r="L45" s="37">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="M44" s="28">
+      <c r="M45" s="26">
         <f t="shared" si="7"/>
         <v>20000</v>
       </c>
-      <c r="N44" s="33">
+      <c r="N45" s="31">
         <v>23000</v>
       </c>
     </row>
-    <row r="45" ht="30" customHeight="1" spans="1:14">
-      <c r="A45" s="31">
-        <f>A44+1</f>
+    <row r="46" ht="30" customHeight="1" spans="1:14">
+      <c r="A46" s="29">
+        <f>A45+1</f>
         <v>2</v>
       </c>
-      <c r="B45" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" s="32">
+      <c r="B46" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="30">
         <v>44082</v>
       </c>
-      <c r="G45" s="33">
+      <c r="G46" s="31">
         <v>19500</v>
       </c>
-      <c r="H45" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="I45">
+      <c r="H46" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I46">
         <v>20</v>
       </c>
-      <c r="J45" s="44">
+      <c r="J46" s="42">
         <v>1500</v>
       </c>
-      <c r="K45" s="28">
+      <c r="K46" s="26">
         <f t="shared" si="5"/>
         <v>30000</v>
       </c>
-      <c r="L45" s="39">
+      <c r="L46" s="37">
         <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="M45" s="28">
+      <c r="M46" s="26">
         <f t="shared" si="7"/>
         <v>40000</v>
       </c>
-      <c r="N45" s="33">
+      <c r="N46" s="31">
         <v>23000</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="36" customHeight="1" spans="1:14">
-      <c r="A46" s="31">
-        <f>A45+1</f>
+    <row r="47" customFormat="1" ht="36" customHeight="1" spans="1:14">
+      <c r="A47" s="29">
+        <f>A46+1</f>
         <v>3</v>
       </c>
-      <c r="B46" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="32">
+      <c r="B47" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="30">
         <v>44134</v>
       </c>
-      <c r="G46" s="33">
+      <c r="G47" s="31">
         <v>20000</v>
       </c>
-      <c r="H46" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="I46">
+      <c r="H47" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I47">
         <v>10</v>
       </c>
-      <c r="J46" s="44">
+      <c r="J47" s="42">
         <v>0</v>
       </c>
-      <c r="K46" s="28">
+      <c r="K47" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L46" s="39">
+      <c r="L47" s="37">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="M46" s="28">
+      <c r="M47" s="26">
         <f t="shared" si="7"/>
         <v>30000</v>
       </c>
-      <c r="N46" s="33">
+      <c r="N47" s="31">
         <v>23000</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:13">
-      <c r="A47" s="31"/>
-      <c r="E47" s="30"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="28"/>
-    </row>
     <row r="48" customHeight="1" spans="1:13">
-      <c r="A48" s="31"/>
-      <c r="E48" s="30"/>
-      <c r="J48" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K48" s="43">
-        <f>SUM(K44:K47)</f>
+      <c r="A48" s="29"/>
+      <c r="E48" s="28"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="26"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:13">
+      <c r="A49" s="29"/>
+      <c r="E49" s="28"/>
+      <c r="J49" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K49" s="41">
+        <f>SUM(K45:K48)</f>
         <v>45000</v>
       </c>
-      <c r="L48" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M48" s="43">
-        <f>SUM(M44:M47)</f>
+      <c r="L49" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M49" s="41">
+        <f>SUM(M45:M48)</f>
         <v>90000</v>
       </c>
     </row>
-    <row r="49" ht="8.1" customHeight="1" spans="1:5">
-      <c r="A49" s="31"/>
-      <c r="E49" s="30"/>
-    </row>
-    <row r="50" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A50" s="31">
+    <row r="50" ht="8.1" customHeight="1" spans="1:5">
+      <c r="A50" s="29"/>
+      <c r="E50" s="28"/>
+    </row>
+    <row r="51" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A51" s="29">
         <v>1</v>
       </c>
-      <c r="B50" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" s="32">
+      <c r="B51" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="30">
         <v>44082</v>
       </c>
-      <c r="G50" s="33">
+      <c r="G51" s="31">
         <v>16000</v>
       </c>
-      <c r="H50" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="I50">
+      <c r="H51" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I51">
         <v>10</v>
       </c>
-      <c r="J50" s="44">
+      <c r="J51" s="42">
         <v>1000</v>
       </c>
-      <c r="K50" s="28">
-        <f>J50*I50</f>
+      <c r="K51" s="26">
+        <f>J51*I51</f>
         <v>10000</v>
       </c>
-      <c r="L50" s="39">
-        <f>N50-G50-J50</f>
+      <c r="L51" s="37">
+        <f>N51-G51-J51</f>
         <v>2000</v>
       </c>
-      <c r="M50" s="28">
-        <f>L50*I50</f>
+      <c r="M51" s="26">
+        <f>L51*I51</f>
         <v>20000</v>
       </c>
-      <c r="N50" s="33">
+      <c r="N51" s="31">
         <v>19000</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:14">
-      <c r="A51" s="31"/>
-      <c r="B51" s="35"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="34"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="33"/>
-    </row>
-    <row r="52" ht="36.95" customHeight="1" spans="1:14">
-      <c r="A52" s="31"/>
-      <c r="B52" s="35"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="34"/>
-      <c r="J52" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K52" s="43">
-        <f>SUM(K49:K51)</f>
+    <row r="52" customHeight="1" spans="1:14">
+      <c r="A52" s="29"/>
+      <c r="B52" s="33"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="32"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="31"/>
+    </row>
+    <row r="53" ht="36.95" customHeight="1" spans="1:14">
+      <c r="A53" s="29"/>
+      <c r="B53" s="33"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="32"/>
+      <c r="J53" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K53" s="41">
+        <f>SUM(K50:K52)</f>
         <v>10000</v>
       </c>
-      <c r="L52" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M52" s="43">
-        <f>SUM(M49:M51)</f>
+      <c r="L53" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M53" s="41">
+        <f>SUM(M50:M52)</f>
         <v>20000</v>
       </c>
-      <c r="N52" s="33"/>
-    </row>
-    <row r="53" ht="6" customHeight="1" spans="1:14">
-      <c r="A53" s="31"/>
-      <c r="B53" s="35"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="34"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="33"/>
-    </row>
-    <row r="54" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A54" s="31">
+      <c r="N53" s="31"/>
+    </row>
+    <row r="54" ht="6" customHeight="1" spans="1:14">
+      <c r="A54" s="29"/>
+      <c r="B54" s="33"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="32"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="31"/>
+    </row>
+    <row r="55" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A55" s="29">
         <v>1</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B55" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="30">
+        <v>44125</v>
+      </c>
+      <c r="G55" s="31">
+        <v>12200</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55">
+        <v>10</v>
+      </c>
+      <c r="J55" s="42">
+        <v>0</v>
+      </c>
+      <c r="K55" s="26">
+        <f>J55*I55</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="37">
+        <f>N55-G55-J55</f>
+        <v>2800</v>
+      </c>
+      <c r="M55" s="26">
+        <f>L55*I55</f>
+        <v>28000</v>
+      </c>
+      <c r="N55" s="31">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:13">
+      <c r="A56" s="29"/>
+      <c r="E56" s="28"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="26"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:13">
+      <c r="A57" s="29"/>
+      <c r="E57" s="28"/>
+      <c r="J57" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K57" s="41">
+        <f>SUM(K54:K56)</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M57" s="41">
+        <f>SUM(M54:M56)</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="58" ht="6" customHeight="1" spans="1:5">
+      <c r="A58" s="29"/>
+      <c r="E58" s="28"/>
+    </row>
+    <row r="59" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A59" s="29">
+        <v>1</v>
+      </c>
+      <c r="B59" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C54" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F54" s="32">
-        <v>44125</v>
-      </c>
-      <c r="G54" s="33">
-        <v>12200</v>
-      </c>
-      <c r="H54" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="I54">
-        <v>10</v>
-      </c>
-      <c r="J54" s="44">
-        <v>0</v>
-      </c>
-      <c r="K54" s="28">
-        <f>J54*I54</f>
-        <v>0</v>
-      </c>
-      <c r="L54" s="39">
-        <f>N54-G54-J54</f>
-        <v>2800</v>
-      </c>
-      <c r="M54" s="28">
-        <f>L54*I54</f>
-        <v>28000</v>
-      </c>
-      <c r="N54" s="33">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:13">
-      <c r="A55" s="31"/>
-      <c r="E55" s="30"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="28"/>
-    </row>
-    <row r="56" customHeight="1" spans="1:13">
-      <c r="A56" s="31"/>
-      <c r="E56" s="30"/>
-      <c r="J56" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K56" s="43">
-        <f>SUM(K53:K55)</f>
-        <v>0</v>
-      </c>
-      <c r="L56" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M56" s="43">
-        <f>SUM(M53:M55)</f>
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="57" ht="6" customHeight="1" spans="1:5">
-      <c r="A57" s="31"/>
-      <c r="E57" s="30"/>
-    </row>
-    <row r="58" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A58" s="31">
-        <v>1</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F58" s="32">
+      <c r="C59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59" s="30">
         <v>44063</v>
       </c>
-      <c r="G58" s="33">
+      <c r="G59" s="31">
         <v>2750</v>
       </c>
-      <c r="H58" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I58">
+      <c r="H59" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="I59">
         <v>36</v>
       </c>
-      <c r="J58" s="44">
+      <c r="J59" s="42">
         <v>250</v>
       </c>
-      <c r="K58" s="28">
-        <f>J58*I58</f>
+      <c r="K59" s="26">
+        <f>J59*I59</f>
         <v>9000</v>
       </c>
-      <c r="L58" s="39">
-        <f>N58-G58-J58</f>
-        <v>500</v>
-      </c>
-      <c r="M58" s="28">
-        <f>L58*I58</f>
-        <v>18000</v>
-      </c>
-      <c r="N58" s="33">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="59" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A59" s="31">
-        <f>A58+1</f>
-        <v>2</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C59" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" s="32">
-        <v>44082</v>
-      </c>
-      <c r="G59" s="33">
-        <v>2750</v>
-      </c>
-      <c r="H59" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I59">
-        <v>72</v>
-      </c>
-      <c r="J59" s="44">
-        <v>250</v>
-      </c>
-      <c r="K59" s="28">
-        <f>J59*I59</f>
-        <v>18000</v>
-      </c>
-      <c r="L59" s="39">
+      <c r="L59" s="37">
         <f>N59-G59-J59</f>
         <v>500</v>
       </c>
-      <c r="M59" s="28">
+      <c r="M59" s="26">
         <f>L59*I59</f>
-        <v>36000</v>
-      </c>
-      <c r="N59" s="33">
+        <v>18000</v>
+      </c>
+      <c r="N59" s="31">
         <v>3500</v>
       </c>
     </row>
     <row r="60" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A60" s="31">
+      <c r="A60" s="29">
         <f>A59+1</f>
-        <v>3</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>114</v>
+        <v>2</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F60" s="32">
-        <v>44125</v>
-      </c>
-      <c r="G60" s="33">
+        <v>134</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" s="30">
+        <v>44082</v>
+      </c>
+      <c r="G60" s="31">
         <v>2750</v>
       </c>
-      <c r="H60" s="34" t="s">
-        <v>148</v>
+      <c r="H60" s="32" t="s">
+        <v>151</v>
       </c>
       <c r="I60">
         <v>72</v>
       </c>
-      <c r="J60" s="44">
+      <c r="J60" s="42">
+        <v>250</v>
+      </c>
+      <c r="K60" s="26">
+        <f>J60*I60</f>
+        <v>18000</v>
+      </c>
+      <c r="L60" s="37">
+        <f>N60-G60-J60</f>
+        <v>500</v>
+      </c>
+      <c r="M60" s="26">
+        <f>L60*I60</f>
+        <v>36000</v>
+      </c>
+      <c r="N60" s="31">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="61" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A61" s="29">
+        <f>A60+1</f>
+        <v>3</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" s="30">
+        <v>44125</v>
+      </c>
+      <c r="G61" s="31">
+        <v>2750</v>
+      </c>
+      <c r="H61" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="I61">
+        <v>72</v>
+      </c>
+      <c r="J61" s="42">
         <v>0</v>
       </c>
-      <c r="K60" s="28">
-        <f>J60*I60</f>
+      <c r="K61" s="26">
+        <f>J61*I61</f>
         <v>0</v>
       </c>
-      <c r="L60" s="39">
-        <f>N60-G60-J60</f>
+      <c r="L61" s="37">
+        <f>N61-G61-J61</f>
         <v>750</v>
       </c>
-      <c r="M60" s="28">
-        <f>L60*I60</f>
+      <c r="M61" s="26">
+        <f>L61*I61</f>
         <v>54000</v>
       </c>
-      <c r="N60" s="33">
+      <c r="N61" s="31">
         <v>3500</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:13">
-      <c r="A61" s="31"/>
-      <c r="E61" s="30"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="28"/>
-    </row>
     <row r="62" customHeight="1" spans="1:13">
-      <c r="A62" s="31"/>
-      <c r="E62" s="30"/>
-      <c r="J62" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K62" s="43">
-        <f>SUM(K59:K61)</f>
+      <c r="A62" s="29"/>
+      <c r="E62" s="28"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="26"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:13">
+      <c r="A63" s="29"/>
+      <c r="E63" s="28"/>
+      <c r="J63" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K63" s="41">
+        <f>SUM(K60:K62)</f>
         <v>18000</v>
       </c>
-      <c r="L62" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M62" s="43">
-        <f>SUM(M59:M61)</f>
+      <c r="L63" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M63" s="41">
+        <f>SUM(M60:M62)</f>
         <v>90000</v>
       </c>
     </row>
-    <row r="63" ht="6" customHeight="1" spans="1:5">
-      <c r="A63" s="31"/>
-      <c r="E63" s="30"/>
-    </row>
-    <row r="64" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A64" s="31">
+    <row r="64" ht="6" customHeight="1" spans="1:5">
+      <c r="A64" s="29"/>
+      <c r="E64" s="28"/>
+    </row>
+    <row r="65" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A65" s="29">
         <v>1</v>
       </c>
-      <c r="B64" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F64" s="32">
+      <c r="B65" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" s="30">
         <v>44082</v>
       </c>
-      <c r="G64" s="33">
+      <c r="G65" s="31">
         <v>12000</v>
       </c>
-      <c r="H64" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="I64">
+      <c r="H65" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I65">
         <v>5</v>
       </c>
-      <c r="J64" s="44">
+      <c r="J65" s="42">
         <v>1000</v>
       </c>
-      <c r="K64" s="28">
-        <f>J64*I64</f>
+      <c r="K65" s="26">
+        <f>J65*I65</f>
         <v>5000</v>
       </c>
-      <c r="L64" s="39">
-        <f>N64-G64-J64</f>
+      <c r="L65" s="37">
+        <f>N65-G65-J65</f>
         <v>1000</v>
       </c>
-      <c r="M64" s="28">
-        <f>L64*I64</f>
+      <c r="M65" s="26">
+        <f>L65*I65</f>
         <v>5000</v>
       </c>
-      <c r="N64" s="33">
+      <c r="N65" s="31">
         <v>14000</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:13">
-      <c r="A65" s="31"/>
-      <c r="E65" s="30"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="28"/>
-    </row>
     <row r="66" customHeight="1" spans="1:13">
-      <c r="A66" s="31"/>
-      <c r="E66" s="30"/>
-      <c r="J66" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K66" s="43">
-        <f>SUM(K63:K65)</f>
+      <c r="A66" s="29"/>
+      <c r="E66" s="28"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="26"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:13">
+      <c r="A67" s="29"/>
+      <c r="E67" s="28"/>
+      <c r="J67" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K67" s="41">
+        <f>SUM(K64:K66)</f>
         <v>5000</v>
       </c>
-      <c r="L66" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M66" s="43">
-        <f>SUM(M63:M65)</f>
+      <c r="L67" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M67" s="41">
+        <f>SUM(M64:M66)</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="67" ht="6" customHeight="1" spans="1:5">
-      <c r="A67" s="31"/>
-      <c r="E67" s="30"/>
-    </row>
-    <row r="68" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A68" s="31">
+    <row r="68" ht="6" customHeight="1" spans="1:5">
+      <c r="A68" s="29"/>
+      <c r="E68" s="28"/>
+    </row>
+    <row r="69" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A69" s="29">
         <v>1</v>
       </c>
-      <c r="B68" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" t="s">
-        <v>158</v>
-      </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="26" t="s">
+      <c r="B69" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="17"/>
+      <c r="E69" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F68" s="32">
+      <c r="F69" s="30">
         <v>44130</v>
       </c>
-      <c r="G68" s="33">
+      <c r="G69" s="31">
         <v>12500</v>
       </c>
-      <c r="H68" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I68">
+      <c r="H69" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="I69">
         <v>12</v>
       </c>
-      <c r="J68" s="44">
+      <c r="J69" s="42">
         <v>0</v>
       </c>
-      <c r="K68" s="28">
-        <f>J68*I68</f>
+      <c r="K69" s="26">
+        <f>J69*I69</f>
         <v>0</v>
       </c>
-      <c r="L68" s="39">
-        <f>N68-G68-J68</f>
+      <c r="L69" s="37">
+        <f>N69-G69-J69</f>
         <v>2000</v>
       </c>
-      <c r="M68" s="28">
-        <f>L68*I68</f>
+      <c r="M69" s="26">
+        <f>L69*I69</f>
         <v>24000</v>
       </c>
-      <c r="N68" s="33">
+      <c r="N69" s="31">
         <v>14500</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:13">
-      <c r="A69" s="31"/>
-      <c r="E69" s="30"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="28"/>
-    </row>
     <row r="70" customHeight="1" spans="1:13">
-      <c r="A70" s="31"/>
-      <c r="E70" s="30"/>
-      <c r="J70" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K70" s="43">
-        <f>SUM(K67:K69)</f>
+      <c r="A70" s="29"/>
+      <c r="E70" s="28"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="26"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:13">
+      <c r="A71" s="29"/>
+      <c r="E71" s="28"/>
+      <c r="J71" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K71" s="41">
+        <f>SUM(K68:K70)</f>
         <v>0</v>
       </c>
-      <c r="L70" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M70" s="43">
-        <f>SUM(M67:M69)</f>
+      <c r="L71" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M71" s="41">
+        <f>SUM(M68:M70)</f>
         <v>24000</v>
       </c>
     </row>
-    <row r="71" ht="5.1" customHeight="1" spans="1:5">
-      <c r="A71" s="31"/>
-      <c r="E71" s="30"/>
-    </row>
-    <row r="72" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A72" s="31">
+    <row r="72" ht="5.1" customHeight="1" spans="1:5">
+      <c r="A72" s="29"/>
+      <c r="E72" s="28"/>
+    </row>
+    <row r="73" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A73" s="29">
         <v>1</v>
       </c>
-      <c r="B72" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" t="s">
-        <v>131</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E72" s="26" t="s">
+      <c r="B73" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F72" s="32">
+      <c r="F73" s="30">
         <v>44130</v>
       </c>
-      <c r="G72" s="33">
+      <c r="G73" s="31">
         <v>2200</v>
       </c>
-      <c r="H72" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I72">
+      <c r="H73" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="I73">
         <v>40</v>
       </c>
-      <c r="J72" s="44">
+      <c r="J73" s="42">
         <v>0</v>
       </c>
-      <c r="K72" s="28">
-        <f>J72*I72</f>
+      <c r="K73" s="26">
+        <f>J73*I73</f>
         <v>0</v>
       </c>
-      <c r="L72" s="39">
-        <f>N72-G72-J72</f>
+      <c r="L73" s="37">
+        <f>N73-G73-J73</f>
         <v>800</v>
       </c>
-      <c r="M72" s="28">
-        <f>L72*I72</f>
+      <c r="M73" s="26">
+        <f>L73*I73</f>
         <v>32000</v>
       </c>
-      <c r="N72" s="33">
+      <c r="N73" s="31">
         <v>3000</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:13">
-      <c r="A73" s="31"/>
-      <c r="E73" s="30"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="28"/>
-    </row>
     <row r="74" customHeight="1" spans="1:13">
-      <c r="A74" s="31"/>
-      <c r="E74" s="30"/>
-      <c r="J74" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K74" s="43">
-        <f>SUM(K71:K73)</f>
+      <c r="A74" s="29"/>
+      <c r="E74" s="28"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="26"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:13">
+      <c r="A75" s="29"/>
+      <c r="E75" s="28"/>
+      <c r="J75" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K75" s="41">
+        <f>SUM(K72:K74)</f>
         <v>0</v>
       </c>
-      <c r="L74" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M74" s="43">
-        <f>SUM(M71:M73)</f>
+      <c r="L75" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M75" s="41">
+        <f>SUM(M72:M74)</f>
         <v>32000</v>
       </c>
     </row>
-    <row r="75" ht="6" customHeight="1" spans="1:5">
-      <c r="A75" s="31"/>
-      <c r="E75" s="30"/>
-    </row>
-    <row r="76" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A76" s="31">
+    <row r="76" ht="6" customHeight="1" spans="1:5">
+      <c r="A76" s="29"/>
+      <c r="E76" s="28"/>
+    </row>
+    <row r="77" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A77" s="29">
         <v>1</v>
       </c>
-      <c r="B76" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" t="s">
-        <v>131</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E76" s="26" t="s">
+      <c r="B77" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" t="s">
+        <v>134</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E77" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F76" s="32">
+      <c r="F77" s="30">
         <v>44130</v>
       </c>
-      <c r="G76" s="33">
+      <c r="G77" s="31">
         <v>2325</v>
       </c>
-      <c r="H76" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I76">
+      <c r="H77" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="I77">
         <v>40</v>
       </c>
-      <c r="J76" s="44">
+      <c r="J77" s="42">
         <v>0</v>
       </c>
-      <c r="K76" s="28">
-        <f t="shared" ref="K76:K81" si="8">J76*I76</f>
+      <c r="K77" s="26">
+        <f t="shared" ref="K77:K82" si="8">J77*I77</f>
         <v>0</v>
       </c>
-      <c r="L76" s="39">
-        <f t="shared" ref="L76:L81" si="9">N76-G76-J76</f>
+      <c r="L77" s="37">
+        <f t="shared" ref="L77:L82" si="9">N77-G77-J77</f>
         <v>975</v>
       </c>
-      <c r="M76" s="28">
-        <f t="shared" ref="M76:M81" si="10">L76*I76</f>
+      <c r="M77" s="26">
+        <f t="shared" ref="M77:M82" si="10">L77*I77</f>
         <v>39000</v>
       </c>
-      <c r="N76" s="33">
+      <c r="N77" s="31">
         <v>3300</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:13">
-      <c r="A77" s="31"/>
-      <c r="E77" s="30"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="28"/>
-    </row>
     <row r="78" customHeight="1" spans="1:13">
-      <c r="A78" s="31"/>
-      <c r="E78" s="30"/>
-      <c r="J78" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K78" s="43">
-        <f>SUM(K75:K77)</f>
+      <c r="A78" s="29"/>
+      <c r="E78" s="28"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="26"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:13">
+      <c r="A79" s="29"/>
+      <c r="E79" s="28"/>
+      <c r="J79" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K79" s="41">
+        <f>SUM(K76:K78)</f>
         <v>0</v>
       </c>
-      <c r="L78" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M78" s="43">
-        <f>SUM(M75:M77)</f>
+      <c r="L79" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M79" s="41">
+        <f>SUM(M76:M78)</f>
         <v>39000</v>
       </c>
     </row>
-    <row r="79" ht="9" customHeight="1" spans="1:5">
-      <c r="A79" s="31"/>
-      <c r="E79" s="30"/>
-    </row>
-    <row r="80" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A80" s="31">
+    <row r="80" ht="9" customHeight="1" spans="1:5">
+      <c r="A80" s="29"/>
+      <c r="E80" s="28"/>
+    </row>
+    <row r="81" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A81" s="29">
         <v>1</v>
       </c>
-      <c r="B80" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C80" t="s">
-        <v>158</v>
-      </c>
-      <c r="D80" s="19"/>
-      <c r="E80" s="26" t="s">
+      <c r="B81" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="F80" s="32">
+      <c r="F81" s="30">
         <v>44131</v>
       </c>
-      <c r="G80" s="33">
+      <c r="G81" s="31">
         <v>4500</v>
       </c>
-      <c r="H80" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I80">
+      <c r="H81" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="I81">
         <v>16</v>
       </c>
-      <c r="J80" s="44">
+      <c r="J81" s="42">
         <v>0</v>
       </c>
-      <c r="K80" s="28">
+      <c r="K81" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L80" s="39">
+      <c r="L81" s="37">
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-      <c r="M80" s="28">
+      <c r="M81" s="26">
         <f t="shared" si="10"/>
         <v>64000</v>
       </c>
-      <c r="N80" s="33">
+      <c r="N81" s="31">
         <v>8500</v>
       </c>
     </row>
-    <row r="81" customFormat="1" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A81" s="31">
+    <row r="82" customFormat="1" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A82" s="29">
         <v>1</v>
       </c>
-      <c r="B81" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C81" t="s">
-        <v>158</v>
-      </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="26" t="s">
+      <c r="B82" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" s="17"/>
+      <c r="E82" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F81" s="32">
+      <c r="F82" s="30">
         <v>44134</v>
       </c>
-      <c r="G81" s="33">
+      <c r="G82" s="31">
         <v>6000</v>
       </c>
-      <c r="H81" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I81">
+      <c r="H82" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="I82">
         <v>60</v>
       </c>
-      <c r="J81" s="44">
+      <c r="J82" s="42">
         <v>0</v>
       </c>
-      <c r="K81" s="28">
+      <c r="K82" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L81" s="39">
+      <c r="L82" s="37">
         <f t="shared" si="9"/>
         <v>2500</v>
       </c>
-      <c r="M81" s="28">
+      <c r="M82" s="26">
         <f t="shared" si="10"/>
         <v>150000</v>
       </c>
-      <c r="N81" s="33">
+      <c r="N82" s="31">
         <v>8500</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:13">
-      <c r="A82" s="31"/>
-      <c r="E82" s="30"/>
-      <c r="J82" s="44"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="28"/>
-    </row>
     <row r="83" customHeight="1" spans="1:13">
-      <c r="A83" s="31"/>
-      <c r="E83" s="30"/>
-      <c r="J83" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K83" s="43">
-        <f>SUM(K79:K82)</f>
+      <c r="A83" s="29"/>
+      <c r="E83" s="28"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="26"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:13">
+      <c r="A84" s="29"/>
+      <c r="E84" s="28"/>
+      <c r="J84" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K84" s="41">
+        <f>SUM(K80:K83)</f>
         <v>0</v>
       </c>
-      <c r="L83" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M83" s="43">
-        <f>SUM(M79:M82)</f>
+      <c r="L84" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M84" s="41">
+        <f>SUM(M80:M83)</f>
         <v>214000</v>
       </c>
     </row>
-    <row r="84" ht="9" customHeight="1" spans="1:5">
-      <c r="A84" s="31"/>
-      <c r="E84" s="30"/>
-    </row>
-    <row r="85" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A85" s="31">
+    <row r="85" ht="9" customHeight="1" spans="1:5">
+      <c r="A85" s="29"/>
+      <c r="E85" s="28"/>
+    </row>
+    <row r="86" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A86" s="29">
         <v>1</v>
       </c>
-      <c r="B85" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C85" t="s">
-        <v>131</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E85" s="26" t="s">
+      <c r="B86" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" t="s">
+        <v>134</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E86" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F85" s="32">
+      <c r="F86" s="30">
         <v>44131</v>
       </c>
-      <c r="G85" s="33">
+      <c r="G86" s="31">
         <v>675</v>
       </c>
-      <c r="H85" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I85">
+      <c r="H86" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="I86">
         <v>240</v>
       </c>
-      <c r="J85" s="44">
+      <c r="J86" s="42">
         <v>0</v>
       </c>
-      <c r="K85" s="28">
-        <f>J85*I85</f>
+      <c r="K86" s="26">
+        <f>J86*I86</f>
         <v>0</v>
       </c>
-      <c r="L85" s="39">
-        <f>N85-G85-J85</f>
+      <c r="L86" s="37">
+        <f>N86-G86-J86</f>
         <v>575</v>
       </c>
-      <c r="M85" s="28">
-        <f>L85*I85</f>
+      <c r="M86" s="26">
+        <f>L86*I86</f>
         <v>138000</v>
       </c>
-      <c r="N85" s="33">
+      <c r="N86" s="31">
         <v>1250</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:13">
-      <c r="A86" s="31"/>
-      <c r="E86" s="30"/>
-      <c r="J86" s="44"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="39"/>
-      <c r="M86" s="28"/>
-    </row>
     <row r="87" customHeight="1" spans="1:13">
-      <c r="A87" s="31"/>
-      <c r="E87" s="30"/>
-      <c r="J87" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K87" s="43">
-        <f>SUM(K84:K86)</f>
+      <c r="A87" s="29"/>
+      <c r="E87" s="28"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="26"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:13">
+      <c r="A88" s="29"/>
+      <c r="E88" s="28"/>
+      <c r="J88" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K88" s="41">
+        <f>SUM(K85:K87)</f>
         <v>0</v>
       </c>
-      <c r="L87" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M87" s="43">
-        <f>SUM(M84:M86)</f>
+      <c r="L88" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M88" s="41">
+        <f>SUM(M85:M87)</f>
         <v>138000</v>
       </c>
     </row>
-    <row r="88" ht="8" customHeight="1" spans="1:5">
-      <c r="A88" s="31"/>
-      <c r="E88" s="30"/>
-    </row>
-    <row r="89" customFormat="1" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A89" s="31">
+    <row r="89" ht="8" customHeight="1" spans="1:5">
+      <c r="A89" s="29"/>
+      <c r="E89" s="28"/>
+    </row>
+    <row r="90" customFormat="1" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A90" s="29">
         <v>1</v>
       </c>
-      <c r="B89" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" t="s">
-        <v>158</v>
-      </c>
-      <c r="D89" s="19"/>
-      <c r="E89" s="26" t="s">
+      <c r="B90" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" s="17"/>
+      <c r="E90" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F89" s="32">
+      <c r="F90" s="30">
         <v>44134</v>
       </c>
-      <c r="G89" s="33">
+      <c r="G90" s="31">
         <v>1700</v>
       </c>
-      <c r="H89" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="I89">
+      <c r="H90" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="I90">
         <v>240</v>
       </c>
-      <c r="J89" s="44">
+      <c r="J90" s="42">
         <v>0</v>
       </c>
-      <c r="K89" s="28">
-        <f>J89*I89</f>
+      <c r="K90" s="26">
+        <f>J90*I90</f>
         <v>0</v>
       </c>
-      <c r="L89" s="39">
-        <f>N89-G89-J89</f>
+      <c r="L90" s="37">
+        <f>N90-G90-J90</f>
         <v>800</v>
       </c>
-      <c r="M89" s="28">
-        <f>L89*I89</f>
+      <c r="M90" s="26">
+        <f>L90*I90</f>
         <v>192000</v>
       </c>
-      <c r="N89" s="33">
+      <c r="N90" s="31">
         <v>2500</v>
       </c>
     </row>
-    <row r="90" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A90" s="31"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90" s="30"/>
-      <c r="F90"/>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90" s="44"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="28"/>
-    </row>
     <row r="91" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A91" s="31"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91" s="30"/>
-      <c r="F91"/>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="I91"/>
-      <c r="J91" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K91" s="43">
-        <f>SUM(K88:K90)</f>
+      <c r="A91" s="29"/>
+      <c r="E91" s="28"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="26"/>
+    </row>
+    <row r="92" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A92" s="29"/>
+      <c r="E92" s="28"/>
+      <c r="J92" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K92" s="41">
+        <f>SUM(K89:K91)</f>
         <v>0</v>
       </c>
-      <c r="L91" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M91" s="43">
-        <f>SUM(M88:M90)</f>
+      <c r="L92" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M92" s="41">
+        <f>SUM(M89:M91)</f>
         <v>192000</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="1:1">
-      <c r="A92" s="31"/>
+    <row r="93" ht="8" customHeight="1" spans="1:1">
+      <c r="A93" s="29"/>
+    </row>
+    <row r="94" customFormat="1" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A94" s="29">
+        <v>1</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" t="s">
+        <v>134</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F94" s="30">
+        <v>44117</v>
+      </c>
+      <c r="G94" s="31">
+        <v>12000</v>
+      </c>
+      <c r="H94" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I94">
+        <v>10</v>
+      </c>
+      <c r="J94" s="42">
+        <v>0</v>
+      </c>
+      <c r="K94" s="26">
+        <f>J94*I94</f>
+        <v>0</v>
+      </c>
+      <c r="L94" s="37">
+        <f>N94-G94-J94</f>
+        <v>2500</v>
+      </c>
+      <c r="M94" s="26">
+        <f>L94*I94</f>
+        <v>25000</v>
+      </c>
+      <c r="N94" s="31">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A95" s="29"/>
+      <c r="E95" s="28"/>
+      <c r="J95" s="42"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="26"/>
+    </row>
+    <row r="96" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A96" s="29"/>
+      <c r="E96" s="28"/>
+      <c r="J96" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K96" s="41">
+        <f>SUM(K93:K95)</f>
+        <v>0</v>
+      </c>
+      <c r="L96" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M96" s="41">
+        <f>SUM(M93:M95)</f>
+        <v>25000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7040,58 +7130,61 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="N11:N12"/>
   </mergeCells>
-  <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22 B26 B30:B32 B35:B36">
-      <formula1>Item!$B$2:$B$6</formula1>
+  <dataValidations count="19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B13:B18">
+      <formula1>Item!$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
-      <formula1>Item!$B$2:$B$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B44:B45">
-      <formula1>Item!$B$2:$B$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22 C26 C40 C46 C64 C13:C18 C30:C32 C35:C36 C44:C45 C50:C54 C58:C60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19 C23 C27 C41 C47 C65 C13:C18 C31:C33 C36:C37 C45:C46 C51:C55 C59:C61">
       <formula1>"Food"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H46 H64 H68 H72 H76 H80 H81 H85 H89 H44:H45 H50:H54 H58:H60">
-      <formula1>$Q$12:$Q$19</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:G22 I22:N22 K26:M26 K46:M46 K47:M47 K80:M80 K81:M81 K82:M82 K85:M86 K89:M90 K35:M37 K53:M55 K40:M41 K44:M45 K50:M51 K64:M65 K68:M69 K72:M73 K76:M77 K30:M32 K58:M61 F13:G18 I13:N18"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22 E26 E40 E46 E64 E68 E72 E76 E80 E81 E85 E89 E13:E18 E30:E32 E35:E36 E44:E45 E50:E54 E58:E60">
-      <formula1>Supllier!$C$19:$C$24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22 D26 D40 D46 D64 D68 D72 D76 D80 D81 D85 D13:D18 D30:D32 D35:D36 D44:D45 D50:D54 D58:D60">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:G19 I19:N19 F23:G23 I23:N23 K27:M27 K47:M47 K48:M48 K81:M81 K82:M82 K83:M83 K94:L94 M94 K95:M95 K41:M42 K45:M46 K51:M52 K65:M66 K69:M70 K73:M74 K77:M78 K86:M87 K90:M91 K36:M38 K54:M56 F13:G18 I13:N18 K31:M33 K59:M62"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19 D23 D27 D41 D47 D65 D69 D73 D77 D81 D82 D86 D13:D18 D31:D33 D36:D37 D45:D46 D51:D55 D59:D61">
       <formula1>$V$12:$V$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19 E23 E27 E41 E47 E65 E69 E73 E77 E81 E82 E86 E90 E94 E13:E18 E31:E33 E36:E37 E45:E46 E51:E55 E59:E61">
+      <formula1>Supllier!$C$19:$C$25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19 H13:H18">
+      <formula1>$Q$12:$Q$16</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H23">
       <formula1>$Q$12:$Q$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
-      <formula1>Item!$B$2:$B$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64 B58:B60">
-      <formula1>Item!$B$2:$B$11</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
-      <formula1>Item!$B$2:$B$13</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68 C72 C76 C80 C81 C85 C89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69 C73 C77 C81 C82 C86 C90 C94">
       <formula1>"Food,House Hold"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72 B76 B80 B81 B85 B89">
-      <formula1>Item!$B$2:$B$39</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B27 B31:B33 B36:B37">
+      <formula1>Item!$B$9:$B$13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
+      <formula1>Item!$B$9:$B$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H47 H65 H69 H73 H77 H81 H82 H86 H90 H45:H46 H51:H55 H59:H61">
+      <formula1>$Q$12:$Q$20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47 B45:B46">
+      <formula1>Item!$B$9:$B$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+      <formula1>Item!$B$9:$B$19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65 B59:B61">
+      <formula1>Item!$B$9:$B$18</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
+      <formula1>Item!$B$9:$B$20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73 B77 B81 B82 B86 B90 B94">
+      <formula1>Item!$B$9:$B$46</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D90 D94">
       <formula1>$G$2:$G$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B18">
-      <formula1>Item!$B$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94">
+      <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50:B53">
-      <formula1>Item!$B$2:$B$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13:H18">
-      <formula1>$Q$12:$Q$16</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51:B54">
+      <formula1>Item!$B$9:$B$16</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7111,7 +7204,7 @@
   <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
@@ -7128,846 +7221,846 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="3" customHeight="1" spans="1:9">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>167</v>
+      <c r="B4" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="13" t="s">
         <v>168</v>
       </c>
+      <c r="D4" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="H4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>171</v>
+      <c r="B5" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>172</v>
+      <c r="B6" s="11" t="s">
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="I6" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>175</v>
+      <c r="B7" s="11" t="s">
+        <v>178</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>176</v>
+        <v>168</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="H7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>179</v>
+      <c r="B8" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>180</v>
+        <v>168</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="H8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>183</v>
+      <c r="B9" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>184</v>
+        <v>168</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="H9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>187</v>
+      <c r="B10" s="11" t="s">
+        <v>190</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>188</v>
+        <v>168</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>189</v>
+      <c r="B11" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="I11" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>192</v>
+      <c r="B12" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>193</v>
+        <v>168</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="H12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>196</v>
+      <c r="B13" s="11" t="s">
+        <v>199</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>197</v>
+        <v>168</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="H13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="12">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>199</v>
+      <c r="B14" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>200</v>
+        <v>168</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>201</v>
+      <c r="B15" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>193</v>
+        <v>168</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>202</v>
+      <c r="B16" s="11" t="s">
+        <v>205</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>203</v>
+        <v>168</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>204</v>
+      <c r="B17" s="11" t="s">
+        <v>207</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>180</v>
+        <v>168</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="12">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>205</v>
+      <c r="B18" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="12">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="12">
-        <v>18</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="12">
-        <v>19</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
     <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="12">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>212</v>
+      <c r="B22" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="10">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="10">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="12">
-        <v>21</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="12">
-        <v>22</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="12">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13" t="s">
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="10">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="10">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" s="10">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" s="10">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="12">
-        <v>24</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="13" t="s">
+    </row>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" s="10">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="12">
-        <v>25</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="12">
-        <v>26</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="12">
-        <v>27</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="12">
-        <v>28</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
     <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="12">
+      <c r="A31" s="10">
         <v>29</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>226</v>
+      <c r="B31" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>227</v>
+        <v>168</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="12">
+      <c r="A32" s="10">
         <v>30</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>229</v>
+      <c r="B32" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="12">
+      <c r="A33" s="10">
         <v>31</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>215</v>
+      <c r="B33" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="12">
+      <c r="A34" s="10">
         <v>32</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>203</v>
+      <c r="B34" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="12">
+      <c r="A35" s="10">
         <v>33</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>193</v>
+      <c r="B35" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="12">
+      <c r="A36" s="10">
         <v>34</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>234</v>
+      <c r="B36" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="12">
+      <c r="A37" s="10">
         <v>35</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>215</v>
+      <c r="B37" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
-      <c r="A38" s="12">
+      <c r="A38" s="10">
         <v>36</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>215</v>
+      <c r="B38" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
-      <c r="A39" s="12">
+      <c r="A39" s="10">
         <v>37</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>238</v>
+      <c r="B39" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:4">
-      <c r="A40" s="12">
+      <c r="A40" s="10">
         <v>38</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D40" s="13"/>
+      <c r="B40" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" s="11"/>
     </row>
     <row r="41" customHeight="1" spans="1:4">
-      <c r="A41" s="12">
+      <c r="A41" s="10">
         <v>39</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D41" s="13"/>
+      <c r="B41" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="11"/>
     </row>
     <row r="42" customHeight="1" spans="1:4">
-      <c r="A42" s="12">
+      <c r="A42" s="10">
         <v>40</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" s="13"/>
+      <c r="B42" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="11"/>
     </row>
     <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="12">
+      <c r="A43" s="10">
         <v>41</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D43" s="13"/>
+      <c r="B43" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="11"/>
     </row>
     <row r="44" customHeight="1" spans="1:4">
-      <c r="A44" s="12">
+      <c r="A44" s="10">
         <v>42</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" s="13"/>
+      <c r="B44" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" customHeight="1" spans="1:4">
-      <c r="A45" s="12">
+      <c r="A45" s="10">
         <v>43</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D45" s="13"/>
+      <c r="B45" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" customHeight="1" spans="1:4">
-      <c r="A46" s="12">
+      <c r="A46" s="10">
         <v>42</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D46" s="13"/>
+      <c r="B46" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" customHeight="1" spans="1:4">
-      <c r="A47" s="12">
+      <c r="A47" s="10">
         <v>43</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>247</v>
+      <c r="B47" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:4">
-      <c r="A48" s="12">
+      <c r="A48" s="10">
         <v>44</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D48" s="13"/>
+      <c r="B48" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="11"/>
     </row>
     <row r="49" customHeight="1" spans="1:4">
-      <c r="A49" s="12">
+      <c r="A49" s="10">
         <v>45</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="13"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" customHeight="1" spans="1:1">
-      <c r="A50" s="12"/>
+      <c r="A50" s="10"/>
     </row>
     <row r="51" customHeight="1" spans="1:1">
-      <c r="A51" s="12"/>
+      <c r="A51" s="10"/>
     </row>
     <row r="52" customHeight="1" spans="1:1">
-      <c r="A52" s="12"/>
+      <c r="A52" s="10"/>
     </row>
     <row r="53" customHeight="1" spans="1:1">
-      <c r="A53" s="12"/>
+      <c r="A53" s="10"/>
     </row>
     <row r="54" customHeight="1" spans="1:1">
-      <c r="A54" s="12"/>
+      <c r="A54" s="10"/>
     </row>
     <row r="55" customHeight="1" spans="1:1">
-      <c r="A55" s="12"/>
+      <c r="A55" s="10"/>
     </row>
     <row r="56" customHeight="1" spans="1:1">
-      <c r="A56" s="12"/>
+      <c r="A56" s="10"/>
     </row>
     <row r="57" customHeight="1" spans="1:1">
-      <c r="A57" s="12"/>
+      <c r="A57" s="10"/>
     </row>
     <row r="58" customHeight="1" spans="1:1">
-      <c r="A58" s="12"/>
+      <c r="A58" s="10"/>
     </row>
     <row r="59" customHeight="1" spans="1:1">
-      <c r="A59" s="12"/>
+      <c r="A59" s="10"/>
     </row>
     <row r="60" customHeight="1" spans="1:1">
-      <c r="A60" s="12"/>
+      <c r="A60" s="10"/>
     </row>
     <row r="61" customHeight="1" spans="1:1">
-      <c r="A61" s="12"/>
+      <c r="A61" s="10"/>
     </row>
     <row r="62" customHeight="1" spans="1:1">
-      <c r="A62" s="12"/>
+      <c r="A62" s="10"/>
     </row>
     <row r="63" customHeight="1" spans="1:1">
-      <c r="A63" s="12"/>
+      <c r="A63" s="10"/>
     </row>
     <row r="64" customHeight="1" spans="1:1">
-      <c r="A64" s="12"/>
+      <c r="A64" s="10"/>
     </row>
     <row r="65" customHeight="1" spans="1:1">
-      <c r="A65" s="12"/>
+      <c r="A65" s="10"/>
     </row>
     <row r="66" customHeight="1" spans="1:1">
-      <c r="A66" s="12"/>
+      <c r="A66" s="10"/>
     </row>
     <row r="67" customHeight="1" spans="1:1">
-      <c r="A67" s="12"/>
+      <c r="A67" s="10"/>
     </row>
     <row r="68" customHeight="1" spans="1:1">
-      <c r="A68" s="12"/>
+      <c r="A68" s="10"/>
     </row>
     <row r="69" customHeight="1" spans="1:1">
-      <c r="A69" s="12"/>
+      <c r="A69" s="10"/>
     </row>
     <row r="70" customHeight="1" spans="1:1">
-      <c r="A70" s="12"/>
+      <c r="A70" s="10"/>
     </row>
     <row r="71" customHeight="1" spans="1:1">
-      <c r="A71" s="12"/>
+      <c r="A71" s="10"/>
     </row>
     <row r="72" customHeight="1" spans="1:1">
-      <c r="A72" s="12"/>
+      <c r="A72" s="10"/>
     </row>
     <row r="73" customHeight="1" spans="1:1">
-      <c r="A73" s="12"/>
+      <c r="A73" s="10"/>
     </row>
     <row r="74" customHeight="1" spans="1:1">
-      <c r="A74" s="12"/>
+      <c r="A74" s="10"/>
     </row>
     <row r="75" customHeight="1" spans="1:1">
-      <c r="A75" s="12"/>
+      <c r="A75" s="10"/>
     </row>
     <row r="76" customHeight="1" spans="1:1">
-      <c r="A76" s="12"/>
+      <c r="A76" s="10"/>
     </row>
     <row r="77" customHeight="1" spans="1:1">
-      <c r="A77" s="12"/>
+      <c r="A77" s="10"/>
     </row>
     <row r="78" customHeight="1" spans="1:1">
-      <c r="A78" s="12"/>
+      <c r="A78" s="10"/>
     </row>
     <row r="79" customHeight="1" spans="1:1">
-      <c r="A79" s="12"/>
+      <c r="A79" s="10"/>
     </row>
     <row r="80" customHeight="1" spans="1:1">
-      <c r="A80" s="12"/>
+      <c r="A80" s="10"/>
     </row>
     <row r="81" customHeight="1" spans="1:1">
-      <c r="A81" s="12"/>
+      <c r="A81" s="10"/>
     </row>
     <row r="82" customHeight="1" spans="1:1">
-      <c r="A82" s="12"/>
+      <c r="A82" s="10"/>
     </row>
     <row r="83" customHeight="1" spans="1:1">
-      <c r="A83" s="12"/>
+      <c r="A83" s="10"/>
     </row>
     <row r="84" customHeight="1" spans="1:1">
-      <c r="A84" s="12"/>
+      <c r="A84" s="10"/>
     </row>
     <row r="85" customHeight="1" spans="1:1">
-      <c r="A85" s="12"/>
+      <c r="A85" s="10"/>
     </row>
     <row r="86" customHeight="1" spans="1:1">
-      <c r="A86" s="12"/>
+      <c r="A86" s="10"/>
     </row>
     <row r="87" customHeight="1" spans="1:1">
-      <c r="A87" s="12"/>
+      <c r="A87" s="10"/>
     </row>
     <row r="88" customHeight="1" spans="1:1">
-      <c r="A88" s="12"/>
+      <c r="A88" s="10"/>
     </row>
     <row r="89" customHeight="1" spans="1:1">
-      <c r="A89" s="12"/>
+      <c r="A89" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7995,10 +8088,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F16"/>
+      <selection activeCell="A3" sqref="$A3:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
@@ -8006,29 +8099,29 @@
     <col min="1" max="1" width="5.71428571428571" customWidth="1"/>
     <col min="2" max="2" width="36.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="31.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="11.2857142857143" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.2857142857143" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.1428571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>174</v>
+      <c r="B1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
@@ -8036,447 +8129,195 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" s="4">
+        <v>242</v>
+      </c>
+      <c r="D2" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:6">
-      <c r="A3">
-        <f t="shared" ref="A3:A15" si="0">A2+1</f>
+      <c r="E2" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="4:6">
+      <c r="D3" s="3"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" customHeight="1" spans="3:6">
+      <c r="C4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="7">
+        <f>SUM(D2:D3)</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:6">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:6">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:6">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:6">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:6">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:6">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:6">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" t="s">
-        <v>245</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:6">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:6">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>248</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>251</v>
-      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" customHeight="1" spans="4:6">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" customHeight="1" spans="4:6">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" customHeight="1" spans="4:6">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" customHeight="1" spans="4:6">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" customHeight="1" spans="4:6">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" customHeight="1" spans="4:6">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" customHeight="1" spans="4:6">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" customHeight="1" spans="4:6">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" customHeight="1" spans="4:6">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" customHeight="1" spans="4:6">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" customHeight="1" spans="4:6">
       <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" customHeight="1" spans="3:6">
-      <c r="C16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="8">
-        <f>SUM(D2:D15)</f>
-        <v>25</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" customHeight="1" spans="4:6">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" customHeight="1" spans="4:6">
-      <c r="D17" s="9"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" customHeight="1" spans="4:6">
-      <c r="D18" s="9"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="4:6">
-      <c r="D19" s="9"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" customHeight="1" spans="4:6">
-      <c r="D20" s="9"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" customHeight="1" spans="4:6">
-      <c r="D21" s="9"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="4:6">
-      <c r="D22" s="9"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="4:6">
-      <c r="D23" s="9"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" customHeight="1" spans="4:6">
-      <c r="D24" s="9"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" customHeight="1" spans="4:6">
-      <c r="D25" s="9"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="4:6">
-      <c r="D26" s="9"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" customHeight="1" spans="4:6">
-      <c r="D27" s="9"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" customHeight="1" spans="4:6">
-      <c r="D28" s="9"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" customHeight="1" spans="4:6">
-      <c r="D29" s="9"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" customHeight="1" spans="4:6">
-      <c r="D30" s="9"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="4:6">
-      <c r="D31" s="9"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" customHeight="1" spans="4:6">
-      <c r="D32" s="9"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" customHeight="1" spans="4:6">
-      <c r="D33" s="9"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" customHeight="1" spans="4:6">
-      <c r="D34" s="9"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" customHeight="1" spans="4:6">
-      <c r="D35" s="9"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" customHeight="1" spans="4:6">
-      <c r="D36" s="9"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" customHeight="1" spans="4:6">
-      <c r="D37" s="9"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" customHeight="1" spans="4:6">
-      <c r="D38" s="9"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" customHeight="1" spans="4:6">
-      <c r="D39" s="9"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" customHeight="1" spans="4:6">
-      <c r="D40" s="9"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" customHeight="1" spans="4:6">
-      <c r="D41" s="9"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" customHeight="1" spans="4:6">
-      <c r="D42" s="9"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" customHeight="1" spans="4:6">
-      <c r="D43" s="9"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" customHeight="1" spans="4:6">
-      <c r="D44" s="9"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" customHeight="1" spans="4:6">
-      <c r="D45" s="9"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14">
-      <formula1>Customer!$B$3:$B$91</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>"Blom dibayar,Sdh dibayar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14">
-      <formula1>Item!$B$2:$B$81</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>Item!$B$9:$B$88</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>"Dipesan,Siap dikirim,Sdh dikirim"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12 F13 F14">
-      <formula1>"Blom dibayar,Sdh dibayar"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>Customer!$B$3:$B$91</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/NZR Online Shop.xlsx
+++ b/NZR Online Shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9810" activeTab="3"/>
+    <workbookView windowWidth="20925" windowHeight="9810" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Supllier" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="273">
   <si>
     <t>No</t>
   </si>
@@ -379,10 +379,10 @@
     <t>Gula Kelapa</t>
   </si>
   <si>
-    <t>Kara</t>
-  </si>
-  <si>
-    <t>Gula Pasir</t>
+    <t>Kara Santan Instan</t>
+  </si>
+  <si>
+    <t>Gula Pasir Curah</t>
   </si>
   <si>
     <t>Gula Kelapa Batok</t>
@@ -541,16 +541,31 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Agustus</t>
-  </si>
-  <si>
     <t>October</t>
   </si>
   <si>
     <t>Available</t>
   </si>
   <si>
-    <t>Telor Stock Status from Mama Ahda</t>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Minyak Goreng Filma 2 L</t>
+  </si>
+  <si>
+    <t>Minyak Goreng Sovia 1 L</t>
+  </si>
+  <si>
+    <t>Tepung Terigu Segitiga Biru 1 Kg</t>
+  </si>
+  <si>
+    <t>Kecap Manis Cap Bangau 550 mL</t>
+  </si>
+  <si>
+    <t>Susu Sapi Bear Brand 1 Can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunlight Cair </t>
   </si>
   <si>
     <t>GROSS PROFIT</t>
@@ -837,15 +852,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0;\-#,##0"/>
     <numFmt numFmtId="179" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="[$-409]mmmm\-yy;@"/>
-    <numFmt numFmtId="181" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="182" formatCode="#,##0;\-#,##0"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="[$-409]mmmm\-yy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -931,6 +946,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -939,20 +984,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,10 +998,40 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -983,9 +1044,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1000,13 +1061,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1029,46 +1083,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1137,7 +1152,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,13 +1230,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,7 +1260,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,6 +1332,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1263,25 +1362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,79 +1374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,6 +1391,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1403,11 +1442,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1417,21 +1462,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1451,21 +1481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1481,15 +1496,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1499,130 +1514,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1681,174 +1696,174 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1867,7 +1882,7 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1927,7 +1942,7 @@
   </cellStyles>
   <dxfs count="27">
     <dxf>
-      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -1947,7 +1962,7 @@
         <sz val="11"/>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -1977,7 +1992,7 @@
         <sz val="11"/>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -1987,7 +2002,7 @@
         <sz val="11"/>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="49" formatCode="@"/>
@@ -1996,10 +2011,10 @@
       <numFmt numFmtId="49" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="49" formatCode="@"/>
@@ -2994,8 +3009,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.287377868666212"/>
-          <c:y val="0.136635105608157"/>
+          <c:x val="0.277113270126066"/>
+          <c:y val="0.0275233138776823"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3025,85 +3040,8 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Stock!$H$1:$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Month</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Stock!$H$3:$H$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Stock!$H$3,Stock!$H$6:$H$7,Stock!$H$9)</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Agustus</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>September</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>October</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Stock!$H$3:$H$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Stock!$H$3,Stock!$H$6:$H$7,Stock!$H$9)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Stock!$I$1:$I$2</c:f>
@@ -3184,21 +3122,24 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Stock!$H$3:$H$9</c15:sqref>
+                    <c15:sqref>Stock!$H$3:$H$10</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Stock!$H$3,Stock!$H$6:$H$7,Stock!$H$9)</c:f>
+              <c:f>(Stock!$H$3,Stock!$H$6:$H$7,Stock!$H$10)</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Agustus</c:v>
+                  <c:v>August</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>September</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>November</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3212,10 +3153,10 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Stock!$I$3,Stock!$I$6:$I$7,Stock!$I$9)</c:f>
+              <c:f>(Stock!$I$3,Stock!$I$6:$I$7)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>67000</c:v>
                 </c:pt>
@@ -3223,7 +3164,7 @@
                   <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>137500</c:v>
+                  <c:v>141500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3241,169 +3182,6 @@
         <c:overlap val="100"/>
         <c:axId val="40760100"/>
         <c:axId val="343035455"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Stock!$G$1:$G$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Profit</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:effectLst>
-                            <a:glow rad="63500">
-                              <a:schemeClr val="accent3">
-                                <a:satMod val="175000"/>
-                                <a:alpha val="40000"/>
-                              </a:schemeClr>
-                            </a:glow>
-                            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                              <a:prstClr val="black">
-                                <a:alpha val="40000"/>
-                              </a:prstClr>
-                            </a:outerShdw>
-                            <a:reflection blurRad="6350" stA="60000" endA="900" endPos="60000" dist="29997" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
-                          </a:effectLst>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="ctr"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Stock!$H$3:$H$9</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Stock!$H$3,Stock!$H$6:$H$7,Stock!$H$9)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>Agustus</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>September</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>October</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>Stock!$G$3:$G$9</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Stock!$G$3,Stock!$G$6:$G$7,Stock!$G$9)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>#,##0</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>7000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>30000</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>52500</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>40000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="40760100"/>
@@ -3462,7 +3240,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4762,15 +4540,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>90805</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>126365</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4778,8 +4556,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="635" y="19685"/>
-        <a:ext cx="5576570" cy="3916680"/>
+        <a:off x="9525" y="19685"/>
+        <a:ext cx="5567680" cy="3317240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6138,8 +5916,8 @@
         <v>100</v>
       </c>
       <c r="D11" s="70">
-        <f>D10-Item!C6-Pemesanan!K21-Pemesanan!K25-Pemesanan!K29-Pemesanan!K34-Pemesanan!K39-Pemesanan!K43-Pemesanan!K49-Pemesanan!K53-Pemesanan!K63-Pemesanan!K67</f>
-        <v>-1130900</v>
+        <f>D10-Item!C6-Pemesanan!K22-Pemesanan!K26-Pemesanan!K30-Pemesanan!K35-Pemesanan!K40-Pemesanan!K44-Pemesanan!K50-Pemesanan!K54-Pemesanan!K64-Pemesanan!K69</f>
+        <v>-1145900</v>
       </c>
     </row>
   </sheetData>
@@ -6154,7 +5932,7 @@
       <formula1>Supllier!$C$19:$C$25</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E9">
-      <formula1>Pemesanan!$F$13:$F$20</formula1>
+      <formula1>Pemesanan!$F$13:$F$21</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6168,9 +5946,9 @@
   <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30.95" customHeight="1" outlineLevelCol="2"/>
@@ -6204,7 +5982,7 @@
         <v>103</v>
       </c>
       <c r="C3" s="59">
-        <f>Pemesanan!G13*Pemesanan!I13+Pemesanan!G14*Pemesanan!I14+Pemesanan!G15*Pemesanan!I15+Pemesanan!G45*Pemesanan!I45+Pemesanan!G59*Pemesanan!I59</f>
+        <f>Pemesanan!G13*Pemesanan!I13+Pemesanan!G14*Pemesanan!I14+Pemesanan!G15*Pemesanan!I15+Pemesanan!G46*Pemesanan!I46+Pemesanan!G60*Pemesanan!I60</f>
         <v>2026000</v>
       </c>
     </row>
@@ -6213,7 +5991,7 @@
         <v>104</v>
       </c>
       <c r="C4" s="19">
-        <f>Pemesanan!G16*Pemesanan!I16+Pemesanan!G23*Pemesanan!I23+Pemesanan!G27*Pemesanan!I27+Pemesanan!G31*Pemesanan!I31+Pemesanan!G36*Pemesanan!I36+Pemesanan!G41*Pemesanan!I41+Pemesanan!G46*Pemesanan!I46+Pemesanan!G51*Pemesanan!I51+Pemesanan!G60*Pemesanan!I60+Pemesanan!G65*Pemesanan!I65</f>
+        <f>Pemesanan!G16*Pemesanan!I16+Pemesanan!G24*Pemesanan!I24+Pemesanan!G28*Pemesanan!I28+Pemesanan!G32*Pemesanan!I32+Pemesanan!G37*Pemesanan!I37+Pemesanan!G42*Pemesanan!I42+Pemesanan!G47*Pemesanan!I47+Pemesanan!G52*Pemesanan!I52+Pemesanan!G61*Pemesanan!I61+Pemesanan!G66*Pemesanan!I66</f>
         <v>2778400</v>
       </c>
     </row>
@@ -6677,12 +6455,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA96"/>
+  <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="29.1" customHeight="1"/>
@@ -6776,7 +6554,7 @@
         <v>105</v>
       </c>
       <c r="R3" s="5">
-        <f>G32*I32+G37*I37+G55*I55+G61*I61+G69*I69+G73*I73+G77*I77+G81*I81+G86*I86+G47*I47+G82*I82+G90*I90</f>
+        <f>G33*I33+G38*I38+G56*I56+G62*I62+G71*I71+G75*I75+G79*I79+G83*I83+G88*I88+G48*I48+G84*I84+G92*I92</f>
         <v>2197040</v>
       </c>
     </row>
@@ -6984,15 +6762,15 @@
         <v>500</v>
       </c>
       <c r="K13" s="36">
-        <f t="shared" ref="K13:K19" si="0">J13*I13</f>
+        <f t="shared" ref="K13:K20" si="0">J13*I13</f>
         <v>7000</v>
       </c>
       <c r="L13" s="45">
-        <f t="shared" ref="L13:L19" si="1">N13-G13-J13</f>
+        <f t="shared" ref="L13:L20" si="1">N13-G13-J13</f>
         <v>500</v>
       </c>
       <c r="M13" s="36">
-        <f t="shared" ref="M13:M19" si="2">L13*I13</f>
+        <f t="shared" ref="M13:M20" si="2">L13*I13</f>
         <v>7000</v>
       </c>
       <c r="N13" s="36">
@@ -7001,7 +6779,7 @@
     </row>
     <row r="14" s="27" customFormat="1" ht="36" customHeight="1" spans="1:14">
       <c r="A14" s="33">
-        <f t="shared" ref="A14:A19" si="3">A13+1</f>
+        <f t="shared" ref="A14:A20" si="3">A13+1</f>
         <v>2</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -7287,369 +7065,369 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="20" s="27" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A20" s="33"/>
-      <c r="E20" s="37"/>
-      <c r="J20" s="46"/>
-      <c r="L20" s="47"/>
-    </row>
-    <row r="21" s="27" customFormat="1" customHeight="1" spans="1:13">
+    <row r="20" s="27" customFormat="1" ht="36" customHeight="1" spans="1:14">
+      <c r="A20" s="33">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="35">
+        <v>44141</v>
+      </c>
+      <c r="G20" s="36">
+        <v>22500</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="I20" s="36">
+        <v>30</v>
+      </c>
+      <c r="J20" s="44">
+        <v>500</v>
+      </c>
+      <c r="K20" s="36">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="L20" s="45">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="M20" s="36">
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+      <c r="N20" s="36">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="21" s="27" customFormat="1" customHeight="1" spans="1:12">
       <c r="A21" s="33"/>
       <c r="E21" s="37"/>
-      <c r="J21" s="48" t="s">
+      <c r="J21" s="46"/>
+      <c r="L21" s="47"/>
+    </row>
+    <row r="22" s="27" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A22" s="33"/>
+      <c r="E22" s="37"/>
+      <c r="J22" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="K21" s="49">
-        <f>SUM(K13:K20)</f>
-        <v>172000</v>
-      </c>
-      <c r="L21" s="48" t="s">
+      <c r="K22" s="49">
+        <f>SUM(K13:K21)</f>
+        <v>187000</v>
+      </c>
+      <c r="L22" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="M21" s="49">
-        <f>SUM(M13:M20)</f>
-        <v>254500</v>
-      </c>
-    </row>
-    <row r="22" ht="6" customHeight="1" spans="5:5">
-      <c r="E22" s="21"/>
-    </row>
-    <row r="23" s="27" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A23" s="33">
+      <c r="M22" s="49">
+        <f>SUM(M13:M21)</f>
+        <v>284500</v>
+      </c>
+    </row>
+    <row r="23" ht="6" customHeight="1" spans="5:5">
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" s="27" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A24" s="33">
         <v>1</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B24" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C24" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D24" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E24" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F24" s="35">
         <v>44082</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G24" s="36">
         <v>22900</v>
       </c>
-      <c r="H23" s="36" t="s">
+      <c r="H24" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I24" s="36">
         <v>24</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J24" s="44">
         <v>1000</v>
       </c>
-      <c r="K23" s="36">
-        <f>J23*I23</f>
+      <c r="K24" s="36">
+        <f>J24*I24</f>
         <v>24000</v>
       </c>
-      <c r="L23" s="45">
-        <f>N23-G23-J23</f>
+      <c r="L24" s="45">
+        <f>N24-G24-J24</f>
         <v>1100</v>
       </c>
-      <c r="M23" s="36">
-        <f>L23*I23</f>
+      <c r="M24" s="36">
+        <f>L24*I24</f>
         <v>26400</v>
       </c>
-      <c r="N23" s="36">
+      <c r="N24" s="36">
         <v>25000</v>
       </c>
     </row>
-    <row r="24" s="27" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A24" s="33"/>
-      <c r="E24" s="37"/>
-      <c r="J24" s="46"/>
-      <c r="L24" s="47"/>
-    </row>
-    <row r="25" s="27" customFormat="1" customHeight="1" spans="1:13">
+    <row r="25" s="27" customFormat="1" customHeight="1" spans="1:12">
       <c r="A25" s="33"/>
       <c r="E25" s="37"/>
-      <c r="J25" s="48" t="s">
+      <c r="J25" s="46"/>
+      <c r="L25" s="47"/>
+    </row>
+    <row r="26" s="27" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A26" s="33"/>
+      <c r="E26" s="37"/>
+      <c r="J26" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="K25" s="49">
-        <f>SUM(K23:K24)</f>
+      <c r="K26" s="49">
+        <f>SUM(K24:K25)</f>
         <v>24000</v>
       </c>
-      <c r="L25" s="48" t="s">
+      <c r="L26" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="M25" s="49">
-        <f>SUM(M23:M24)</f>
+      <c r="M26" s="49">
+        <f>SUM(M24:M25)</f>
         <v>26400</v>
       </c>
     </row>
-    <row r="26" ht="6.95" customHeight="1" spans="1:5">
-      <c r="A26" s="38"/>
-      <c r="E26" s="21"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:14">
-      <c r="A27" s="38">
+    <row r="27" ht="6.95" customHeight="1" spans="1:5">
+      <c r="A27" s="38"/>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:14">
+      <c r="A28" s="38">
         <v>1</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B28" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D28" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E28" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F28" s="39">
         <v>44082</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G28" s="19">
         <v>11600</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="H28" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>12</v>
       </c>
-      <c r="J27" s="50">
+      <c r="J28" s="50">
         <v>1000</v>
       </c>
-      <c r="K27" s="36">
-        <f t="shared" ref="K27:K32" si="4">J27*I27</f>
+      <c r="K28" s="36">
+        <f t="shared" ref="K28:K33" si="4">J28*I28</f>
         <v>12000</v>
       </c>
-      <c r="L27" s="45">
-        <f>N27-G27-J27</f>
+      <c r="L28" s="45">
+        <f>N28-G28-J28</f>
         <v>1400</v>
       </c>
-      <c r="M27" s="36">
-        <f>L27*I27</f>
+      <c r="M28" s="36">
+        <f>L28*I28</f>
         <v>16800</v>
       </c>
-      <c r="N27" s="19">
+      <c r="N28" s="19">
         <v>14000</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:13">
-      <c r="A28" s="38"/>
-      <c r="E28" s="21"/>
-      <c r="H28" s="40"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="27"/>
     </row>
     <row r="29" customHeight="1" spans="1:13">
       <c r="A29" s="38"/>
       <c r="E29" s="21"/>
       <c r="H29" s="40"/>
-      <c r="J29" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="K29" s="49">
-        <f>SUM(K27:K28)</f>
-        <v>12000</v>
-      </c>
-      <c r="L29" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="M29" s="49">
-        <f>SUM(M27:M28)</f>
-        <v>16800</v>
-      </c>
-    </row>
-    <row r="30" ht="8.1" customHeight="1" spans="1:5">
+      <c r="J29" s="46"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:13">
       <c r="A30" s="38"/>
       <c r="E30" s="21"/>
-    </row>
-    <row r="31" ht="44.1" customHeight="1" spans="1:14">
-      <c r="A31" s="38">
+      <c r="H30" s="40"/>
+      <c r="J30" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K30" s="49">
+        <f>SUM(K28:K29)</f>
+        <v>12000</v>
+      </c>
+      <c r="L30" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="M30" s="49">
+        <f>SUM(M28:M29)</f>
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="31" ht="8.1" customHeight="1" spans="1:5">
+      <c r="A31" s="38"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" ht="44.1" customHeight="1" spans="1:14">
+      <c r="A32" s="38">
         <v>1</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B32" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D32" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E32" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F32" s="39">
         <v>44082</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G32" s="19">
         <v>9000</v>
       </c>
-      <c r="H31" s="40" t="s">
+      <c r="H32" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <v>12</v>
       </c>
-      <c r="J31" s="50">
+      <c r="J32" s="50">
         <v>1000</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K32" s="36">
         <f t="shared" si="4"/>
         <v>12000</v>
       </c>
-      <c r="L31" s="45">
-        <f>N31-G31-J31</f>
+      <c r="L32" s="45">
+        <f>N32-G32-J32</f>
         <v>1000</v>
       </c>
-      <c r="M31" s="36">
-        <f>L31*I31</f>
+      <c r="M32" s="36">
+        <f>L32*I32</f>
         <v>12000</v>
       </c>
-      <c r="N31" s="19">
+      <c r="N32" s="19">
         <v>11000</v>
       </c>
     </row>
-    <row r="32" ht="44.1" customHeight="1" spans="1:14">
-      <c r="A32" s="38">
-        <f>A31+1</f>
+    <row r="33" ht="44.1" customHeight="1" spans="1:14">
+      <c r="A33" s="38">
+        <f>A32+1</f>
         <v>2</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B33" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D33" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E33" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F33" s="39">
         <v>44130</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G33" s="19">
         <v>9170</v>
       </c>
-      <c r="H32" s="40" t="s">
+      <c r="H33" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>12</v>
       </c>
-      <c r="J32" s="50">
+      <c r="J33" s="50">
         <v>0</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K33" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L32" s="45">
-        <f>N32-G32-J32</f>
+      <c r="L33" s="45">
+        <f>N33-G33-J33</f>
         <v>1830</v>
       </c>
-      <c r="M32" s="36">
-        <f>L32*I32</f>
+      <c r="M33" s="36">
+        <f>L33*I33</f>
         <v>21960</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N33" s="19">
         <v>11000</v>
       </c>
     </row>
-    <row r="33" ht="27.95" customHeight="1" spans="1:14">
-      <c r="A33" s="38"/>
-      <c r="B33" s="41"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="40"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="19"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:13">
+    <row r="34" ht="27.95" customHeight="1" spans="1:14">
       <c r="A34" s="38"/>
-      <c r="E34" s="21"/>
-      <c r="J34" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="K34" s="49">
-        <f>SUM(K31:K33)</f>
-        <v>12000</v>
-      </c>
-      <c r="L34" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="M34" s="49">
-        <f>SUM(M31:M33)</f>
-        <v>33960</v>
-      </c>
-    </row>
-    <row r="35" ht="6" customHeight="1" spans="1:5">
+      <c r="B34" s="41"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="40"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="19"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:13">
       <c r="A35" s="38"/>
       <c r="E35" s="21"/>
-    </row>
-    <row r="36" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A36" s="38">
-        <v>1</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="39">
-        <v>44082</v>
-      </c>
-      <c r="G36" s="19">
-        <v>19800</v>
-      </c>
-      <c r="H36" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="I36">
-        <v>12</v>
-      </c>
-      <c r="J36" s="50">
-        <v>1000</v>
-      </c>
-      <c r="K36" s="36">
-        <f>J36*I36</f>
+      <c r="J35" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K35" s="49">
+        <f>SUM(K32:K34)</f>
         <v>12000</v>
       </c>
-      <c r="L36" s="45">
-        <f>N36-G36-J36</f>
-        <v>1200</v>
-      </c>
-      <c r="M36" s="36">
-        <f>L36*I36</f>
-        <v>14400</v>
-      </c>
-      <c r="N36" s="19">
-        <v>22000</v>
-      </c>
+      <c r="L35" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="M35" s="49">
+        <f>SUM(M32:M34)</f>
+        <v>33960</v>
+      </c>
+    </row>
+    <row r="36" ht="6" customHeight="1" spans="1:5">
+      <c r="A36" s="38"/>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" ht="42.95" customHeight="1" spans="1:14">
       <c r="A37" s="38">
-        <f>A36+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" s="41" t="s">
         <v>110</v>
@@ -7661,13 +7439,13 @@
         <v>146</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F37" s="39">
-        <v>44130</v>
+        <v>44082</v>
       </c>
       <c r="G37" s="19">
-        <v>19500</v>
+        <v>19800</v>
       </c>
       <c r="H37" s="40" t="s">
         <v>152</v>
@@ -7676,212 +7454,212 @@
         <v>12</v>
       </c>
       <c r="J37" s="50">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K37" s="36">
-        <v>0</v>
+        <f>J37*I37</f>
+        <v>12000</v>
       </c>
       <c r="L37" s="45">
         <f>N37-G37-J37</f>
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="M37" s="36">
         <f>L37*I37</f>
-        <v>30000</v>
+        <v>14400</v>
       </c>
       <c r="N37" s="19">
         <v>22000</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:13">
-      <c r="A38" s="38"/>
-      <c r="E38" s="21"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="36"/>
+    <row r="38" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A38" s="38">
+        <f>A37+1</f>
+        <v>2</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="39">
+        <v>44130</v>
+      </c>
+      <c r="G38" s="19">
+        <v>19500</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="I38">
+        <v>12</v>
+      </c>
+      <c r="J38" s="50">
+        <v>0</v>
+      </c>
+      <c r="K38" s="36">
+        <v>0</v>
+      </c>
+      <c r="L38" s="45">
+        <f>N38-G38-J38</f>
+        <v>2500</v>
+      </c>
+      <c r="M38" s="36">
+        <f>L38*I38</f>
+        <v>30000</v>
+      </c>
+      <c r="N38" s="19">
+        <v>22000</v>
+      </c>
     </row>
     <row r="39" customHeight="1" spans="1:13">
       <c r="A39" s="38"/>
       <c r="E39" s="21"/>
-      <c r="J39" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="K39" s="49">
-        <f>SUM(K36:K38)</f>
-        <v>12000</v>
-      </c>
-      <c r="L39" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="M39" s="49">
-        <f>SUM(M36:M38)</f>
-        <v>44400</v>
-      </c>
-    </row>
-    <row r="40" ht="6" customHeight="1" spans="1:5">
+      <c r="J39" s="50"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="36"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:13">
       <c r="A40" s="38"/>
       <c r="E40" s="21"/>
-    </row>
-    <row r="41" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A41" s="38">
+      <c r="J40" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K40" s="49">
+        <f>SUM(K37:K39)</f>
+        <v>12000</v>
+      </c>
+      <c r="L40" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="M40" s="49">
+        <f>SUM(M37:M39)</f>
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="41" ht="6" customHeight="1" spans="1:5">
+      <c r="A41" s="38"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A42" s="38">
         <v>1</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B42" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D42" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E42" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="39">
+      <c r="F42" s="39">
         <v>44082</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G42" s="19">
         <v>8700</v>
       </c>
-      <c r="H41" s="40" t="s">
+      <c r="H42" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="I41">
+      <c r="I42">
         <v>30</v>
       </c>
-      <c r="J41" s="50">
+      <c r="J42" s="50">
         <v>300</v>
       </c>
-      <c r="K41" s="36">
-        <f t="shared" ref="K41:K47" si="5">J41*I41</f>
+      <c r="K42" s="36">
+        <f t="shared" ref="K42:K48" si="5">J42*I42</f>
         <v>9000</v>
       </c>
-      <c r="L41" s="45">
-        <f t="shared" ref="L41:L47" si="6">N41-G41-J41</f>
+      <c r="L42" s="45">
+        <f t="shared" ref="L42:L48" si="6">N42-G42-J42</f>
         <v>500</v>
       </c>
-      <c r="M41" s="36">
-        <f t="shared" ref="M41:M47" si="7">L41*I41</f>
+      <c r="M42" s="36">
+        <f t="shared" ref="M42:M48" si="7">L42*I42</f>
         <v>15000</v>
       </c>
-      <c r="N41" s="19">
+      <c r="N42" s="19">
         <v>9500</v>
       </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:13">
-      <c r="A42" s="38"/>
-      <c r="E42" s="21"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="36"/>
     </row>
     <row r="43" customHeight="1" spans="1:13">
       <c r="A43" s="38"/>
       <c r="E43" s="21"/>
-      <c r="J43" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="K43" s="49">
-        <f>SUM(K40:K42)</f>
-        <v>9000</v>
-      </c>
-      <c r="L43" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="M43" s="49">
-        <f>SUM(M40:M42)</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="44" ht="6" customHeight="1" spans="1:5">
+      <c r="J43" s="50"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="36"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:13">
       <c r="A44" s="38"/>
       <c r="E44" s="21"/>
-    </row>
-    <row r="45" ht="30" customHeight="1" spans="1:14">
-      <c r="A45" s="38">
+      <c r="J44" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K44" s="49">
+        <f>SUM(K41:K43)</f>
+        <v>9000</v>
+      </c>
+      <c r="L44" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="M44" s="49">
+        <f>SUM(M41:M43)</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="45" ht="6" customHeight="1" spans="1:5">
+      <c r="A45" s="38"/>
+      <c r="E45" s="21"/>
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="1:14">
+      <c r="A46" s="38">
         <v>1</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B46" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D46" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E46" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="39">
+      <c r="F46" s="39">
         <v>44063</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G46" s="19">
         <v>19500</v>
       </c>
-      <c r="H45" s="40" t="s">
+      <c r="H46" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="I45">
+      <c r="I46">
         <v>10</v>
       </c>
-      <c r="J45" s="50">
+      <c r="J46" s="50">
         <v>1500</v>
       </c>
-      <c r="K45" s="36">
+      <c r="K46" s="36">
         <f t="shared" si="5"/>
         <v>15000</v>
-      </c>
-      <c r="L45" s="45">
-        <f t="shared" si="6"/>
-        <v>2000</v>
-      </c>
-      <c r="M45" s="36">
-        <f t="shared" si="7"/>
-        <v>20000</v>
-      </c>
-      <c r="N45" s="19">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="46" ht="30" customHeight="1" spans="1:14">
-      <c r="A46" s="38">
-        <f>A45+1</f>
-        <v>2</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F46" s="39">
-        <v>44082</v>
-      </c>
-      <c r="G46" s="19">
-        <v>19500</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="I46">
-        <v>20</v>
-      </c>
-      <c r="J46" s="50">
-        <v>1500</v>
-      </c>
-      <c r="K46" s="36">
-        <f t="shared" si="5"/>
-        <v>30000</v>
       </c>
       <c r="L46" s="45">
         <f t="shared" si="6"/>
@@ -7889,16 +7667,16 @@
       </c>
       <c r="M46" s="36">
         <f t="shared" si="7"/>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="N46" s="19">
         <v>23000</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="36" customHeight="1" spans="1:14">
+    <row r="47" ht="30" customHeight="1" spans="1:14">
       <c r="A47" s="38">
         <f>A46+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" s="41" t="s">
         <v>115</v>
@@ -7913,128 +7691,162 @@
         <v>92</v>
       </c>
       <c r="F47" s="39">
-        <v>44134</v>
+        <v>44082</v>
       </c>
       <c r="G47" s="19">
-        <v>20000</v>
+        <v>19500</v>
       </c>
       <c r="H47" s="40" t="s">
         <v>148</v>
       </c>
       <c r="I47">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J47" s="50">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="K47" s="36">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L47" s="45">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M47" s="36">
         <f t="shared" si="7"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="N47" s="19">
         <v>23000</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:13">
-      <c r="A48" s="38"/>
-      <c r="E48" s="21"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="36"/>
+    <row r="48" customFormat="1" ht="36" customHeight="1" spans="1:14">
+      <c r="A48" s="38">
+        <f>A47+1</f>
+        <v>3</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="39">
+        <v>44134</v>
+      </c>
+      <c r="G48" s="19">
+        <v>20000</v>
+      </c>
+      <c r="H48" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="I48">
+        <v>10</v>
+      </c>
+      <c r="J48" s="50">
+        <v>0</v>
+      </c>
+      <c r="K48" s="36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="45">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="M48" s="36">
+        <f t="shared" si="7"/>
+        <v>30000</v>
+      </c>
+      <c r="N48" s="19">
+        <v>23000</v>
+      </c>
     </row>
     <row r="49" customHeight="1" spans="1:13">
       <c r="A49" s="38"/>
       <c r="E49" s="21"/>
-      <c r="J49" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="K49" s="49">
-        <f>SUM(K45:K48)</f>
-        <v>45000</v>
-      </c>
-      <c r="L49" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="M49" s="49">
-        <f>SUM(M45:M48)</f>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="50" ht="8.1" customHeight="1" spans="1:5">
+      <c r="J49" s="50"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="36"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:13">
       <c r="A50" s="38"/>
       <c r="E50" s="21"/>
-    </row>
-    <row r="51" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A51" s="38">
+      <c r="J50" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K50" s="49">
+        <f>SUM(K46:K49)</f>
+        <v>45000</v>
+      </c>
+      <c r="L50" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="M50" s="49">
+        <f>SUM(M46:M49)</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="51" ht="8.1" customHeight="1" spans="1:5">
+      <c r="A51" s="38"/>
+      <c r="E51" s="21"/>
+    </row>
+    <row r="52" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A52" s="38">
         <v>1</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B52" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>135</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D52" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E51" s="34" t="s">
+      <c r="E52" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F51" s="39">
+      <c r="F52" s="39">
         <v>44082</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G52" s="19">
         <v>16000</v>
       </c>
-      <c r="H51" s="40" t="s">
+      <c r="H52" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="I51">
+      <c r="I52">
         <v>10</v>
       </c>
-      <c r="J51" s="50">
+      <c r="J52" s="50">
         <v>1000</v>
       </c>
-      <c r="K51" s="36">
-        <f>J51*I51</f>
+      <c r="K52" s="36">
+        <f>J52*I52</f>
         <v>10000</v>
       </c>
-      <c r="L51" s="45">
-        <f>N51-G51-J51</f>
+      <c r="L52" s="45">
+        <f>N52-G52-J52</f>
         <v>2000</v>
       </c>
-      <c r="M51" s="36">
-        <f>L51*I51</f>
+      <c r="M52" s="36">
+        <f>L52*I52</f>
         <v>20000</v>
       </c>
-      <c r="N51" s="19">
+      <c r="N52" s="19">
         <v>19000</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:14">
-      <c r="A52" s="38"/>
-      <c r="B52" s="41"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="40"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="19"/>
-    </row>
-    <row r="53" ht="36.95" customHeight="1" spans="1:14">
+    <row r="53" customHeight="1" spans="1:14">
       <c r="A53" s="38"/>
       <c r="B53" s="41"/>
       <c r="D53" s="27"/>
@@ -8042,23 +7854,13 @@
       <c r="F53" s="39"/>
       <c r="G53" s="19"/>
       <c r="H53" s="40"/>
-      <c r="J53" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="K53" s="49">
-        <f>SUM(K50:K52)</f>
-        <v>10000</v>
-      </c>
-      <c r="L53" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="M53" s="49">
-        <f>SUM(M50:M52)</f>
-        <v>20000</v>
-      </c>
+      <c r="J53" s="50"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="36"/>
       <c r="N53" s="19"/>
     </row>
-    <row r="54" ht="6" customHeight="1" spans="1:14">
+    <row r="54" ht="36.95" customHeight="1" spans="1:14">
       <c r="A54" s="38"/>
       <c r="B54" s="41"/>
       <c r="D54" s="27"/>
@@ -8066,140 +7868,116 @@
       <c r="F54" s="39"/>
       <c r="G54" s="19"/>
       <c r="H54" s="40"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="51"/>
-      <c r="M54" s="36"/>
+      <c r="J54" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K54" s="49">
+        <f>SUM(K51:K53)</f>
+        <v>10000</v>
+      </c>
+      <c r="L54" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="M54" s="49">
+        <f>SUM(M51:M53)</f>
+        <v>20000</v>
+      </c>
       <c r="N54" s="19"/>
     </row>
-    <row r="55" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A55" s="38">
+    <row r="55" ht="6" customHeight="1" spans="1:14">
+      <c r="A55" s="38"/>
+      <c r="B55" s="41"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="40"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="19"/>
+    </row>
+    <row r="56" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A56" s="38">
         <v>1</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B56" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>135</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D56" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E56" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F55" s="39">
+      <c r="F56" s="39">
         <v>44125</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G56" s="19">
         <v>12200</v>
       </c>
-      <c r="H55" s="40" t="s">
+      <c r="H56" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="I55">
+      <c r="I56">
         <v>10</v>
       </c>
-      <c r="J55" s="50">
+      <c r="J56" s="50">
         <v>0</v>
       </c>
-      <c r="K55" s="36">
-        <f>J55*I55</f>
+      <c r="K56" s="36">
+        <f>J56*I56</f>
         <v>0</v>
       </c>
-      <c r="L55" s="45">
-        <f>N55-G55-J55</f>
+      <c r="L56" s="45">
+        <f>N56-G56-J56</f>
         <v>2800</v>
       </c>
-      <c r="M55" s="36">
-        <f>L55*I55</f>
+      <c r="M56" s="36">
+        <f>L56*I56</f>
         <v>28000</v>
       </c>
-      <c r="N55" s="19">
+      <c r="N56" s="19">
         <v>15000</v>
       </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:13">
-      <c r="A56" s="38"/>
-      <c r="E56" s="21"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="45"/>
-      <c r="M56" s="36"/>
     </row>
     <row r="57" customHeight="1" spans="1:13">
       <c r="A57" s="38"/>
       <c r="E57" s="21"/>
-      <c r="J57" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="K57" s="49">
-        <f>SUM(K54:K56)</f>
-        <v>0</v>
-      </c>
-      <c r="L57" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="M57" s="49">
-        <f>SUM(M54:M56)</f>
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="58" ht="6" customHeight="1" spans="1:5">
+      <c r="J57" s="50"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="36"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:13">
       <c r="A58" s="38"/>
       <c r="E58" s="21"/>
-    </row>
-    <row r="59" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A59" s="38">
-        <v>1</v>
-      </c>
-      <c r="B59" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" t="s">
-        <v>135</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F59" s="39">
-        <v>44063</v>
-      </c>
-      <c r="G59" s="19">
-        <v>2750</v>
-      </c>
-      <c r="H59" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="I59">
-        <v>36</v>
-      </c>
-      <c r="J59" s="50">
-        <v>250</v>
-      </c>
-      <c r="K59" s="36">
-        <f>J59*I59</f>
-        <v>9000</v>
-      </c>
-      <c r="L59" s="45">
-        <f>N59-G59-J59</f>
-        <v>500</v>
-      </c>
-      <c r="M59" s="36">
-        <f>L59*I59</f>
-        <v>18000</v>
-      </c>
-      <c r="N59" s="19">
-        <v>3500</v>
-      </c>
+      <c r="J58" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K58" s="49">
+        <f>SUM(K55:K57)</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="M58" s="49">
+        <f>SUM(M55:M57)</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="59" ht="6" customHeight="1" spans="1:5">
+      <c r="A59" s="38"/>
+      <c r="E59" s="21"/>
     </row>
     <row r="60" ht="42.95" customHeight="1" spans="1:14">
       <c r="A60" s="38">
-        <f>A59+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" s="41" t="s">
         <v>117</v>
@@ -8214,7 +7992,7 @@
         <v>92</v>
       </c>
       <c r="F60" s="39">
-        <v>44082</v>
+        <v>44063</v>
       </c>
       <c r="G60" s="19">
         <v>2750</v>
@@ -8223,14 +8001,14 @@
         <v>152</v>
       </c>
       <c r="I60">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="J60" s="50">
         <v>250</v>
       </c>
       <c r="K60" s="36">
         <f>J60*I60</f>
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L60" s="45">
         <f>N60-G60-J60</f>
@@ -8238,7 +8016,7 @@
       </c>
       <c r="M60" s="36">
         <f>L60*I60</f>
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="N60" s="19">
         <v>3500</v>
@@ -8247,7 +8025,7 @@
     <row r="61" ht="42.95" customHeight="1" spans="1:14">
       <c r="A61" s="38">
         <f>A60+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" s="41" t="s">
         <v>117</v>
@@ -8262,7 +8040,7 @@
         <v>92</v>
       </c>
       <c r="F61" s="39">
-        <v>44125</v>
+        <v>44082</v>
       </c>
       <c r="G61" s="19">
         <v>2750</v>
@@ -8274,701 +8052,798 @@
         <v>72</v>
       </c>
       <c r="J61" s="50">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K61" s="36">
         <f>J61*I61</f>
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="L61" s="45">
         <f>N61-G61-J61</f>
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="M61" s="36">
         <f>L61*I61</f>
-        <v>54000</v>
+        <v>36000</v>
       </c>
       <c r="N61" s="19">
         <v>3500</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:13">
-      <c r="A62" s="38"/>
-      <c r="E62" s="21"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="45"/>
-      <c r="M62" s="36"/>
+    <row r="62" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A62" s="38">
+        <f>A61+1</f>
+        <v>3</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" s="39">
+        <v>44125</v>
+      </c>
+      <c r="G62" s="19">
+        <v>2750</v>
+      </c>
+      <c r="H62" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="I62">
+        <v>72</v>
+      </c>
+      <c r="J62" s="50">
+        <v>0</v>
+      </c>
+      <c r="K62" s="36">
+        <f t="shared" ref="K62:K67" si="8">J62*I62</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="45">
+        <f t="shared" ref="L62:L67" si="9">N62-G62-J62</f>
+        <v>750</v>
+      </c>
+      <c r="M62" s="36">
+        <f t="shared" ref="M62:M67" si="10">L62*I62</f>
+        <v>54000</v>
+      </c>
+      <c r="N62" s="19">
+        <v>3500</v>
+      </c>
     </row>
     <row r="63" customHeight="1" spans="1:13">
       <c r="A63" s="38"/>
       <c r="E63" s="21"/>
-      <c r="J63" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="K63" s="49">
-        <f>SUM(K60:K62)</f>
-        <v>18000</v>
-      </c>
-      <c r="L63" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="M63" s="49">
-        <f>SUM(M60:M62)</f>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="64" ht="6" customHeight="1" spans="1:5">
+      <c r="J63" s="50"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="36"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:13">
       <c r="A64" s="38"/>
       <c r="E64" s="21"/>
-    </row>
-    <row r="65" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A65" s="38">
+      <c r="J64" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K64" s="49">
+        <f>SUM(K61:K63)</f>
+        <v>18000</v>
+      </c>
+      <c r="L64" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="M64" s="49">
+        <f>SUM(M61:M63)</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="65" ht="6" customHeight="1" spans="1:5">
+      <c r="A65" s="38"/>
+      <c r="E65" s="21"/>
+    </row>
+    <row r="66" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A66" s="38">
         <v>1</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B66" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>135</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D66" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E65" s="34" t="s">
+      <c r="E66" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F65" s="39">
+      <c r="F66" s="39">
         <v>44082</v>
       </c>
-      <c r="G65" s="19">
+      <c r="G66" s="19">
         <v>12000</v>
       </c>
-      <c r="H65" s="40" t="s">
+      <c r="H66" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="I65">
+      <c r="I66">
         <v>5</v>
       </c>
-      <c r="J65" s="50">
+      <c r="J66" s="50">
         <v>1000</v>
       </c>
-      <c r="K65" s="36">
-        <f>J65*I65</f>
+      <c r="K66" s="36">
+        <f t="shared" si="8"/>
         <v>5000</v>
       </c>
-      <c r="L65" s="45">
-        <f>N65-G65-J65</f>
+      <c r="L66" s="45">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
-      <c r="M65" s="36">
-        <f>L65*I65</f>
+      <c r="M66" s="36">
+        <f t="shared" si="10"/>
         <v>5000</v>
       </c>
-      <c r="N65" s="19">
+      <c r="N66" s="19">
         <v>14000</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:13">
-      <c r="A66" s="38"/>
-      <c r="E66" s="21"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="45"/>
-      <c r="M66" s="36"/>
-    </row>
-    <row r="67" customHeight="1" spans="1:13">
-      <c r="A67" s="38"/>
-      <c r="E67" s="21"/>
-      <c r="J67" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="K67" s="49">
-        <f>SUM(K64:K66)</f>
-        <v>5000</v>
-      </c>
-      <c r="L67" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="M67" s="49">
-        <f>SUM(M64:M66)</f>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="68" ht="6" customHeight="1" spans="1:5">
+    <row r="67" customFormat="1" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A67" s="38">
+        <f>A66+1</f>
+        <v>2</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F67" s="39">
+        <v>44120</v>
+      </c>
+      <c r="G67" s="19">
+        <v>12400</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67" s="50">
+        <v>0</v>
+      </c>
+      <c r="K67" s="36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="45">
+        <f t="shared" si="9"/>
+        <v>2600</v>
+      </c>
+      <c r="M67" s="36">
+        <f t="shared" si="10"/>
+        <v>13000</v>
+      </c>
+      <c r="N67" s="19">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:13">
       <c r="A68" s="38"/>
       <c r="E68" s="21"/>
-    </row>
-    <row r="69" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A69" s="38">
-        <v>1</v>
-      </c>
-      <c r="B69" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="C69" t="s">
-        <v>162</v>
-      </c>
-      <c r="D69" s="27"/>
-      <c r="E69" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="F69" s="39">
-        <v>44130</v>
-      </c>
-      <c r="G69" s="19">
-        <v>12500</v>
-      </c>
-      <c r="H69" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="I69">
-        <v>12</v>
-      </c>
-      <c r="J69" s="50">
-        <v>0</v>
-      </c>
-      <c r="K69" s="36">
-        <f>J69*I69</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="45">
-        <f>N69-G69-J69</f>
-        <v>2000</v>
-      </c>
-      <c r="M69" s="36">
-        <f>L69*I69</f>
-        <v>24000</v>
-      </c>
-      <c r="N69" s="19">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:13">
+      <c r="J68" s="50"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="45"/>
+      <c r="M68" s="36"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:13">
+      <c r="A69" s="38"/>
+      <c r="E69" s="21"/>
+      <c r="J69" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K69" s="49">
+        <f>SUM(K65:K68)</f>
+        <v>5000</v>
+      </c>
+      <c r="L69" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="M69" s="49">
+        <f>SUM(M65:M68)</f>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="70" ht="6" customHeight="1" spans="1:5">
       <c r="A70" s="38"/>
       <c r="E70" s="21"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="45"/>
-      <c r="M70" s="36"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:13">
-      <c r="A71" s="38"/>
-      <c r="E71" s="21"/>
-      <c r="J71" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="K71" s="49">
-        <f>SUM(K68:K70)</f>
+    </row>
+    <row r="71" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A71" s="38">
+        <v>1</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="27"/>
+      <c r="E71" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" s="39">
+        <v>44130</v>
+      </c>
+      <c r="G71" s="19">
+        <v>12500</v>
+      </c>
+      <c r="H71" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="I71">
+        <v>12</v>
+      </c>
+      <c r="J71" s="50">
         <v>0</v>
       </c>
-      <c r="L71" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="M71" s="49">
-        <f>SUM(M68:M70)</f>
+      <c r="K71" s="36">
+        <f>J71*I71</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="45">
+        <f>N71-G71-J71</f>
+        <v>2000</v>
+      </c>
+      <c r="M71" s="36">
+        <f>L71*I71</f>
         <v>24000</v>
       </c>
-    </row>
-    <row r="72" ht="5.1" customHeight="1" spans="1:5">
+      <c r="N71" s="19">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:13">
       <c r="A72" s="38"/>
       <c r="E72" s="21"/>
-    </row>
-    <row r="73" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A73" s="38">
-        <v>1</v>
-      </c>
-      <c r="B73" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C73" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E73" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="F73" s="39">
-        <v>44130</v>
-      </c>
-      <c r="G73" s="19">
-        <v>2200</v>
-      </c>
-      <c r="H73" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="I73">
-        <v>40</v>
-      </c>
-      <c r="J73" s="50">
+      <c r="J72" s="50"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="36"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:13">
+      <c r="A73" s="38"/>
+      <c r="E73" s="21"/>
+      <c r="J73" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K73" s="49">
+        <f>SUM(K70:K72)</f>
         <v>0</v>
       </c>
-      <c r="K73" s="36">
-        <f>J73*I73</f>
-        <v>0</v>
-      </c>
-      <c r="L73" s="45">
-        <f>N73-G73-J73</f>
-        <v>800</v>
-      </c>
-      <c r="M73" s="36">
-        <f>L73*I73</f>
-        <v>32000</v>
-      </c>
-      <c r="N73" s="19">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:13">
+      <c r="L73" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="M73" s="49">
+        <f>SUM(M70:M72)</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="74" ht="5.1" customHeight="1" spans="1:5">
       <c r="A74" s="38"/>
       <c r="E74" s="21"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="45"/>
-      <c r="M74" s="36"/>
-    </row>
-    <row r="75" customHeight="1" spans="1:13">
-      <c r="A75" s="38"/>
-      <c r="E75" s="21"/>
-      <c r="J75" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="K75" s="49">
-        <f>SUM(K72:K74)</f>
+    </row>
+    <row r="75" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A75" s="38">
+        <v>1</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E75" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F75" s="39">
+        <v>44130</v>
+      </c>
+      <c r="G75" s="19">
+        <v>2200</v>
+      </c>
+      <c r="H75" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="I75">
+        <v>40</v>
+      </c>
+      <c r="J75" s="50">
         <v>0</v>
       </c>
-      <c r="L75" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="M75" s="49">
-        <f>SUM(M72:M74)</f>
+      <c r="K75" s="36">
+        <f>J75*I75</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="45">
+        <f>N75-G75-J75</f>
+        <v>800</v>
+      </c>
+      <c r="M75" s="36">
+        <f>L75*I75</f>
         <v>32000</v>
       </c>
-    </row>
-    <row r="76" ht="6" customHeight="1" spans="1:5">
+      <c r="N75" s="19">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:13">
       <c r="A76" s="38"/>
       <c r="E76" s="21"/>
-    </row>
-    <row r="77" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A77" s="38">
-        <v>1</v>
-      </c>
-      <c r="B77" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" t="s">
-        <v>135</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E77" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="F77" s="39">
-        <v>44130</v>
-      </c>
-      <c r="G77" s="19">
-        <v>2325</v>
-      </c>
-      <c r="H77" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="I77">
-        <v>40</v>
-      </c>
-      <c r="J77" s="50">
+      <c r="J76" s="50"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="36"/>
+    </row>
+    <row r="77" customHeight="1" spans="1:13">
+      <c r="A77" s="38"/>
+      <c r="E77" s="21"/>
+      <c r="J77" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K77" s="49">
+        <f>SUM(K74:K76)</f>
         <v>0</v>
       </c>
-      <c r="K77" s="36">
-        <f t="shared" ref="K77:K82" si="8">J77*I77</f>
-        <v>0</v>
-      </c>
-      <c r="L77" s="45">
-        <f t="shared" ref="L77:L82" si="9">N77-G77-J77</f>
-        <v>975</v>
-      </c>
-      <c r="M77" s="36">
-        <f t="shared" ref="M77:M82" si="10">L77*I77</f>
-        <v>39000</v>
-      </c>
-      <c r="N77" s="19">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:13">
+      <c r="L77" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="M77" s="49">
+        <f>SUM(M74:M76)</f>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="78" ht="6" customHeight="1" spans="1:5">
       <c r="A78" s="38"/>
       <c r="E78" s="21"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="36"/>
-    </row>
-    <row r="79" customHeight="1" spans="1:13">
-      <c r="A79" s="38"/>
-      <c r="E79" s="21"/>
-      <c r="J79" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="K79" s="49">
-        <f>SUM(K76:K78)</f>
+    </row>
+    <row r="79" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A79" s="38">
+        <v>1</v>
+      </c>
+      <c r="B79" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" s="39">
+        <v>44130</v>
+      </c>
+      <c r="G79" s="19">
+        <v>2325</v>
+      </c>
+      <c r="H79" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="I79">
+        <v>40</v>
+      </c>
+      <c r="J79" s="50">
         <v>0</v>
       </c>
-      <c r="L79" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="M79" s="49">
-        <f>SUM(M76:M78)</f>
+      <c r="K79" s="36">
+        <f t="shared" ref="K79:K84" si="11">J79*I79</f>
+        <v>0</v>
+      </c>
+      <c r="L79" s="45">
+        <f t="shared" ref="L79:L84" si="12">N79-G79-J79</f>
+        <v>975</v>
+      </c>
+      <c r="M79" s="36">
+        <f t="shared" ref="M79:M84" si="13">L79*I79</f>
         <v>39000</v>
       </c>
-    </row>
-    <row r="80" ht="9" customHeight="1" spans="1:5">
+      <c r="N79" s="19">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:13">
       <c r="A80" s="38"/>
       <c r="E80" s="21"/>
-    </row>
-    <row r="81" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A81" s="38">
+      <c r="J80" s="50"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="36"/>
+    </row>
+    <row r="81" customHeight="1" spans="1:13">
+      <c r="A81" s="38"/>
+      <c r="E81" s="21"/>
+      <c r="J81" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K81" s="49">
+        <f>SUM(K78:K80)</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="M81" s="49">
+        <f>SUM(M78:M80)</f>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="82" ht="9" customHeight="1" spans="1:5">
+      <c r="A82" s="38"/>
+      <c r="E82" s="21"/>
+    </row>
+    <row r="83" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A83" s="38">
         <v>1</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B83" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C83" t="s">
         <v>162</v>
       </c>
-      <c r="D81" s="27"/>
-      <c r="E81" s="34" t="s">
+      <c r="D83" s="27"/>
+      <c r="E83" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F81" s="39">
+      <c r="F83" s="39">
         <v>44131</v>
       </c>
-      <c r="G81" s="19">
+      <c r="G83" s="19">
         <v>4500</v>
       </c>
-      <c r="H81" s="40" t="s">
+      <c r="H83" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="I81">
+      <c r="I83">
         <v>16</v>
       </c>
-      <c r="J81" s="50">
+      <c r="J83" s="50">
         <v>0</v>
       </c>
-      <c r="K81" s="36">
-        <f t="shared" si="8"/>
+      <c r="K83" s="36">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L81" s="45">
-        <f t="shared" si="9"/>
+      <c r="L83" s="45">
+        <f t="shared" si="12"/>
         <v>4000</v>
       </c>
-      <c r="M81" s="36">
-        <f t="shared" si="10"/>
+      <c r="M83" s="36">
+        <f t="shared" si="13"/>
         <v>64000</v>
       </c>
-      <c r="N81" s="19">
+      <c r="N83" s="19">
         <v>8500</v>
       </c>
     </row>
-    <row r="82" customFormat="1" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A82" s="38">
-        <v>1</v>
-      </c>
-      <c r="B82" s="41" t="s">
+    <row r="84" customFormat="1" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A84" s="38">
+        <f>A83+1</f>
+        <v>2</v>
+      </c>
+      <c r="B84" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C84" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="27"/>
-      <c r="E82" s="34" t="s">
+      <c r="D84" s="27"/>
+      <c r="E84" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F82" s="39">
+      <c r="F84" s="39">
         <v>44134</v>
       </c>
-      <c r="G82" s="19">
+      <c r="G84" s="19">
         <v>6000</v>
       </c>
-      <c r="H82" s="40" t="s">
+      <c r="H84" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="I82">
+      <c r="I84">
         <v>60</v>
       </c>
-      <c r="J82" s="50">
+      <c r="J84" s="50">
         <v>0</v>
       </c>
-      <c r="K82" s="36">
-        <f t="shared" si="8"/>
+      <c r="K84" s="36">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L82" s="45">
-        <f t="shared" si="9"/>
+      <c r="L84" s="45">
+        <f t="shared" si="12"/>
         <v>2500</v>
       </c>
-      <c r="M82" s="36">
-        <f t="shared" si="10"/>
+      <c r="M84" s="36">
+        <f t="shared" si="13"/>
         <v>150000</v>
       </c>
-      <c r="N82" s="19">
+      <c r="N84" s="19">
         <v>8500</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:13">
-      <c r="A83" s="38"/>
-      <c r="E83" s="21"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="36"/>
-      <c r="L83" s="45"/>
-      <c r="M83" s="36"/>
-    </row>
-    <row r="84" customHeight="1" spans="1:13">
-      <c r="A84" s="38"/>
-      <c r="E84" s="21"/>
-      <c r="J84" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="K84" s="49">
-        <f>SUM(K80:K83)</f>
-        <v>0</v>
-      </c>
-      <c r="L84" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="M84" s="49">
-        <f>SUM(M80:M83)</f>
-        <v>214000</v>
-      </c>
-    </row>
-    <row r="85" ht="9" customHeight="1" spans="1:5">
+    <row r="85" customHeight="1" spans="1:13">
       <c r="A85" s="38"/>
       <c r="E85" s="21"/>
-    </row>
-    <row r="86" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A86" s="38">
-        <v>1</v>
-      </c>
-      <c r="B86" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="C86" t="s">
-        <v>135</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E86" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="F86" s="39">
-        <v>44131</v>
-      </c>
-      <c r="G86" s="19">
-        <v>675</v>
-      </c>
-      <c r="H86" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="I86">
-        <v>240</v>
-      </c>
-      <c r="J86" s="50">
+      <c r="J85" s="50"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="45"/>
+      <c r="M85" s="36"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:13">
+      <c r="A86" s="38"/>
+      <c r="E86" s="21"/>
+      <c r="J86" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K86" s="49">
+        <f>SUM(K82:K85)</f>
         <v>0</v>
       </c>
-      <c r="K86" s="36">
-        <f>J86*I86</f>
-        <v>0</v>
-      </c>
-      <c r="L86" s="45">
-        <f>N86-G86-J86</f>
-        <v>575</v>
-      </c>
-      <c r="M86" s="36">
-        <f>L86*I86</f>
-        <v>138000</v>
-      </c>
-      <c r="N86" s="19">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="1:13">
+      <c r="L86" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="M86" s="49">
+        <f>SUM(M82:M85)</f>
+        <v>214000</v>
+      </c>
+    </row>
+    <row r="87" ht="9" customHeight="1" spans="1:5">
       <c r="A87" s="38"/>
       <c r="E87" s="21"/>
-      <c r="J87" s="50"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="45"/>
-      <c r="M87" s="36"/>
-    </row>
-    <row r="88" customHeight="1" spans="1:13">
-      <c r="A88" s="38"/>
-      <c r="E88" s="21"/>
-      <c r="J88" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="K88" s="49">
-        <f>SUM(K85:K87)</f>
+    </row>
+    <row r="88" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A88" s="38">
+        <v>1</v>
+      </c>
+      <c r="B88" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" t="s">
+        <v>135</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F88" s="39">
+        <v>44131</v>
+      </c>
+      <c r="G88" s="19">
+        <v>675</v>
+      </c>
+      <c r="H88" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="I88">
+        <v>240</v>
+      </c>
+      <c r="J88" s="50">
         <v>0</v>
       </c>
-      <c r="L88" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="M88" s="49">
-        <f>SUM(M85:M87)</f>
+      <c r="K88" s="36">
+        <f>J88*I88</f>
+        <v>0</v>
+      </c>
+      <c r="L88" s="45">
+        <f>N88-G88-J88</f>
+        <v>575</v>
+      </c>
+      <c r="M88" s="36">
+        <f>L88*I88</f>
         <v>138000</v>
       </c>
-    </row>
-    <row r="89" ht="8" customHeight="1" spans="1:5">
+      <c r="N88" s="19">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:13">
       <c r="A89" s="38"/>
       <c r="E89" s="21"/>
-    </row>
-    <row r="90" customFormat="1" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A90" s="38">
-        <v>1</v>
-      </c>
-      <c r="B90" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="C90" t="s">
-        <v>162</v>
-      </c>
-      <c r="D90" s="27"/>
-      <c r="E90" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F90" s="39">
-        <v>44134</v>
-      </c>
-      <c r="G90" s="19">
-        <v>1700</v>
-      </c>
-      <c r="H90" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="I90">
-        <v>240</v>
-      </c>
-      <c r="J90" s="50">
+      <c r="J89" s="50"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="45"/>
+      <c r="M89" s="36"/>
+    </row>
+    <row r="90" customHeight="1" spans="1:13">
+      <c r="A90" s="38"/>
+      <c r="E90" s="21"/>
+      <c r="J90" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="K90" s="49">
+        <f>SUM(K87:K89)</f>
         <v>0</v>
       </c>
-      <c r="K90" s="36">
-        <f>J90*I90</f>
-        <v>0</v>
-      </c>
-      <c r="L90" s="45">
-        <f>N90-G90-J90</f>
-        <v>800</v>
-      </c>
-      <c r="M90" s="36">
-        <f>L90*I90</f>
-        <v>192000</v>
-      </c>
-      <c r="N90" s="19">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="91" customFormat="1" customHeight="1" spans="1:13">
+      <c r="L90" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="M90" s="49">
+        <f>SUM(M87:M89)</f>
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="91" ht="8" customHeight="1" spans="1:5">
       <c r="A91" s="38"/>
       <c r="E91" s="21"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="36"/>
-      <c r="L91" s="45"/>
-      <c r="M91" s="36"/>
-    </row>
-    <row r="92" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A92" s="38"/>
-      <c r="E92" s="21"/>
-      <c r="J92" s="48" t="s">
+    </row>
+    <row r="92" customFormat="1" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A92" s="38">
+        <v>1</v>
+      </c>
+      <c r="B92" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" t="s">
+        <v>162</v>
+      </c>
+      <c r="D92" s="27"/>
+      <c r="E92" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F92" s="39">
+        <v>44134</v>
+      </c>
+      <c r="G92" s="19">
+        <v>1700</v>
+      </c>
+      <c r="H92" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="I92">
+        <v>240</v>
+      </c>
+      <c r="J92" s="50">
+        <v>0</v>
+      </c>
+      <c r="K92" s="36">
+        <f>J92*I92</f>
+        <v>0</v>
+      </c>
+      <c r="L92" s="45">
+        <f>N92-G92-J92</f>
+        <v>800</v>
+      </c>
+      <c r="M92" s="36">
+        <f>L92*I92</f>
+        <v>192000</v>
+      </c>
+      <c r="N92" s="19">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A93" s="38"/>
+      <c r="E93" s="21"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="45"/>
+      <c r="M93" s="36"/>
+    </row>
+    <row r="94" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A94" s="38"/>
+      <c r="E94" s="21"/>
+      <c r="J94" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="K92" s="49">
-        <f>SUM(K89:K91)</f>
+      <c r="K94" s="49">
+        <f>SUM(K91:K93)</f>
         <v>0</v>
       </c>
-      <c r="L92" s="48" t="s">
+      <c r="L94" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="M92" s="49">
-        <f>SUM(M89:M91)</f>
+      <c r="M94" s="49">
+        <f>SUM(M91:M93)</f>
         <v>192000</v>
       </c>
     </row>
-    <row r="93" ht="8" customHeight="1" spans="1:1">
-      <c r="A93" s="38"/>
-    </row>
-    <row r="94" customFormat="1" ht="42.95" customHeight="1" spans="1:14">
-      <c r="A94" s="38">
+    <row r="95" ht="8" customHeight="1" spans="1:1">
+      <c r="A95" s="38"/>
+    </row>
+    <row r="96" customFormat="1" ht="42.95" customHeight="1" spans="1:14">
+      <c r="A96" s="38">
         <v>1</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B96" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C96" t="s">
         <v>135</v>
       </c>
-      <c r="D94" s="27" t="s">
+      <c r="D96" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E94" s="34" t="s">
+      <c r="E96" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F94" s="39">
+      <c r="F96" s="39">
         <v>44117</v>
       </c>
-      <c r="G94" s="19">
+      <c r="G96" s="19">
         <v>12000</v>
       </c>
-      <c r="H94" s="40" t="s">
+      <c r="H96" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="I94">
+      <c r="I96">
         <v>10</v>
       </c>
-      <c r="J94" s="50">
+      <c r="J96" s="50">
         <v>0</v>
       </c>
-      <c r="K94" s="36">
-        <f>J94*I94</f>
+      <c r="K96" s="36">
+        <f>J96*I96</f>
         <v>0</v>
       </c>
-      <c r="L94" s="45">
-        <f>N94-G94-J94</f>
+      <c r="L96" s="45">
+        <f>N96-G96-J96</f>
         <v>2500</v>
       </c>
-      <c r="M94" s="36">
-        <f>L94*I94</f>
+      <c r="M96" s="36">
+        <f>L96*I96</f>
         <v>25000</v>
       </c>
-      <c r="N94" s="19">
+      <c r="N96" s="19">
         <v>14500</v>
       </c>
     </row>
-    <row r="95" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A95" s="38"/>
-      <c r="E95" s="21"/>
-      <c r="J95" s="50"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="45"/>
-      <c r="M95" s="36"/>
-    </row>
-    <row r="96" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A96" s="38"/>
-      <c r="E96" s="21"/>
-      <c r="J96" s="48" t="s">
+    <row r="97" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A97" s="38"/>
+      <c r="E97" s="21"/>
+      <c r="J97" s="50"/>
+      <c r="K97" s="36"/>
+      <c r="L97" s="45"/>
+      <c r="M97" s="36"/>
+    </row>
+    <row r="98" customFormat="1" customHeight="1" spans="1:13">
+      <c r="A98" s="38"/>
+      <c r="E98" s="21"/>
+      <c r="J98" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="K96" s="49">
-        <f>SUM(K93:K95)</f>
+      <c r="K98" s="49">
+        <f>SUM(K95:K97)</f>
         <v>0</v>
       </c>
-      <c r="L96" s="48" t="s">
+      <c r="L98" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="M96" s="49">
-        <f>SUM(M93:M95)</f>
+      <c r="M98" s="49">
+        <f>SUM(M95:M97)</f>
         <v>25000</v>
       </c>
     </row>
@@ -8985,59 +8860,59 @@
     <mergeCell ref="N11:N12"/>
   </mergeCells>
   <dataValidations count="19">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B13:B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B20 B13:B18">
       <formula1>Item!$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19 C23 C27 C41 C47 C65 C13:C18 C31:C33 C36:C37 C45:C46 C51:C55 C59:C61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19 C20 C24 C28 C42 C48 C66 C67 C13:C18 C32:C34 C37:C38 C46:C47 C52:C56 C60:C62">
       <formula1>"Food"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
+      <formula1>Item!$B$9:$B$14</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:G19 I19:N19 F20:G20 I20:N20 F24:G24 I24:N24 K28:M28 K48:M48 K49:M49 K66:M66 K67:M67 K68:M68 K83:M83 K84:M84 K85:M85 K96:L96 M96 K97:M97 K71:M72 K75:M76 K79:M80 K42:M43 K46:M47 K52:M53 K88:M89 K92:M93 F13:G18 I13:N18 K37:M39 K55:M57 K32:M34 K60:M63"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19 D20 D24 D28 D42 D48 D66 D67 D71 D75 D79 D83 D84 D88 D13:D18 D32:D34 D37:D38 D46:D47 D52:D56 D60:D62">
+      <formula1>$V$12:$V$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19 E20 E24 E28 E42 E48 E66 E67 E71 E75 E79 E83 E84 E88 E92 E96 E13:E18 E32:E34 E37:E38 E46:E47 E52:E56 E60:E62">
+      <formula1>Supllier!$C$19:$C$25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19 H20 H13:H18">
+      <formula1>$Q$12:$Q$16</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H24">
       <formula1>$Q$12:$Q$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23 B27 B31:B33 B36:B37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B28 B32:B34 B37:B38">
       <formula1>Item!$B$9:$B$13</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:G19 I19:N19 F23:G23 I23:N23 K27:M27 K47:M47 K48:M48 K81:M81 K82:M82 K83:M83 K94:L94 M94 K95:M95 K41:M42 K45:M46 K51:M52 K65:M66 K69:M70 K73:M74 K77:M78 K86:M87 K90:M91 K36:M38 K54:M56 F13:G18 I13:N18 K31:M33 K59:M62"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19 D23 D27 D41 D47 D65 D69 D73 D77 D81 D82 D86 D13:D18 D31:D33 D36:D37 D45:D46 D51:D55 D59:D61">
-      <formula1>$V$12:$V$15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19 E23 E27 E41 E47 E65 E69 E73 E77 E81 E82 E86 E90 E94 E13:E18 E31:E33 E36:E37 E45:E46 E51:E55 E59:E61">
-      <formula1>Supllier!$C$19:$C$25</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H19 H13:H18">
-      <formula1>$Q$12:$Q$16</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
-      <formula1>Item!$B$9:$B$14</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H47 H65 H69 H73 H77 H81 H82 H86 H90 H45:H46 H51:H55 H59:H61">
-      <formula1>$Q$12:$Q$20</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47 B45:B46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48 B46:B47">
       <formula1>Item!$B$9:$B$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H48 H66 H67 H71 H75 H79 H83 H84 H88 H92 H46:H47 H52:H56 H60:H62">
+      <formula1>$Q$12:$Q$21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
       <formula1>Item!$B$9:$B$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65 B59:B61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60 B66 B67 B61:B62">
       <formula1>Item!$B$9:$B$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
       <formula1>Item!$B$9:$B$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69 C73 C77 C81 C82 C86 C90 C94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C71 C75 C79 C83 C84 C88 C92 C96">
       <formula1>"Food,House Hold"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73 B77 B81 B82 B86 B90 B94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75 B79 B83 B84 B88 B92 B96">
       <formula1>Item!$B$9:$B$46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D90 D94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D92 D96">
       <formula1>$G$2:$G$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H96">
       <formula1>$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51:B54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52:B55">
       <formula1>Item!$B$9:$B$16</formula1>
     </dataValidation>
   </dataValidations>
@@ -9055,10 +8930,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:I11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.2857142857143" defaultRowHeight="38" customHeight="1"/>
@@ -9135,7 +9010,7 @@
         <v>7000</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="I3" s="4">
         <f>SUM(G3:G5)</f>
@@ -9251,11 +9126,11 @@
         <v>52500</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I7" s="4">
         <f>SUM(G7:G9)</f>
-        <v>137500</v>
+        <v>141500</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:9">
@@ -9299,115 +9174,1656 @@
         <v>148</v>
       </c>
       <c r="E9" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" s="4">
         <f>(C9-E9)*Pemesanan!L19</f>
+        <v>44000</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A10" s="20">
+        <v>44141</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="1">
+        <f>Pemesanan!I20</f>
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="1">
+        <v>25</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="4">
+        <f>(C10-E10)*Pemesanan!L20</f>
+        <v>5000</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" s="4">
+        <f>G10</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="9:9">
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A12" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A13" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A14" s="20">
+        <v>44082</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="1">
+        <f>Pemesanan!I24</f>
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="4">
+        <f>(C14-E14)*Pemesanan!L24</f>
+        <v>26400</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="4">
+        <f>SUM(G14:G16)</f>
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A16" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A17" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A18" s="20">
+        <v>44082</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="1">
+        <f>Pemesanan!I28</f>
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="4">
+        <f>(C18-E18)*Pemesanan!L28</f>
+        <v>16800</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="4">
+        <f>SUM(G18:G20)</f>
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A20" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A21" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A22" s="20">
+        <v>44082</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1">
+        <f>Pemesanan!I32</f>
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" s="4">
+        <f>(C22-E22)*Pemesanan!L32</f>
+        <v>12000</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="4">
+        <f>SUM(G22:G25)</f>
+        <v>17490</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A23" s="20">
+        <v>44130</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1">
+        <f>Pemesanan!I33</f>
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="1">
+        <v>9</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="4">
+        <f>(C23-E23)*Pemesanan!L33</f>
+        <v>5490</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="4">
+        <f>SUM(G23:G26)</f>
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A25" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A26" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A27" s="20">
+        <v>44082</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="1">
+        <f>Pemesanan!I37</f>
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="4">
+        <f>(C27-E27)*Pemesanan!L37</f>
+        <v>14400</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" ref="I27:I32" si="0">SUM(G27:G29)</f>
+        <v>26900</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A28" s="20">
+        <v>44130</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1">
+        <f>Pemesanan!I38</f>
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G28" s="4">
+        <f>(C28-E28)*Pemesanan!L38</f>
+        <v>12500</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="0"/>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A30" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A31" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A32" s="20">
+        <v>44082</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="1">
+        <f>Pemesanan!I42</f>
+        <v>30</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="4">
+        <f>(C32-E32)*Pemesanan!L42</f>
+        <v>14500</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="0"/>
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A34" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A35" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A36" s="20">
+        <v>44063</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="1">
+        <f>Pemesanan!I46</f>
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" s="4">
+        <f>(C36-E36)*Pemesanan!L46</f>
+        <v>20000</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" ref="I36:I38" si="1">SUM(G36:G38)</f>
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A37" s="20">
+        <v>44082</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="1">
+        <f>Pemesanan!I47</f>
+        <v>20</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="4">
+        <f>(C37-E37)*Pemesanan!L47</f>
         <v>40000</v>
       </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" ht="10" customHeight="1" spans="9:9">
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A11" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A12" s="17" t="s">
+      <c r="H37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="1"/>
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A38" s="20">
+        <v>44134</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1">
+        <f>Pemesanan!I48</f>
+        <v>10</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="4">
+        <f>(C38-E38)*Pemesanan!L48</f>
+        <v>1500</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A40" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A41" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B41" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C41" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D41" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E41" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F41" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G41" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H41" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I41" s="24" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A13" s="20">
-        <v>44050</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="1">
-        <f>Pemesanan!I23</f>
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A42" s="20">
+        <v>44063</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="1">
+        <f>Pemesanan!I52</f>
+        <v>10</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E42" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F42" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="4">
-        <f>(C13-E13)*Pemesanan!L23</f>
-        <v>26400</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="G42" s="4">
+        <f>(C42-E42)*Pemesanan!L52</f>
+        <v>20000</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" s="4">
+        <f>SUM(G42:G44)</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A44" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+    </row>
+    <row r="45" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A45" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A46" s="20">
+        <v>44125</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="1">
+        <f>Pemesanan!I56</f>
+        <v>10</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="4">
+        <f>(C46-E46)*Pemesanan!L56</f>
+        <v>7000</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I13" s="4">
-        <f>SUM(G13:G15)</f>
-        <v>26400</v>
+      <c r="I46" s="4">
+        <f t="shared" ref="I46:I52" si="2">SUM(G46:G48)</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A48" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+    </row>
+    <row r="49" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A49" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A50" s="20">
+        <v>44063</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="1">
+        <f>Pemesanan!I60</f>
+        <v>36</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" s="4">
+        <f>(C50-E50)*Pemesanan!L60</f>
+        <v>18000</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50" s="4">
+        <f t="shared" si="2"/>
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A51" s="20">
+        <v>44082</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="1">
+        <f>Pemesanan!I61</f>
+        <v>72</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" s="4">
+        <f>(C51-E51)*Pemesanan!L61</f>
+        <v>36000</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I51" s="4">
+        <f t="shared" si="2"/>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A52" s="20">
+        <v>44125</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="1">
+        <f>Pemesanan!I62</f>
+        <v>72</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" s="1">
+        <v>36</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" s="4">
+        <f>(C52-E52)*Pemesanan!L62</f>
+        <v>27000</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I52" s="4">
+        <f t="shared" si="2"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A54" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+    </row>
+    <row r="55" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A55" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A56" s="20">
+        <v>44082</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="1">
+        <v>10</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" s="4">
+        <f>(C56-E56)*Pemesanan!L66</f>
+        <v>10000</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I56" s="4">
+        <f>SUM(G56:G59)</f>
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A57" s="20">
+        <v>44120</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="1">
+        <f>Pemesanan!I67</f>
+        <v>5</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G57" s="4">
+        <f>(C57-E57)*Pemesanan!L67</f>
+        <v>13000</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I57" s="4">
+        <f>SUM(G57:G63)</f>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A59" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+    </row>
+    <row r="60" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A60" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A61" s="20">
+        <v>44130</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="1">
+        <f>Pemesanan!I71</f>
+        <v>12</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="1">
+        <v>8</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G61" s="4">
+        <f>(C61-E61)*Pemesanan!L71</f>
+        <v>8000</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I61" s="4">
+        <f>SUM(G61:G62)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A63" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+    </row>
+    <row r="64" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A64" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I64" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A65" s="20">
+        <v>44130</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="1">
+        <f>Pemesanan!I75</f>
+        <v>40</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" s="1">
+        <v>39</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G65" s="4">
+        <f>(C65-E65)*Pemesanan!L75</f>
+        <v>800</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I65" s="4">
+        <f>SUM(G65:G66)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A67" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+    </row>
+    <row r="68" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A68" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I68" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A69" s="20">
+        <v>44130</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="1">
+        <f>Pemesanan!I79</f>
+        <v>40</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="1">
+        <v>37</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G69" s="4">
+        <f>(C69-E69)*Pemesanan!L79</f>
+        <v>2925</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I69" s="4">
+        <f t="shared" ref="I69:I74" si="3">SUM(G69:G70)</f>
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A71" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+    </row>
+    <row r="72" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A72" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I72" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A73" s="20">
+        <v>44131</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="1">
+        <f>Pemesanan!I83</f>
+        <v>16</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G73" s="4">
+        <f>(C73-E73)*Pemesanan!L83</f>
+        <v>64000</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I73" s="4">
+        <f t="shared" si="3"/>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A74" s="20">
+        <v>44134</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="1">
+        <f>Pemesanan!I84</f>
+        <v>60</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" s="1">
+        <v>60</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G74" s="4">
+        <f>(C74-E74)*Pemesanan!L84</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I74" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A76" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+    </row>
+    <row r="77" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A77" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H77" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I77" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A78" s="20">
+        <v>44131</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="1">
+        <f>Pemesanan!I88</f>
+        <v>240</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E78" s="1">
+        <v>51</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G78" s="4">
+        <f>(C78-E78)*Pemesanan!L88</f>
+        <v>108675</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I78" s="4">
+        <f>SUM(G78:G79)</f>
+        <v>108675</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A80" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+    </row>
+    <row r="81" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A81" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A82" s="20">
+        <v>44134</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="1">
+        <f>Pemesanan!I92</f>
+        <v>240</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E82" s="1">
+        <v>240</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G82" s="4">
+        <f>(C82-E82)*Pemesanan!L92</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I82" s="4">
+        <f>SUM(G82:G83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A84" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+    </row>
+    <row r="85" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A85" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I85" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A86" s="20">
+        <v>44117</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="1">
+        <f>Pemesanan!I96</f>
+        <v>10</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E86" s="1">
+        <v>10</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G86" s="4">
+        <f>(C86-E86)*Pemesanan!L96</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I86" s="4">
+        <f>SUM(G86:G87)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="22">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="A71:I71"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="A80:I80"/>
+    <mergeCell ref="A84:I84"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="I7:I9"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A4 A5 A6 A7 A8 A9 A13">
-      <formula1>Pemesanan!$F$13:$F$20</formula1>
+  <dataValidations count="22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A4 A5 A6 A7 A8 A9 A10">
+      <formula1>Pemesanan!$F$13:$F$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B4 B5 B6 B7 B8 B9 B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 F5 F6 F7 F8 F9 F10 F14 F18 F22 F23 F27 F28 F32 F36 F37 F38 F42 F46 F50 F51 F52 F56 F57 F61 F65 F69 F73 F74 F78 F82 F86">
+      <formula1>"Available,Done"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A86">
+      <formula1>Pemesanan!$F$96:$F$97</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B4 B5 B6 B7 B8 B9 B10 B14 B18 B22 B23 B27 B28 B32 B36 B37 B38 B42 B46 B50 B51 B52 B56 B57 B61 B65 B69 B73 B74 B78 B82 B86">
       <formula1>Supllier!$C$19:$C$25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A46">
+      <formula1>Pemesanan!$F$56:$F$57</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D14 D18 D22 D23 D27 D28 D32 D36 D37 D38 D42 D46 D50 D51 D52 D56 D57 D61 D65 D69 D73 D74 D78 D82 D86">
       <formula1>Pemesanan!$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 F5 F6 F7 F8 F9 F13">
-      <formula1>"Available,Done"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14">
+      <formula1>Pemesanan!$F$24:$F$25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18">
+      <formula1>Pemesanan!$F$28:$F$29</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H50 H56 H57 H61 H65 H69 H73 H74 H78 H82 H86 H51:H52">
+      <formula1>"January,February,March,April,May,June,July,August,September,October,November,December"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A36 A37 A38 A42">
+      <formula1>Pemesanan!$F$46:$F$49</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A27 A28">
+      <formula1>Pemesanan!$F$37:$F$39</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A32">
+      <formula1>Pemesanan!$F$42:$F$43</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22 A23">
+      <formula1>Pemesanan!$F$32:$F$34</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50 A51 A52">
+      <formula1>Pemesanan!$F$60:$F$63</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A56 A57">
+      <formula1>Pemesanan!$F$66:$F$68</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A61">
+      <formula1>Pemesanan!$F$71:$F$72</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A65">
+      <formula1>Pemesanan!$F$75:$F$76</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A69">
+      <formula1>Pemesanan!$F$79:$F$80</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A73 A74">
+      <formula1>Pemesanan!$F$83:$F$85</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A78">
+      <formula1>Pemesanan!$F$88:$F$89</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A82">
+      <formula1>Pemesanan!$F$92:$F$93</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A84:I84">
+      <formula1>Item!$B$9:$B$45</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9433,7 +10849,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -9454,7 +10870,7 @@
         <v>44044</v>
       </c>
       <c r="B3" s="19">
-        <f>SUM(Pemesanan!M13:M15)+Pemesanan!M45+Pemesanan!M59</f>
+        <f>SUM(Pemesanan!M13:M15)+Pemesanan!M46+Pemesanan!M60</f>
         <v>105000</v>
       </c>
       <c r="C3" s="19"/>
@@ -9464,7 +10880,7 @@
         <v>44075</v>
       </c>
       <c r="B4" s="19">
-        <f>Pemesanan!M16+Pemesanan!M23+Pemesanan!M27+Pemesanan!M31+Pemesanan!M36+Pemesanan!M41+Pemesanan!M46+Pemesanan!M51+Pemesanan!M60</f>
+        <f>Pemesanan!M16+Pemesanan!M24+Pemesanan!M28+Pemesanan!M32+Pemesanan!M37+Pemesanan!M42+Pemesanan!M47+Pemesanan!M52+Pemesanan!M61</f>
         <v>210600</v>
       </c>
       <c r="C4" s="19"/>
@@ -9474,7 +10890,7 @@
         <v>44105</v>
       </c>
       <c r="B5" s="19">
-        <f>SUM(Pemesanan!M17:M19)+Pemesanan!M32+Pemesanan!M37+Pemesanan!M47+Pemesanan!M55+Pemesanan!M61+Pemesanan!M69+Pemesanan!M73+Pemesanan!M77+Pemesanan!M81+Pemesanan!M82+Pemesanan!M86+Pemesanan!M90+Pemesanan!M94</f>
+        <f>SUM(Pemesanan!M17:M19)+Pemesanan!M33+Pemesanan!M38+Pemesanan!M48+Pemesanan!M56+Pemesanan!M62+Pemesanan!M71+Pemesanan!M75+Pemesanan!M79+Pemesanan!M83+Pemesanan!M84+Pemesanan!M88+Pemesanan!M92+Pemesanan!M96</f>
         <v>985460</v>
       </c>
       <c r="C5" s="19"/>
@@ -9495,7 +10911,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -9533,16 +10949,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>10</v>
@@ -9554,10 +10970,10 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="H2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
@@ -9565,19 +10981,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
@@ -9585,19 +11001,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
@@ -9605,10 +11021,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>61</v>
@@ -9619,16 +11035,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>10</v>
@@ -9639,19 +11055,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="I7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -9659,19 +11075,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H8" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="I8" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -9679,19 +11095,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H9" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="I9" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
@@ -9699,13 +11115,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -9713,16 +11129,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>10</v>
@@ -9733,19 +11149,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H12" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I12" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:9">
@@ -9753,16 +11169,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H13" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
@@ -9773,13 +11189,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
@@ -9787,13 +11203,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
@@ -9801,13 +11217,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
@@ -9815,13 +11231,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
@@ -9829,13 +11245,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
@@ -9843,13 +11259,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:4">
@@ -9857,13 +11273,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
@@ -9871,13 +11287,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
@@ -9885,13 +11301,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:4">
@@ -9899,13 +11315,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:4">
@@ -9913,13 +11329,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
@@ -9927,13 +11343,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:4">
@@ -9941,13 +11357,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:4">
@@ -9955,13 +11371,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:4">
@@ -9969,13 +11385,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:4">
@@ -9983,13 +11399,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:4">
@@ -9997,13 +11413,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:4">
@@ -10011,13 +11427,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
@@ -10025,13 +11441,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
@@ -10039,13 +11455,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
@@ -10053,13 +11469,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
@@ -10067,13 +11483,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
@@ -10081,13 +11497,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:4">
@@ -10095,13 +11511,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:4">
@@ -10109,13 +11525,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:4">
@@ -10123,13 +11539,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:4">
@@ -10137,10 +11553,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D40" s="11"/>
     </row>
@@ -10149,10 +11565,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D41" s="11"/>
     </row>
@@ -10161,10 +11577,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D42" s="11"/>
     </row>
@@ -10173,10 +11589,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D43" s="11"/>
     </row>
@@ -10185,10 +11601,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D44" s="11"/>
     </row>
@@ -10197,10 +11613,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D45" s="11"/>
     </row>
@@ -10209,10 +11625,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D46" s="11"/>
     </row>
@@ -10221,13 +11637,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:4">
@@ -10235,10 +11651,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D48" s="11"/>
     </row>
@@ -10420,7 +11836,7 @@
         <v>107</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>128</v>
@@ -10429,7 +11845,7 @@
         <v>167</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
@@ -10440,16 +11856,16 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="4:6">
@@ -10615,17 +12031,17 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>"Blom dibayar,Sdh dibayar"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>Item!$B$9:$B$88</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>"Blom dibayar,Sdh dibayar"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>Customer!$B$3:$B$91</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>"Dipesan,Siap dikirim,Sdh dikirim"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>Customer!$B$3:$B$91</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/NZR Online Shop.xlsx
+++ b/NZR Online Shop.xlsx
@@ -852,15 +852,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0;\-#,##0"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="181" formatCode="[$-409]mmmm\-yy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="180" formatCode="[$-409]mmmm\-yy;@"/>
+    <numFmt numFmtId="181" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -946,21 +946,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -975,78 +960,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1082,8 +1000,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,7 +1230,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,19 +1308,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,31 +1332,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,60 +1356,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1374,13 +1368,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,65 +1394,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1481,6 +1427,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1491,20 +1476,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1514,130 +1514,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1696,7 +1696,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1843,7 +1843,7 @@
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1852,7 +1852,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1861,7 +1861,7 @@
     <xf numFmtId="49" fontId="1" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1882,7 +1882,7 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1942,7 +1942,7 @@
   </cellStyles>
   <dxfs count="27">
     <dxf>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -1962,7 +1962,7 @@
         <sz val="11"/>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -1992,7 +1992,7 @@
         <sz val="11"/>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -2002,7 +2002,7 @@
         <sz val="11"/>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="49" formatCode="@"/>
@@ -2011,10 +2011,10 @@
       <numFmt numFmtId="49" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="49" formatCode="@"/>
@@ -8863,15 +8863,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B20 B13:B18">
       <formula1>Item!$B$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19 C20 C24 C28 C42 C48 C66 C67 C13:C18 C32:C34 C37:C38 C46:C47 C52:C56 C60:C62">
-      <formula1>"Food"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>Item!$B$9:$B$14</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:G19 I19:N19 F20:G20 I20:N20 F24:G24 I24:N24 K28:M28 K48:M48 K49:M49 K66:M66 K67:M67 K68:M68 K83:M83 K84:M84 K85:M85 K96:L96 M96 K97:M97 K71:M72 K75:M76 K79:M80 K42:M43 K46:M47 K52:M53 K88:M89 K92:M93 F13:G18 I13:N18 K37:M39 K55:M57 K32:M34 K60:M63"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19 D20 D24 D28 D42 D48 D66 D67 D71 D75 D79 D83 D84 D88 D13:D18 D32:D34 D37:D38 D46:D47 D52:D56 D60:D62">
       <formula1>$V$12:$V$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19 C20 C24 C28 C42 C48 C66 C67 C13:C18 C32:C34 C37:C38 C46:C47 C52:C56 C60:C62">
+      <formula1>"Food"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19 E20 E24 E28 E42 E48 E66 E67 E71 E75 E79 E83 E84 E88 E92 E96 E13:E18 E32:E34 E37:E38 E46:E47 E52:E56 E60:E62">
       <formula1>Supllier!$C$19:$C$25</formula1>
@@ -8884,6 +8881,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B28 B32:B34 B37:B38">
       <formula1>Item!$B$9:$B$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
+      <formula1>Item!$B$9:$B$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48 B46:B47">
       <formula1>Item!$B$9:$B$15</formula1>
@@ -8932,8 +8932,8 @@
   <sheetPr/>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.2857142857143" defaultRowHeight="38" customHeight="1"/>
@@ -10476,7 +10476,7 @@
       </c>
       <c r="I73" s="4">
         <f t="shared" si="3"/>
-        <v>64000</v>
+        <v>139000</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" customHeight="1" spans="1:9">
@@ -10494,21 +10494,21 @@
         <v>152</v>
       </c>
       <c r="E74" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F74" s="23" t="s">
         <v>172</v>
       </c>
       <c r="G74" s="4">
         <f>(C74-E74)*Pemesanan!L84</f>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>171</v>
       </c>
       <c r="I74" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="76" customFormat="1" customHeight="1" spans="1:9">
@@ -10642,21 +10642,21 @@
         <v>152</v>
       </c>
       <c r="E82" s="1">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="F82" s="23" t="s">
         <v>172</v>
       </c>
       <c r="G82" s="4">
         <f>(C82-E82)*Pemesanan!L92</f>
-        <v>0</v>
+        <v>174400</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>171</v>
       </c>
       <c r="I82" s="4">
         <f>SUM(G82:G83)</f>
-        <v>0</v>
+        <v>174400</v>
       </c>
     </row>
     <row r="84" customFormat="1" customHeight="1" spans="1:9">
@@ -10716,21 +10716,21 @@
         <v>148</v>
       </c>
       <c r="E86" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F86" s="23" t="s">
         <v>172</v>
       </c>
       <c r="G86" s="4">
         <f>(C86-E86)*Pemesanan!L96</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>171</v>
       </c>
       <c r="I86" s="4">
         <f>SUM(G86:G87)</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
@@ -10762,6 +10762,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A4 A5 A6 A7 A8 A9 A10">
       <formula1>Pemesanan!$F$13:$F$21</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50 A51 A52">
+      <formula1>Pemesanan!$F$60:$F$63</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 F5 F6 F7 F8 F9 F10 F14 F18 F22 F23 F27 F28 F32 F36 F37 F38 F42 F46 F50 F51 F52 F56 F57 F61 F65 F69 F73 F74 F78 F82 F86">
       <formula1>"Available,Done"</formula1>
     </dataValidation>
@@ -10783,9 +10786,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18">
       <formula1>Pemesanan!$F$28:$F$29</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H50 H56 H57 H61 H65 H69 H73 H74 H78 H82 H86 H51:H52">
-      <formula1>"January,February,March,April,May,June,July,August,September,October,November,December"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A36 A37 A38 A42">
       <formula1>Pemesanan!$F$46:$F$49</formula1>
     </dataValidation>
@@ -10798,8 +10798,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A22 A23">
       <formula1>Pemesanan!$F$32:$F$34</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A50 A51 A52">
-      <formula1>Pemesanan!$F$60:$F$63</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H50 H56 H57 H61 H65 H69 H73 H74 H78 H82 H86 H51:H52">
+      <formula1>"January,February,March,April,May,June,July,August,September,October,November,December"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A56 A57">
       <formula1>Pemesanan!$F$66:$F$68</formula1>
@@ -12031,17 +12031,17 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>"Blom dibayar,Sdh dibayar"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>Item!$B$9:$B$88</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"Dipesan,Siap dikirim,Sdh dikirim"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>Customer!$B$3:$B$91</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
-      <formula1>"Dipesan,Siap dikirim,Sdh dikirim"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>"Blom dibayar,Sdh dibayar"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/NZR Online Shop.xlsx
+++ b/NZR Online Shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9810" activeTab="3"/>
+    <workbookView windowWidth="19815" windowHeight="7830" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Supllier" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="276">
   <si>
     <t>No</t>
   </si>
@@ -842,6 +842,12 @@
   </si>
   <si>
     <t>Ibu Bina Bakti 4</t>
+  </si>
+  <si>
+    <t>Mama Nadif</t>
+  </si>
+  <si>
+    <t>Bumi Prima</t>
   </si>
   <si>
     <t>Siap dikirim</t>
@@ -855,14 +861,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="#,##0;\-#,##0"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0;\-#,##0"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -961,16 +967,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -992,16 +990,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1032,15 +1030,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,15 +1059,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,6 +1077,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,7 +1238,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,73 +1328,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1322,55 +1340,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,6 +1356,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1396,17 +1402,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1416,21 +1416,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1474,11 +1459,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1493,18 +1484,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1516,85 +1522,97 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1603,34 +1621,22 @@
     <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1639,7 +1645,7 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1701,7 +1707,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1746,7 +1752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1758,7 +1764,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1842,7 +1848,7 @@
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1851,7 +1857,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1860,7 +1866,7 @@
     <xf numFmtId="49" fontId="1" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1881,7 +1887,7 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1941,7 +1947,7 @@
   </cellStyles>
   <dxfs count="27">
     <dxf>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -1961,7 +1967,7 @@
         <sz val="11"/>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -1991,7 +1997,7 @@
         <sz val="11"/>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <font>
@@ -2001,7 +2007,7 @@
         <sz val="11"/>
         <color auto="1"/>
       </font>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="49" formatCode="@"/>
@@ -2010,10 +2016,10 @@
       <numFmt numFmtId="49" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="49" formatCode="@"/>
@@ -6409,7 +6415,7 @@
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
@@ -7425,7 +7431,7 @@
   <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
@@ -7945,10 +7951,10 @@
   <sheetPr/>
   <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="29.1" customHeight="1"/>
@@ -10354,18 +10360,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B20 B13:B18">
       <formula1>Item!$B$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52:B55">
-      <formula1>Item!$B$10:$B$17</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>Item!$B$10:$B$15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
-      <formula1>Item!$B$10:$B$21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H48 H66 H67 H71 H75 H79 H83 H84 H88 H92 H46:H47 H52:H56 H60:H62">
-      <formula1>$Q$12:$Q$21</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19 C20 C24 C28 C42 C48 C66 C67 C13:C18 C32:C34 C37:C38 C46:C47 C52:C56 C60:C62">
       <formula1>"Food"</formula1>
     </dataValidation>
@@ -10382,8 +10376,20 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H24">
       <formula1>$Q$12:$Q$18</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52:B55">
+      <formula1>Item!$B$10:$B$17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
+      <formula1>Item!$B$10:$B$15</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48 B46:B47">
       <formula1>Item!$B$10:$B$16</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
+      <formula1>Item!$B$10:$B$21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H48 H66 H67 H71 H75 H79 H83 H84 H88 H92 H46:H47 H52:H56 H60:H62">
+      <formula1>$Q$12:$Q$21</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
       <formula1>Item!$B$10:$B$20</formula1>
@@ -10420,7 +10426,7 @@
   <sheetPr/>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A57" workbookViewId="0">
       <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
@@ -12243,9 +12249,6 @@
     <mergeCell ref="I73:I74"/>
   </mergeCells>
   <dataValidations count="22">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 F5 F6 F7 F8 F9 F10 F14 F18 F22 F23 F27 F28 F32 F36 F37 F38 F42 F46 F50 F51 F52 F56 F57 F61 F65 F69 F73 F74 F78 F82 F86">
-      <formula1>"Available,Done"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A4 A5 A6 A7 A8 A9 A10">
       <formula1>Pemesanan!$F$13:$F$21</formula1>
     </dataValidation>
@@ -12254,6 +12257,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B4 B5 B6 B7 B8 B9 B10 B14 B18 B22 B23 B27 B28 B32 B36 B37 B38 B42 B46 B50 B51 B52 B56 B57 B61 B65 B69 B73 B74 B78 B82 B86">
       <formula1>Supllier!$C$19:$C$25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3 F4 F5 F6 F7 F8 F9 F10 F14 F18 F22 F23 F27 F28 F32 F36 F37 F38 F42 F46 F50 F51 F52 F56 F57 F61 F65 F69 F73 F74 F78 F82 F86">
+      <formula1>"Available,Done"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A84:I84">
       <formula1>Item!$B$10:$B$46</formula1>
@@ -12426,9 +12432,9 @@
   <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="30" customHeight="1"/>
@@ -13160,9 +13166,15 @@
       <c r="A49" s="10">
         <v>45</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="11"/>
+      <c r="B49" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="50" customHeight="1" spans="1:1">
       <c r="A50" s="10"/>
@@ -13360,10 +13372,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="4:6">
@@ -13529,9 +13541,6 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>"Blom dibayar,Sdh dibayar"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>Item!$B$10:$B$89</formula1>
     </dataValidation>
@@ -13541,6 +13550,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>"Dipesan,Siap dikirim,Sdh dikirim"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>"Blom dibayar,Sdh dibayar"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
